--- a/Data/Team Match Data/Team Stats Dainava.xlsx
+++ b/Data/Team Match Data/Team Stats Dainava.xlsx
@@ -69,17 +69,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DE13"/>
+  <dimension ref="A1:DE19"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.789887640449443"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.08988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="6.389887640449439"/>
@@ -745,313 +745,313 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="str">
-        <f>AVERAGE(G4,G6,G8,G10,G12)</f>
+        <f>AVERAGE(G4,G6,G8,G10,G12,G14,G16,G18)</f>
       </c>
       <c r="H2" s="3" t="str">
-        <f>AVERAGE(H4,H6,H8,H10,H12)</f>
+        <f>AVERAGE(H4,H6,H8,H10,H12,H14,H16,H18)</f>
       </c>
       <c r="I2" s="3" t="str">
-        <f>AVERAGE(I4,I6,I8,I10,I12)</f>
+        <f>AVERAGE(I4,I6,I8,I10,I12,I14,I16,I18)</f>
       </c>
       <c r="J2" s="3" t="str">
-        <f>AVERAGE(J4,J6,J8,J10,J12)</f>
+        <f>AVERAGE(J4,J6,J8,J10,J12,J14,J16,J18)</f>
       </c>
       <c r="K2" s="3" t="str">
-        <f>IFERROR(SUM(J4,J6,J8,J10,J12)/SUM(I4,I6,I8,I10,I12)*100,0)</f>
+        <f>IFERROR(SUM(J4,J6,J8,J10,J12,J14,J16,J18)/SUM(I4,I6,I8,I10,I12,I14,I16,I18)*100,0)</f>
       </c>
       <c r="L2" s="3" t="str">
-        <f>AVERAGE(L4,L6,L8,L10,L12)</f>
+        <f>AVERAGE(L4,L6,L8,L10,L12,L14,L16,L18)</f>
       </c>
       <c r="M2" s="3" t="str">
-        <f>AVERAGE(M4,M6,M8,M10,M12)</f>
+        <f>AVERAGE(M4,M6,M8,M10,M12,M14,M16,M18)</f>
       </c>
       <c r="N2" s="3" t="str">
-        <f>IFERROR(SUM(M4,M6,M8,M10,M12)/SUM(L4,L6,L8,L10,L12)*100,0)</f>
+        <f>IFERROR(SUM(M4,M6,M8,M10,M12,M14,M16,M18)/SUM(L4,L6,L8,L10,L12,L14,L16,L18)*100,0)</f>
       </c>
       <c r="O2" s="3" t="str">
-        <f>AVERAGE(O4,O6,O8,O10,O12)</f>
+        <f>AVERAGE(O4,O6,O8,O10,O12,O14,O16,O18)</f>
       </c>
       <c r="P2" s="3" t="str">
-        <f>AVERAGE(P4,P6,P8,P10,P12)</f>
+        <f>AVERAGE(P4,P6,P8,P10,P12,P14,P16,P18)</f>
       </c>
       <c r="Q2" s="3" t="str">
-        <f>AVERAGE(Q4,Q6,Q8,Q10,Q12)</f>
+        <f>AVERAGE(Q4,Q6,Q8,Q10,Q12,Q14,Q16,Q18)</f>
       </c>
       <c r="R2" s="3" t="str">
-        <f>AVERAGE(R4,R6,R8,R10,R12)</f>
+        <f>AVERAGE(R4,R6,R8,R10,R12,R14,R16,R18)</f>
       </c>
       <c r="S2" s="3" t="str">
-        <f>AVERAGE(S4,S6,S8,S10,S12)</f>
+        <f>AVERAGE(S4,S6,S8,S10,S12,S14,S16,S18)</f>
       </c>
       <c r="T2" s="3" t="str">
-        <f>AVERAGE(T4,T6,T8,T10,T12)</f>
+        <f>AVERAGE(T4,T6,T8,T10,T12,T14,T16,T18)</f>
       </c>
       <c r="U2" s="3" t="str">
-        <f>AVERAGE(U4,U6,U8,U10,U12)</f>
+        <f>AVERAGE(U4,U6,U8,U10,U12,U14,U16,U18)</f>
       </c>
       <c r="V2" s="3" t="str">
-        <f>AVERAGE(V4,V6,V8,V10,V12)</f>
+        <f>AVERAGE(V4,V6,V8,V10,V12,V14,V16,V18)</f>
       </c>
       <c r="W2" s="3" t="str">
-        <f>AVERAGE(W4,W6,W8,W10,W12)</f>
+        <f>AVERAGE(W4,W6,W8,W10,W12,W14,W16,W18)</f>
       </c>
       <c r="X2" s="3" t="str">
-        <f>AVERAGE(X4,X6,X8,X10,X12)</f>
+        <f>AVERAGE(X4,X6,X8,X10,X12,X14,X16,X18)</f>
       </c>
       <c r="Y2" s="3" t="str">
-        <f>AVERAGE(Y4,Y6,Y8,Y10,Y12)</f>
+        <f>AVERAGE(Y4,Y6,Y8,Y10,Y12,Y14,Y16,Y18)</f>
       </c>
       <c r="Z2" s="3" t="str">
-        <f>IFERROR(SUM(Y4,Y6,Y8,Y10,Y12)/SUM(X4,X6,X8,X10,X12)*100,0)</f>
+        <f>IFERROR(SUM(Y4,Y6,Y8,Y10,Y12,Y14,Y16,Y18)/SUM(X4,X6,X8,X10,X12,X14,X16,X18)*100,0)</f>
       </c>
       <c r="AA2" s="3" t="str">
-        <f>AVERAGE(AA4,AA6,AA8,AA10,AA12)</f>
+        <f>AVERAGE(AA4,AA6,AA8,AA10,AA12,AA14,AA16,AA18)</f>
       </c>
       <c r="AB2" s="3" t="str">
-        <f>AVERAGE(AB4,AB6,AB8,AB10,AB12)</f>
+        <f>AVERAGE(AB4,AB6,AB8,AB10,AB12,AB14,AB16,AB18)</f>
       </c>
       <c r="AC2" s="3" t="str">
-        <f>IFERROR(SUM(AB4,AB6,AB8,AB10,AB12)/SUM(AA4,AA6,AA8,AA10,AA12)*100,0)</f>
+        <f>IFERROR(SUM(AB4,AB6,AB8,AB10,AB12,AB14,AB16,AB18)/SUM(AA4,AA6,AA8,AA10,AA12,AA14,AA16,AA18)*100,0)</f>
       </c>
       <c r="AD2" s="3" t="str">
-        <f>AVERAGE(AD4,AD6,AD8,AD10,AD12)</f>
+        <f>AVERAGE(AD4,AD6,AD8,AD10,AD12,AD14,AD16,AD18)</f>
       </c>
       <c r="AE2" s="3" t="str">
-        <f>AVERAGE(AE4,AE6,AE8,AE10,AE12)</f>
+        <f>AVERAGE(AE4,AE6,AE8,AE10,AE12,AE14,AE16,AE18)</f>
       </c>
       <c r="AF2" s="3" t="str">
-        <f>IFERROR(SUM(AE4,AE6,AE8,AE10,AE12)/SUM(AD4,AD6,AD8,AD10,AD12)*100,0)</f>
+        <f>IFERROR(SUM(AE4,AE6,AE8,AE10,AE12,AE14,AE16,AE18)/SUM(AD4,AD6,AD8,AD10,AD12,AD14,AD16,AD18)*100,0)</f>
       </c>
       <c r="AG2" s="3" t="str">
-        <f>AVERAGE(AG4,AG6,AG8,AG10,AG12)</f>
+        <f>AVERAGE(AG4,AG6,AG8,AG10,AG12,AG14,AG16,AG18)</f>
       </c>
       <c r="AH2" s="3" t="str">
-        <f>AVERAGE(AH4,AH6,AH8,AH10,AH12)</f>
+        <f>AVERAGE(AH4,AH6,AH8,AH10,AH12,AH14,AH16,AH18)</f>
       </c>
       <c r="AI2" s="3" t="str">
-        <f>IFERROR(SUM(AH4,AH6,AH8,AH10,AH12)/SUM(AG4,AG6,AG8,AG10,AG12)*100,0)</f>
+        <f>IFERROR(SUM(AH4,AH6,AH8,AH10,AH12,AH14,AH16,AH18)/SUM(AG4,AG6,AG8,AG10,AG12,AG14,AG16,AG18)*100,0)</f>
       </c>
       <c r="AJ2" s="3" t="str">
-        <f>AVERAGE(AJ4,AJ6,AJ8,AJ10,AJ12)</f>
+        <f>AVERAGE(AJ4,AJ6,AJ8,AJ10,AJ12,AJ14,AJ16,AJ18)</f>
       </c>
       <c r="AK2" s="3" t="str">
-        <f>AVERAGE(AK4,AK6,AK8,AK10,AK12)</f>
+        <f>AVERAGE(AK4,AK6,AK8,AK10,AK12,AK14,AK16,AK18)</f>
       </c>
       <c r="AL2" s="3" t="str">
-        <f>IFERROR(SUM(AK4,AK6,AK8,AK10,AK12)/SUM(AJ4,AJ6,AJ8,AJ10,AJ12)*100,0)</f>
+        <f>IFERROR(SUM(AK4,AK6,AK8,AK10,AK12,AK14,AK16,AK18)/SUM(AJ4,AJ6,AJ8,AJ10,AJ12,AJ14,AJ16,AJ18)*100,0)</f>
       </c>
       <c r="AM2" s="3" t="str">
-        <f>AVERAGE(AM4,AM6,AM8,AM10,AM12)</f>
+        <f>AVERAGE(AM4,AM6,AM8,AM10,AM12,AM14,AM16,AM18)</f>
       </c>
       <c r="AN2" s="3" t="str">
-        <f>AVERAGE(AN4,AN6,AN8,AN10,AN12)</f>
+        <f>AVERAGE(AN4,AN6,AN8,AN10,AN12,AN14,AN16,AN18)</f>
       </c>
       <c r="AO2" s="3" t="str">
-        <f>IFERROR(SUM(AN4,AN6,AN8,AN10,AN12)/SUM(AM4,AM6,AM8,AM10,AM12)*100,0)</f>
+        <f>IFERROR(SUM(AN4,AN6,AN8,AN10,AN12,AN14,AN16,AN18)/SUM(AM4,AM6,AM8,AM10,AM12,AM14,AM16,AM18)*100,0)</f>
       </c>
       <c r="AP2" s="3" t="str">
-        <f>AVERAGE(AP4,AP6,AP8,AP10,AP12)</f>
+        <f>AVERAGE(AP4,AP6,AP8,AP10,AP12,AP14,AP16,AP18)</f>
       </c>
       <c r="AQ2" s="3" t="str">
-        <f>AVERAGE(AQ4,AQ6,AQ8,AQ10,AQ12)</f>
+        <f>AVERAGE(AQ4,AQ6,AQ8,AQ10,AQ12,AQ14,AQ16,AQ18)</f>
       </c>
       <c r="AR2" s="3" t="str">
-        <f>IFERROR(SUM(AQ4,AQ6,AQ8,AQ10,AQ12)/SUM(AP4,AP6,AP8,AP10,AP12)*100,0)</f>
+        <f>IFERROR(SUM(AQ4,AQ6,AQ8,AQ10,AQ12,AQ14,AQ16,AQ18)/SUM(AP4,AP6,AP8,AP10,AP12,AP14,AP16,AP18)*100,0)</f>
       </c>
       <c r="AS2" s="3" t="str">
-        <f>AVERAGE(AS4,AS6,AS8,AS10,AS12)</f>
+        <f>AVERAGE(AS4,AS6,AS8,AS10,AS12,AS14,AS16,AS18)</f>
       </c>
       <c r="AT2" s="3" t="str">
-        <f>AVERAGE(AT4,AT6,AT8,AT10,AT12)</f>
+        <f>AVERAGE(AT4,AT6,AT8,AT10,AT12,AT14,AT16,AT18)</f>
       </c>
       <c r="AU2" s="3" t="str">
-        <f>IFERROR(SUM(AT4,AT6,AT8,AT10,AT12)/SUM(AS4,AS6,AS8,AS10,AS12)*100,0)</f>
+        <f>IFERROR(SUM(AT4,AT6,AT8,AT10,AT12,AT14,AT16,AT18)/SUM(AS4,AS6,AS8,AS10,AS12,AS14,AS16,AS18)*100,0)</f>
       </c>
       <c r="AV2" s="3" t="str">
-        <f>AVERAGE(AV4,AV6,AV8,AV10,AV12)</f>
+        <f>AVERAGE(AV4,AV6,AV8,AV10,AV12,AV14,AV16,AV18)</f>
       </c>
       <c r="AW2" s="3" t="str">
-        <f>AVERAGE(AW4,AW6,AW8,AW10,AW12)</f>
+        <f>AVERAGE(AW4,AW6,AW8,AW10,AW12,AW14,AW16,AW18)</f>
       </c>
       <c r="AX2" s="3" t="str">
-        <f>IFERROR(SUM(AW4,AW6,AW8,AW10,AW12)/SUM(AV4,AV6,AV8,AV10,AV12)*100,0)</f>
+        <f>IFERROR(SUM(AW4,AW6,AW8,AW10,AW12,AW14,AW16,AW18)/SUM(AV4,AV6,AV8,AV10,AV12,AV14,AV16,AV18)*100,0)</f>
       </c>
       <c r="AY2" s="3" t="str">
-        <f>AVERAGE(AY4,AY6,AY8,AY10,AY12)</f>
+        <f>AVERAGE(AY4,AY6,AY8,AY10,AY12,AY14,AY16,AY18)</f>
       </c>
       <c r="AZ2" s="3" t="str">
-        <f>AVERAGE(AZ4,AZ6,AZ8,AZ10,AZ12)</f>
+        <f>AVERAGE(AZ4,AZ6,AZ8,AZ10,AZ12,AZ14,AZ16,AZ18)</f>
       </c>
       <c r="BA2" s="3" t="str">
-        <f>AVERAGE(BA4,BA6,BA8,BA10,BA12)</f>
+        <f>AVERAGE(BA4,BA6,BA8,BA10,BA12,BA14,BA16,BA18)</f>
       </c>
       <c r="BB2" s="3" t="str">
-        <f>AVERAGE(BB4,BB6,BB8,BB10,BB12)</f>
+        <f>AVERAGE(BB4,BB6,BB8,BB10,BB12,BB14,BB16,BB18)</f>
       </c>
       <c r="BC2" s="3" t="str">
-        <f>AVERAGE(BC4,BC6,BC8,BC10,BC12)</f>
+        <f>AVERAGE(BC4,BC6,BC8,BC10,BC12,BC14,BC16,BC18)</f>
       </c>
       <c r="BD2" s="3" t="str">
-        <f>AVERAGE(BD4,BD6,BD8,BD10,BD12)</f>
+        <f>AVERAGE(BD4,BD6,BD8,BD10,BD12,BD14,BD16,BD18)</f>
       </c>
       <c r="BE2" s="3" t="str">
-        <f>AVERAGE(BE4,BE6,BE8,BE10,BE12)</f>
+        <f>AVERAGE(BE4,BE6,BE8,BE10,BE12,BE14,BE16,BE18)</f>
       </c>
       <c r="BF2" s="3" t="str">
-        <f>AVERAGE(BF4,BF6,BF8,BF10,BF12)</f>
+        <f>AVERAGE(BF4,BF6,BF8,BF10,BF12,BF14,BF16,BF18)</f>
       </c>
       <c r="BG2" s="3" t="str">
-        <f>IFERROR(SUM(BF4,BF6,BF8,BF10,BF12)/SUM(BE4,BE6,BE8,BE10,BE12)*100,0)</f>
+        <f>IFERROR(SUM(BF4,BF6,BF8,BF10,BF12,BF14,BF16,BF18)/SUM(BE4,BE6,BE8,BE10,BE12,BE14,BE16,BE18)*100,0)</f>
       </c>
       <c r="BH2" s="3" t="str">
-        <f>AVERAGE(BH4,BH6,BH8,BH10,BH12)</f>
+        <f>AVERAGE(BH4,BH6,BH8,BH10,BH12,BH14,BH16,BH18)</f>
       </c>
       <c r="BI2" s="3" t="str">
-        <f>AVERAGE(BI4,BI6,BI8,BI10,BI12)</f>
+        <f>AVERAGE(BI4,BI6,BI8,BI10,BI12,BI14,BI16,BI18)</f>
       </c>
       <c r="BJ2" s="3" t="str">
-        <f>AVERAGE(BJ4,BJ6,BJ8,BJ10,BJ12)</f>
+        <f>AVERAGE(BJ4,BJ6,BJ8,BJ10,BJ12,BJ14,BJ16,BJ18)</f>
       </c>
       <c r="BK2" s="3" t="str">
-        <f>AVERAGE(BK4,BK6,BK8,BK10,BK12)</f>
+        <f>AVERAGE(BK4,BK6,BK8,BK10,BK12,BK14,BK16,BK18)</f>
       </c>
       <c r="BL2" s="3" t="str">
-        <f>IFERROR(SUM(BK4,BK6,BK8,BK10,BK12)/SUM(BJ4,BJ6,BJ8,BJ10,BJ12)*100,0)</f>
+        <f>IFERROR(SUM(BK4,BK6,BK8,BK10,BK12,BK14,BK16,BK18)/SUM(BJ4,BJ6,BJ8,BJ10,BJ12,BJ14,BJ16,BJ18)*100,0)</f>
       </c>
       <c r="BM2" s="3" t="str">
-        <f>AVERAGE(BM4,BM6,BM8,BM10,BM12)</f>
+        <f>AVERAGE(BM4,BM6,BM8,BM10,BM12,BM14,BM16,BM18)</f>
       </c>
       <c r="BN2" s="3" t="str">
-        <f>AVERAGE(BN4,BN6,BN8,BN10,BN12)</f>
+        <f>AVERAGE(BN4,BN6,BN8,BN10,BN12,BN14,BN16,BN18)</f>
       </c>
       <c r="BO2" s="3" t="str">
-        <f>IFERROR(SUM(BN4,BN6,BN8,BN10,BN12)/SUM(BM4,BM6,BM8,BM10,BM12)*100,0)</f>
+        <f>IFERROR(SUM(BN4,BN6,BN8,BN10,BN12,BN14,BN16,BN18)/SUM(BM4,BM6,BM8,BM10,BM12,BM14,BM16,BM18)*100,0)</f>
       </c>
       <c r="BP2" s="3" t="str">
-        <f>AVERAGE(BP4,BP6,BP8,BP10,BP12)</f>
+        <f>AVERAGE(BP4,BP6,BP8,BP10,BP12,BP14,BP16,BP18)</f>
       </c>
       <c r="BQ2" s="3" t="str">
-        <f>AVERAGE(BQ4,BQ6,BQ8,BQ10,BQ12)</f>
+        <f>AVERAGE(BQ4,BQ6,BQ8,BQ10,BQ12,BQ14,BQ16,BQ18)</f>
       </c>
       <c r="BR2" s="3" t="str">
-        <f>IFERROR(SUM(BQ4,BQ6,BQ8,BQ10,BQ12)/SUM(BP4,BP6,BP8,BP10,BP12)*100,0)</f>
+        <f>IFERROR(SUM(BQ4,BQ6,BQ8,BQ10,BQ12,BQ14,BQ16,BQ18)/SUM(BP4,BP6,BP8,BP10,BP12,BP14,BP16,BP18)*100,0)</f>
       </c>
       <c r="BS2" s="3" t="str">
-        <f>AVERAGE(BS4,BS6,BS8,BS10,BS12)</f>
+        <f>AVERAGE(BS4,BS6,BS8,BS10,BS12,BS14,BS16,BS18)</f>
       </c>
       <c r="BT2" s="3" t="str">
-        <f>AVERAGE(BT4,BT6,BT8,BT10,BT12)</f>
+        <f>AVERAGE(BT4,BT6,BT8,BT10,BT12,BT14,BT16,BT18)</f>
       </c>
       <c r="BU2" s="3" t="str">
-        <f>IFERROR(SUM(BT4,BT6,BT8,BT10,BT12)/SUM(BS4,BS6,BS8,BS10,BS12)*100,0)</f>
+        <f>IFERROR(SUM(BT4,BT6,BT8,BT10,BT12,BT14,BT16,BT18)/SUM(BS4,BS6,BS8,BS10,BS12,BS14,BS16,BS18)*100,0)</f>
       </c>
       <c r="BV2" s="3" t="str">
-        <f>AVERAGE(BV4,BV6,BV8,BV10,BV12)</f>
+        <f>AVERAGE(BV4,BV6,BV8,BV10,BV12,BV14,BV16,BV18)</f>
       </c>
       <c r="BW2" s="3" t="str">
-        <f>AVERAGE(BW4,BW6,BW8,BW10,BW12)</f>
+        <f>AVERAGE(BW4,BW6,BW8,BW10,BW12,BW14,BW16,BW18)</f>
       </c>
       <c r="BX2" s="3" t="str">
-        <f>AVERAGE(BX4,BX6,BX8,BX10,BX12)</f>
+        <f>AVERAGE(BX4,BX6,BX8,BX10,BX12,BX14,BX16,BX18)</f>
       </c>
       <c r="BY2" s="3" t="str">
-        <f>AVERAGE(BY4,BY6,BY8,BY10,BY12)</f>
+        <f>AVERAGE(BY4,BY6,BY8,BY10,BY12,BY14,BY16,BY18)</f>
       </c>
       <c r="BZ2" s="3" t="str">
-        <f>AVERAGE(BZ4,BZ6,BZ8,BZ10,BZ12)</f>
+        <f>AVERAGE(BZ4,BZ6,BZ8,BZ10,BZ12,BZ14,BZ16,BZ18)</f>
       </c>
       <c r="CA2" s="3" t="str">
-        <f>AVERAGE(CA4,CA6,CA8,CA10,CA12)</f>
+        <f>AVERAGE(CA4,CA6,CA8,CA10,CA12,CA14,CA16,CA18)</f>
       </c>
       <c r="CB2" s="3" t="str">
-        <f>AVERAGE(CB4,CB6,CB8,CB10,CB12)</f>
+        <f>AVERAGE(CB4,CB6,CB8,CB10,CB12,CB14,CB16,CB18)</f>
       </c>
       <c r="CC2" s="3" t="str">
-        <f>IFERROR(SUM(CB4,CB6,CB8,CB10,CB12)/SUM(CA4,CA6,CA8,CA10,CA12)*100,0)</f>
+        <f>IFERROR(SUM(CB4,CB6,CB8,CB10,CB12,CB14,CB16,CB18)/SUM(CA4,CA6,CA8,CA10,CA12,CA14,CA16,CA18)*100,0)</f>
       </c>
       <c r="CD2" s="3" t="str">
-        <f>AVERAGE(CD4,CD6,CD8,CD10,CD12)</f>
+        <f>AVERAGE(CD4,CD6,CD8,CD10,CD12,CD14,CD16,CD18)</f>
       </c>
       <c r="CE2" s="3" t="str">
-        <f>AVERAGE(CE4,CE6,CE8,CE10,CE12)</f>
+        <f>AVERAGE(CE4,CE6,CE8,CE10,CE12,CE14,CE16,CE18)</f>
       </c>
       <c r="CF2" s="3" t="str">
-        <f>IFERROR(SUM(CE4,CE6,CE8,CE10,CE12)/SUM(CD4,CD6,CD8,CD10,CD12)*100,0)</f>
+        <f>IFERROR(SUM(CE4,CE6,CE8,CE10,CE12,CE14,CE16,CE18)/SUM(CD4,CD6,CD8,CD10,CD12,CD14,CD16,CD18)*100,0)</f>
       </c>
       <c r="CG2" s="3" t="str">
-        <f>AVERAGE(CG4,CG6,CG8,CG10,CG12)</f>
+        <f>AVERAGE(CG4,CG6,CG8,CG10,CG12,CG14,CG16,CG18)</f>
       </c>
       <c r="CH2" s="3" t="str">
-        <f>AVERAGE(CH4,CH6,CH8,CH10,CH12)</f>
+        <f>AVERAGE(CH4,CH6,CH8,CH10,CH12,CH14,CH16,CH18)</f>
       </c>
       <c r="CI2" s="3" t="str">
-        <f>IFERROR(SUM(CH4,CH6,CH8,CH10,CH12)/SUM(CG4,CG6,CG8,CG10,CG12)*100,0)</f>
+        <f>IFERROR(SUM(CH4,CH6,CH8,CH10,CH12,CH14,CH16,CH18)/SUM(CG4,CG6,CG8,CG10,CG12,CG14,CG16,CG18)*100,0)</f>
       </c>
       <c r="CJ2" s="3" t="str">
-        <f>AVERAGE(CJ4,CJ6,CJ8,CJ10,CJ12)</f>
+        <f>AVERAGE(CJ4,CJ6,CJ8,CJ10,CJ12,CJ14,CJ16,CJ18)</f>
       </c>
       <c r="CK2" s="3" t="str">
-        <f>AVERAGE(CK4,CK6,CK8,CK10,CK12)</f>
+        <f>AVERAGE(CK4,CK6,CK8,CK10,CK12,CK14,CK16,CK18)</f>
       </c>
       <c r="CL2" s="3" t="str">
-        <f>IFERROR(SUM(CK4,CK6,CK8,CK10,CK12)/SUM(CJ4,CJ6,CJ8,CJ10,CJ12)*100,0)</f>
+        <f>IFERROR(SUM(CK4,CK6,CK8,CK10,CK12,CK14,CK16,CK18)/SUM(CJ4,CJ6,CJ8,CJ10,CJ12,CJ14,CJ16,CJ18)*100,0)</f>
       </c>
       <c r="CM2" s="3" t="str">
-        <f>AVERAGE(CM4,CM6,CM8,CM10,CM12)</f>
+        <f>AVERAGE(CM4,CM6,CM8,CM10,CM12,CM14,CM16,CM18)</f>
       </c>
       <c r="CN2" s="3" t="str">
-        <f>AVERAGE(CN4,CN6,CN8,CN10,CN12)</f>
+        <f>AVERAGE(CN4,CN6,CN8,CN10,CN12,CN14,CN16,CN18)</f>
       </c>
       <c r="CO2" s="3" t="str">
-        <f>IFERROR(SUM(CN4,CN6,CN8,CN10,CN12)/SUM(CM4,CM6,CM8,CM10,CM12)*100,0)</f>
+        <f>IFERROR(SUM(CN4,CN6,CN8,CN10,CN12,CN14,CN16,CN18)/SUM(CM4,CM6,CM8,CM10,CM12,CM14,CM16,CM18)*100,0)</f>
       </c>
       <c r="CP2" s="3" t="str">
-        <f>AVERAGE(CP4,CP6,CP8,CP10,CP12)</f>
+        <f>AVERAGE(CP4,CP6,CP8,CP10,CP12,CP14,CP16,CP18)</f>
       </c>
       <c r="CQ2" s="3" t="str">
-        <f>AVERAGE(CQ4,CQ6,CQ8,CQ10,CQ12)</f>
+        <f>AVERAGE(CQ4,CQ6,CQ8,CQ10,CQ12,CQ14,CQ16,CQ18)</f>
       </c>
       <c r="CR2" s="3" t="str">
-        <f>IFERROR(SUM(CQ4,CQ6,CQ8,CQ10,CQ12)/SUM(CP4,CP6,CP8,CP10,CP12)*100,0)</f>
+        <f>IFERROR(SUM(CQ4,CQ6,CQ8,CQ10,CQ12,CQ14,CQ16,CQ18)/SUM(CP4,CP6,CP8,CP10,CP12,CP14,CP16,CP18)*100,0)</f>
       </c>
       <c r="CS2" s="3" t="str">
-        <f>AVERAGE(CS4,CS6,CS8,CS10,CS12)</f>
+        <f>AVERAGE(CS4,CS6,CS8,CS10,CS12,CS14,CS16,CS18)</f>
       </c>
       <c r="CT2" s="3" t="str">
-        <f>AVERAGE(CT4,CT6,CT8,CT10,CT12)</f>
+        <f>AVERAGE(CT4,CT6,CT8,CT10,CT12,CT14,CT16,CT18)</f>
       </c>
       <c r="CU2" s="3" t="str">
-        <f>IFERROR(SUM(CT4,CT6,CT8,CT10,CT12)/SUM(CS4,CS6,CS8,CS10,CS12)*100,0)</f>
+        <f>IFERROR(SUM(CT4,CT6,CT8,CT10,CT12,CT14,CT16,CT18)/SUM(CS4,CS6,CS8,CS10,CS12,CS14,CS16,CS18)*100,0)</f>
       </c>
       <c r="CV2" s="3" t="str">
-        <f>AVERAGE(CV4,CV6,CV8,CV10,CV12)</f>
+        <f>AVERAGE(CV4,CV6,CV8,CV10,CV12,CV14,CV16,CV18)</f>
       </c>
       <c r="CW2" s="3" t="str">
-        <f>AVERAGE(CW4,CW6,CW8,CW10,CW12)</f>
+        <f>AVERAGE(CW4,CW6,CW8,CW10,CW12,CW14,CW16,CW18)</f>
       </c>
       <c r="CX2" s="3" t="str">
-        <f>IFERROR(SUM(CW4,CW6,CW8,CW10,CW12)/SUM(CV4,CV6,CV8,CV10,CV12)*100,0)</f>
+        <f>IFERROR(SUM(CW4,CW6,CW8,CW10,CW12,CW14,CW16,CW18)/SUM(CV4,CV6,CV8,CV10,CV12,CV14,CV16,CV18)*100,0)</f>
       </c>
       <c r="CY2" s="3" t="str">
-        <f>AVERAGE(CY4,CY6,CY8,CY10,CY12)</f>
+        <f>AVERAGE(CY4,CY6,CY8,CY10,CY12,CY14,CY16,CY18)</f>
       </c>
       <c r="CZ2" s="3" t="str">
-        <f>AVERAGE(CZ4,CZ6,CZ8,CZ10,CZ12)</f>
+        <f>AVERAGE(CZ4,CZ6,CZ8,CZ10,CZ12,CZ14,CZ16,CZ18)</f>
       </c>
       <c r="DA2" s="3" t="str">
-        <f>AVERAGE(DA4,DA6,DA8,DA10,DA12)</f>
+        <f>AVERAGE(DA4,DA6,DA8,DA10,DA12,DA14,DA16,DA18)</f>
       </c>
       <c r="DB2" s="3" t="str">
-        <f>AVERAGE(DB4,DB6,DB8,DB10,DB12)</f>
+        <f>AVERAGE(DB4,DB6,DB8,DB10,DB12,DB14,DB16,DB18)</f>
       </c>
       <c r="DC2" s="3" t="str">
-        <f>AVERAGE(DC4,DC6,DC8,DC10,DC12)</f>
+        <f>AVERAGE(DC4,DC6,DC8,DC10,DC12,DC14,DC16,DC18)</f>
       </c>
       <c r="DD2" s="3" t="str">
-        <f>AVERAGE(DD4,DD6,DD8,DD10,DD12)</f>
+        <f>AVERAGE(DD4,DD6,DD8,DD10,DD12,DD14,DD16,DD18)</f>
       </c>
       <c r="DE2" s="3" t="str">
-        <f>AVERAGE(DE4,DE6,DE8,DE10,DE12)</f>
+        <f>AVERAGE(DE4,DE6,DE8,DE10,DE12,DE14,DE16,DE18)</f>
       </c>
     </row>
     <row r="3">
@@ -1066,324 +1066,324 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="str">
-        <f>AVERAGE(G5,G7,G9,G11,G13)</f>
+        <f>AVERAGE(G5,G7,G9,G11,G13,G15,G17,G19)</f>
       </c>
       <c r="H3" s="3" t="str">
-        <f>AVERAGE(H5,H7,H9,H11,H13)</f>
+        <f>AVERAGE(H5,H7,H9,H11,H13,H15,H17,H19)</f>
       </c>
       <c r="I3" s="3" t="str">
-        <f>AVERAGE(I5,I7,I9,I11,I13)</f>
+        <f>AVERAGE(I5,I7,I9,I11,I13,I15,I17,I19)</f>
       </c>
       <c r="J3" s="3" t="str">
-        <f>AVERAGE(J5,J7,J9,J11,J13)</f>
+        <f>AVERAGE(J5,J7,J9,J11,J13,J15,J17,J19)</f>
       </c>
       <c r="K3" s="3" t="str">
-        <f>IFERROR(SUM(J5,J7,J9,J11,J13)/SUM(I5,I7,I9,I11,I13)*100,0)</f>
+        <f>IFERROR(SUM(J5,J7,J9,J11,J13,J15,J17,J19)/SUM(I5,I7,I9,I11,I13,I15,I17,I19)*100,0)</f>
       </c>
       <c r="L3" s="3" t="str">
-        <f>AVERAGE(L5,L7,L9,L11,L13)</f>
+        <f>AVERAGE(L5,L7,L9,L11,L13,L15,L17,L19)</f>
       </c>
       <c r="M3" s="3" t="str">
-        <f>AVERAGE(M5,M7,M9,M11,M13)</f>
+        <f>AVERAGE(M5,M7,M9,M11,M13,M15,M17,M19)</f>
       </c>
       <c r="N3" s="3" t="str">
-        <f>IFERROR(SUM(M5,M7,M9,M11,M13)/SUM(L5,L7,L9,L11,L13)*100,0)</f>
+        <f>IFERROR(SUM(M5,M7,M9,M11,M13,M15,M17,M19)/SUM(L5,L7,L9,L11,L13,L15,L17,L19)*100,0)</f>
       </c>
       <c r="O3" s="3" t="str">
-        <f>AVERAGE(O5,O7,O9,O11,O13)</f>
+        <f>AVERAGE(O5,O7,O9,O11,O13,O15,O17,O19)</f>
       </c>
       <c r="P3" s="3" t="str">
-        <f>AVERAGE(P5,P7,P9,P11,P13)</f>
+        <f>AVERAGE(P5,P7,P9,P11,P13,P15,P17,P19)</f>
       </c>
       <c r="Q3" s="3" t="str">
-        <f>AVERAGE(Q5,Q7,Q9,Q11,Q13)</f>
+        <f>AVERAGE(Q5,Q7,Q9,Q11,Q13,Q15,Q17,Q19)</f>
       </c>
       <c r="R3" s="3" t="str">
-        <f>AVERAGE(R5,R7,R9,R11,R13)</f>
+        <f>AVERAGE(R5,R7,R9,R11,R13,R15,R17,R19)</f>
       </c>
       <c r="S3" s="3" t="str">
-        <f>AVERAGE(S5,S7,S9,S11,S13)</f>
+        <f>AVERAGE(S5,S7,S9,S11,S13,S15,S17,S19)</f>
       </c>
       <c r="T3" s="3" t="str">
-        <f>AVERAGE(T5,T7,T9,T11,T13)</f>
+        <f>AVERAGE(T5,T7,T9,T11,T13,T15,T17,T19)</f>
       </c>
       <c r="U3" s="3" t="str">
-        <f>AVERAGE(U5,U7,U9,U11,U13)</f>
+        <f>AVERAGE(U5,U7,U9,U11,U13,U15,U17,U19)</f>
       </c>
       <c r="V3" s="3" t="str">
-        <f>AVERAGE(V5,V7,V9,V11,V13)</f>
+        <f>AVERAGE(V5,V7,V9,V11,V13,V15,V17,V19)</f>
       </c>
       <c r="W3" s="3" t="str">
-        <f>AVERAGE(W5,W7,W9,W11,W13)</f>
+        <f>AVERAGE(W5,W7,W9,W11,W13,W15,W17,W19)</f>
       </c>
       <c r="X3" s="3" t="str">
-        <f>AVERAGE(X5,X7,X9,X11,X13)</f>
+        <f>AVERAGE(X5,X7,X9,X11,X13,X15,X17,X19)</f>
       </c>
       <c r="Y3" s="3" t="str">
-        <f>AVERAGE(Y5,Y7,Y9,Y11,Y13)</f>
+        <f>AVERAGE(Y5,Y7,Y9,Y11,Y13,Y15,Y17,Y19)</f>
       </c>
       <c r="Z3" s="3" t="str">
-        <f>IFERROR(SUM(Y5,Y7,Y9,Y11,Y13)/SUM(X5,X7,X9,X11,X13)*100,0)</f>
+        <f>IFERROR(SUM(Y5,Y7,Y9,Y11,Y13,Y15,Y17,Y19)/SUM(X5,X7,X9,X11,X13,X15,X17,X19)*100,0)</f>
       </c>
       <c r="AA3" s="3" t="str">
-        <f>AVERAGE(AA5,AA7,AA9,AA11,AA13)</f>
+        <f>AVERAGE(AA5,AA7,AA9,AA11,AA13,AA15,AA17,AA19)</f>
       </c>
       <c r="AB3" s="3" t="str">
-        <f>AVERAGE(AB5,AB7,AB9,AB11,AB13)</f>
+        <f>AVERAGE(AB5,AB7,AB9,AB11,AB13,AB15,AB17,AB19)</f>
       </c>
       <c r="AC3" s="3" t="str">
-        <f>IFERROR(SUM(AB5,AB7,AB9,AB11,AB13)/SUM(AA5,AA7,AA9,AA11,AA13)*100,0)</f>
+        <f>IFERROR(SUM(AB5,AB7,AB9,AB11,AB13,AB15,AB17,AB19)/SUM(AA5,AA7,AA9,AA11,AA13,AA15,AA17,AA19)*100,0)</f>
       </c>
       <c r="AD3" s="3" t="str">
-        <f>AVERAGE(AD5,AD7,AD9,AD11,AD13)</f>
+        <f>AVERAGE(AD5,AD7,AD9,AD11,AD13,AD15,AD17,AD19)</f>
       </c>
       <c r="AE3" s="3" t="str">
-        <f>AVERAGE(AE5,AE7,AE9,AE11,AE13)</f>
+        <f>AVERAGE(AE5,AE7,AE9,AE11,AE13,AE15,AE17,AE19)</f>
       </c>
       <c r="AF3" s="3" t="str">
-        <f>IFERROR(SUM(AE5,AE7,AE9,AE11,AE13)/SUM(AD5,AD7,AD9,AD11,AD13)*100,0)</f>
+        <f>IFERROR(SUM(AE5,AE7,AE9,AE11,AE13,AE15,AE17,AE19)/SUM(AD5,AD7,AD9,AD11,AD13,AD15,AD17,AD19)*100,0)</f>
       </c>
       <c r="AG3" s="3" t="str">
-        <f>AVERAGE(AG5,AG7,AG9,AG11,AG13)</f>
+        <f>AVERAGE(AG5,AG7,AG9,AG11,AG13,AG15,AG17,AG19)</f>
       </c>
       <c r="AH3" s="3" t="str">
-        <f>AVERAGE(AH5,AH7,AH9,AH11,AH13)</f>
+        <f>AVERAGE(AH5,AH7,AH9,AH11,AH13,AH15,AH17,AH19)</f>
       </c>
       <c r="AI3" s="3" t="str">
-        <f>IFERROR(SUM(AH5,AH7,AH9,AH11,AH13)/SUM(AG5,AG7,AG9,AG11,AG13)*100,0)</f>
+        <f>IFERROR(SUM(AH5,AH7,AH9,AH11,AH13,AH15,AH17,AH19)/SUM(AG5,AG7,AG9,AG11,AG13,AG15,AG17,AG19)*100,0)</f>
       </c>
       <c r="AJ3" s="3" t="str">
-        <f>AVERAGE(AJ5,AJ7,AJ9,AJ11,AJ13)</f>
+        <f>AVERAGE(AJ5,AJ7,AJ9,AJ11,AJ13,AJ15,AJ17,AJ19)</f>
       </c>
       <c r="AK3" s="3" t="str">
-        <f>AVERAGE(AK5,AK7,AK9,AK11,AK13)</f>
+        <f>AVERAGE(AK5,AK7,AK9,AK11,AK13,AK15,AK17,AK19)</f>
       </c>
       <c r="AL3" s="3" t="str">
-        <f>IFERROR(SUM(AK5,AK7,AK9,AK11,AK13)/SUM(AJ5,AJ7,AJ9,AJ11,AJ13)*100,0)</f>
+        <f>IFERROR(SUM(AK5,AK7,AK9,AK11,AK13,AK15,AK17,AK19)/SUM(AJ5,AJ7,AJ9,AJ11,AJ13,AJ15,AJ17,AJ19)*100,0)</f>
       </c>
       <c r="AM3" s="3" t="str">
-        <f>AVERAGE(AM5,AM7,AM9,AM11,AM13)</f>
+        <f>AVERAGE(AM5,AM7,AM9,AM11,AM13,AM15,AM17,AM19)</f>
       </c>
       <c r="AN3" s="3" t="str">
-        <f>AVERAGE(AN5,AN7,AN9,AN11,AN13)</f>
+        <f>AVERAGE(AN5,AN7,AN9,AN11,AN13,AN15,AN17,AN19)</f>
       </c>
       <c r="AO3" s="3" t="str">
-        <f>IFERROR(SUM(AN5,AN7,AN9,AN11,AN13)/SUM(AM5,AM7,AM9,AM11,AM13)*100,0)</f>
+        <f>IFERROR(SUM(AN5,AN7,AN9,AN11,AN13,AN15,AN17,AN19)/SUM(AM5,AM7,AM9,AM11,AM13,AM15,AM17,AM19)*100,0)</f>
       </c>
       <c r="AP3" s="3" t="str">
-        <f>AVERAGE(AP5,AP7,AP9,AP11,AP13)</f>
+        <f>AVERAGE(AP5,AP7,AP9,AP11,AP13,AP15,AP17,AP19)</f>
       </c>
       <c r="AQ3" s="3" t="str">
-        <f>AVERAGE(AQ5,AQ7,AQ9,AQ11,AQ13)</f>
+        <f>AVERAGE(AQ5,AQ7,AQ9,AQ11,AQ13,AQ15,AQ17,AQ19)</f>
       </c>
       <c r="AR3" s="3" t="str">
-        <f>IFERROR(SUM(AQ5,AQ7,AQ9,AQ11,AQ13)/SUM(AP5,AP7,AP9,AP11,AP13)*100,0)</f>
+        <f>IFERROR(SUM(AQ5,AQ7,AQ9,AQ11,AQ13,AQ15,AQ17,AQ19)/SUM(AP5,AP7,AP9,AP11,AP13,AP15,AP17,AP19)*100,0)</f>
       </c>
       <c r="AS3" s="3" t="str">
-        <f>AVERAGE(AS5,AS7,AS9,AS11,AS13)</f>
+        <f>AVERAGE(AS5,AS7,AS9,AS11,AS13,AS15,AS17,AS19)</f>
       </c>
       <c r="AT3" s="3" t="str">
-        <f>AVERAGE(AT5,AT7,AT9,AT11,AT13)</f>
+        <f>AVERAGE(AT5,AT7,AT9,AT11,AT13,AT15,AT17,AT19)</f>
       </c>
       <c r="AU3" s="3" t="str">
-        <f>IFERROR(SUM(AT5,AT7,AT9,AT11,AT13)/SUM(AS5,AS7,AS9,AS11,AS13)*100,0)</f>
+        <f>IFERROR(SUM(AT5,AT7,AT9,AT11,AT13,AT15,AT17,AT19)/SUM(AS5,AS7,AS9,AS11,AS13,AS15,AS17,AS19)*100,0)</f>
       </c>
       <c r="AV3" s="3" t="str">
-        <f>AVERAGE(AV5,AV7,AV9,AV11,AV13)</f>
+        <f>AVERAGE(AV5,AV7,AV9,AV11,AV13,AV15,AV17,AV19)</f>
       </c>
       <c r="AW3" s="3" t="str">
-        <f>AVERAGE(AW5,AW7,AW9,AW11,AW13)</f>
+        <f>AVERAGE(AW5,AW7,AW9,AW11,AW13,AW15,AW17,AW19)</f>
       </c>
       <c r="AX3" s="3" t="str">
-        <f>IFERROR(SUM(AW5,AW7,AW9,AW11,AW13)/SUM(AV5,AV7,AV9,AV11,AV13)*100,0)</f>
+        <f>IFERROR(SUM(AW5,AW7,AW9,AW11,AW13,AW15,AW17,AW19)/SUM(AV5,AV7,AV9,AV11,AV13,AV15,AV17,AV19)*100,0)</f>
       </c>
       <c r="AY3" s="3" t="str">
-        <f>AVERAGE(AY5,AY7,AY9,AY11,AY13)</f>
+        <f>AVERAGE(AY5,AY7,AY9,AY11,AY13,AY15,AY17,AY19)</f>
       </c>
       <c r="AZ3" s="3" t="str">
-        <f>AVERAGE(AZ5,AZ7,AZ9,AZ11,AZ13)</f>
+        <f>AVERAGE(AZ5,AZ7,AZ9,AZ11,AZ13,AZ15,AZ17,AZ19)</f>
       </c>
       <c r="BA3" s="3" t="str">
-        <f>AVERAGE(BA5,BA7,BA9,BA11,BA13)</f>
+        <f>AVERAGE(BA5,BA7,BA9,BA11,BA13,BA15,BA17,BA19)</f>
       </c>
       <c r="BB3" s="3" t="str">
-        <f>AVERAGE(BB5,BB7,BB9,BB11,BB13)</f>
+        <f>AVERAGE(BB5,BB7,BB9,BB11,BB13,BB15,BB17,BB19)</f>
       </c>
       <c r="BC3" s="3" t="str">
-        <f>AVERAGE(BC5,BC7,BC9,BC11,BC13)</f>
+        <f>AVERAGE(BC5,BC7,BC9,BC11,BC13,BC15,BC17,BC19)</f>
       </c>
       <c r="BD3" s="3" t="str">
-        <f>AVERAGE(BD5,BD7,BD9,BD11,BD13)</f>
+        <f>AVERAGE(BD5,BD7,BD9,BD11,BD13,BD15,BD17,BD19)</f>
       </c>
       <c r="BE3" s="3" t="str">
-        <f>AVERAGE(BE5,BE7,BE9,BE11,BE13)</f>
+        <f>AVERAGE(BE5,BE7,BE9,BE11,BE13,BE15,BE17,BE19)</f>
       </c>
       <c r="BF3" s="3" t="str">
-        <f>AVERAGE(BF5,BF7,BF9,BF11,BF13)</f>
+        <f>AVERAGE(BF5,BF7,BF9,BF11,BF13,BF15,BF17,BF19)</f>
       </c>
       <c r="BG3" s="3" t="str">
-        <f>IFERROR(SUM(BF5,BF7,BF9,BF11,BF13)/SUM(BE5,BE7,BE9,BE11,BE13)*100,0)</f>
+        <f>IFERROR(SUM(BF5,BF7,BF9,BF11,BF13,BF15,BF17,BF19)/SUM(BE5,BE7,BE9,BE11,BE13,BE15,BE17,BE19)*100,0)</f>
       </c>
       <c r="BH3" s="3" t="str">
-        <f>AVERAGE(BH5,BH7,BH9,BH11,BH13)</f>
+        <f>AVERAGE(BH5,BH7,BH9,BH11,BH13,BH15,BH17,BH19)</f>
       </c>
       <c r="BI3" s="3" t="str">
-        <f>AVERAGE(BI5,BI7,BI9,BI11,BI13)</f>
+        <f>AVERAGE(BI5,BI7,BI9,BI11,BI13,BI15,BI17,BI19)</f>
       </c>
       <c r="BJ3" s="3" t="str">
-        <f>AVERAGE(BJ5,BJ7,BJ9,BJ11,BJ13)</f>
+        <f>AVERAGE(BJ5,BJ7,BJ9,BJ11,BJ13,BJ15,BJ17,BJ19)</f>
       </c>
       <c r="BK3" s="3" t="str">
-        <f>AVERAGE(BK5,BK7,BK9,BK11,BK13)</f>
+        <f>AVERAGE(BK5,BK7,BK9,BK11,BK13,BK15,BK17,BK19)</f>
       </c>
       <c r="BL3" s="3" t="str">
-        <f>IFERROR(SUM(BK5,BK7,BK9,BK11,BK13)/SUM(BJ5,BJ7,BJ9,BJ11,BJ13)*100,0)</f>
+        <f>IFERROR(SUM(BK5,BK7,BK9,BK11,BK13,BK15,BK17,BK19)/SUM(BJ5,BJ7,BJ9,BJ11,BJ13,BJ15,BJ17,BJ19)*100,0)</f>
       </c>
       <c r="BM3" s="3" t="str">
-        <f>AVERAGE(BM5,BM7,BM9,BM11,BM13)</f>
+        <f>AVERAGE(BM5,BM7,BM9,BM11,BM13,BM15,BM17,BM19)</f>
       </c>
       <c r="BN3" s="3" t="str">
-        <f>AVERAGE(BN5,BN7,BN9,BN11,BN13)</f>
+        <f>AVERAGE(BN5,BN7,BN9,BN11,BN13,BN15,BN17,BN19)</f>
       </c>
       <c r="BO3" s="3" t="str">
-        <f>IFERROR(SUM(BN5,BN7,BN9,BN11,BN13)/SUM(BM5,BM7,BM9,BM11,BM13)*100,0)</f>
+        <f>IFERROR(SUM(BN5,BN7,BN9,BN11,BN13,BN15,BN17,BN19)/SUM(BM5,BM7,BM9,BM11,BM13,BM15,BM17,BM19)*100,0)</f>
       </c>
       <c r="BP3" s="3" t="str">
-        <f>AVERAGE(BP5,BP7,BP9,BP11,BP13)</f>
+        <f>AVERAGE(BP5,BP7,BP9,BP11,BP13,BP15,BP17,BP19)</f>
       </c>
       <c r="BQ3" s="3" t="str">
-        <f>AVERAGE(BQ5,BQ7,BQ9,BQ11,BQ13)</f>
+        <f>AVERAGE(BQ5,BQ7,BQ9,BQ11,BQ13,BQ15,BQ17,BQ19)</f>
       </c>
       <c r="BR3" s="3" t="str">
-        <f>IFERROR(SUM(BQ5,BQ7,BQ9,BQ11,BQ13)/SUM(BP5,BP7,BP9,BP11,BP13)*100,0)</f>
+        <f>IFERROR(SUM(BQ5,BQ7,BQ9,BQ11,BQ13,BQ15,BQ17,BQ19)/SUM(BP5,BP7,BP9,BP11,BP13,BP15,BP17,BP19)*100,0)</f>
       </c>
       <c r="BS3" s="3" t="str">
-        <f>AVERAGE(BS5,BS7,BS9,BS11,BS13)</f>
+        <f>AVERAGE(BS5,BS7,BS9,BS11,BS13,BS15,BS17,BS19)</f>
       </c>
       <c r="BT3" s="3" t="str">
-        <f>AVERAGE(BT5,BT7,BT9,BT11,BT13)</f>
+        <f>AVERAGE(BT5,BT7,BT9,BT11,BT13,BT15,BT17,BT19)</f>
       </c>
       <c r="BU3" s="3" t="str">
-        <f>IFERROR(SUM(BT5,BT7,BT9,BT11,BT13)/SUM(BS5,BS7,BS9,BS11,BS13)*100,0)</f>
+        <f>IFERROR(SUM(BT5,BT7,BT9,BT11,BT13,BT15,BT17,BT19)/SUM(BS5,BS7,BS9,BS11,BS13,BS15,BS17,BS19)*100,0)</f>
       </c>
       <c r="BV3" s="3" t="str">
-        <f>AVERAGE(BV5,BV7,BV9,BV11,BV13)</f>
+        <f>AVERAGE(BV5,BV7,BV9,BV11,BV13,BV15,BV17,BV19)</f>
       </c>
       <c r="BW3" s="3" t="str">
-        <f>AVERAGE(BW5,BW7,BW9,BW11,BW13)</f>
+        <f>AVERAGE(BW5,BW7,BW9,BW11,BW13,BW15,BW17,BW19)</f>
       </c>
       <c r="BX3" s="3" t="str">
-        <f>AVERAGE(BX5,BX7,BX9,BX11,BX13)</f>
+        <f>AVERAGE(BX5,BX7,BX9,BX11,BX13,BX15,BX17,BX19)</f>
       </c>
       <c r="BY3" s="3" t="str">
-        <f>AVERAGE(BY5,BY7,BY9,BY11,BY13)</f>
+        <f>AVERAGE(BY5,BY7,BY9,BY11,BY13,BY15,BY17,BY19)</f>
       </c>
       <c r="BZ3" s="3" t="str">
-        <f>AVERAGE(BZ5,BZ7,BZ9,BZ11,BZ13)</f>
+        <f>AVERAGE(BZ5,BZ7,BZ9,BZ11,BZ13,BZ15,BZ17,BZ19)</f>
       </c>
       <c r="CA3" s="3" t="str">
-        <f>AVERAGE(CA5,CA7,CA9,CA11,CA13)</f>
+        <f>AVERAGE(CA5,CA7,CA9,CA11,CA13,CA15,CA17,CA19)</f>
       </c>
       <c r="CB3" s="3" t="str">
-        <f>AVERAGE(CB5,CB7,CB9,CB11,CB13)</f>
+        <f>AVERAGE(CB5,CB7,CB9,CB11,CB13,CB15,CB17,CB19)</f>
       </c>
       <c r="CC3" s="3" t="str">
-        <f>IFERROR(SUM(CB5,CB7,CB9,CB11,CB13)/SUM(CA5,CA7,CA9,CA11,CA13)*100,0)</f>
+        <f>IFERROR(SUM(CB5,CB7,CB9,CB11,CB13,CB15,CB17,CB19)/SUM(CA5,CA7,CA9,CA11,CA13,CA15,CA17,CA19)*100,0)</f>
       </c>
       <c r="CD3" s="3" t="str">
-        <f>AVERAGE(CD5,CD7,CD9,CD11,CD13)</f>
+        <f>AVERAGE(CD5,CD7,CD9,CD11,CD13,CD15,CD17,CD19)</f>
       </c>
       <c r="CE3" s="3" t="str">
-        <f>AVERAGE(CE5,CE7,CE9,CE11,CE13)</f>
+        <f>AVERAGE(CE5,CE7,CE9,CE11,CE13,CE15,CE17,CE19)</f>
       </c>
       <c r="CF3" s="3" t="str">
-        <f>IFERROR(SUM(CE5,CE7,CE9,CE11,CE13)/SUM(CD5,CD7,CD9,CD11,CD13)*100,0)</f>
+        <f>IFERROR(SUM(CE5,CE7,CE9,CE11,CE13,CE15,CE17,CE19)/SUM(CD5,CD7,CD9,CD11,CD13,CD15,CD17,CD19)*100,0)</f>
       </c>
       <c r="CG3" s="3" t="str">
-        <f>AVERAGE(CG5,CG7,CG9,CG11,CG13)</f>
+        <f>AVERAGE(CG5,CG7,CG9,CG11,CG13,CG15,CG17,CG19)</f>
       </c>
       <c r="CH3" s="3" t="str">
-        <f>AVERAGE(CH5,CH7,CH9,CH11,CH13)</f>
+        <f>AVERAGE(CH5,CH7,CH9,CH11,CH13,CH15,CH17,CH19)</f>
       </c>
       <c r="CI3" s="3" t="str">
-        <f>IFERROR(SUM(CH5,CH7,CH9,CH11,CH13)/SUM(CG5,CG7,CG9,CG11,CG13)*100,0)</f>
+        <f>IFERROR(SUM(CH5,CH7,CH9,CH11,CH13,CH15,CH17,CH19)/SUM(CG5,CG7,CG9,CG11,CG13,CG15,CG17,CG19)*100,0)</f>
       </c>
       <c r="CJ3" s="3" t="str">
-        <f>AVERAGE(CJ5,CJ7,CJ9,CJ11,CJ13)</f>
+        <f>AVERAGE(CJ5,CJ7,CJ9,CJ11,CJ13,CJ15,CJ17,CJ19)</f>
       </c>
       <c r="CK3" s="3" t="str">
-        <f>AVERAGE(CK5,CK7,CK9,CK11,CK13)</f>
+        <f>AVERAGE(CK5,CK7,CK9,CK11,CK13,CK15,CK17,CK19)</f>
       </c>
       <c r="CL3" s="3" t="str">
-        <f>IFERROR(SUM(CK5,CK7,CK9,CK11,CK13)/SUM(CJ5,CJ7,CJ9,CJ11,CJ13)*100,0)</f>
+        <f>IFERROR(SUM(CK5,CK7,CK9,CK11,CK13,CK15,CK17,CK19)/SUM(CJ5,CJ7,CJ9,CJ11,CJ13,CJ15,CJ17,CJ19)*100,0)</f>
       </c>
       <c r="CM3" s="3" t="str">
-        <f>AVERAGE(CM5,CM7,CM9,CM11,CM13)</f>
+        <f>AVERAGE(CM5,CM7,CM9,CM11,CM13,CM15,CM17,CM19)</f>
       </c>
       <c r="CN3" s="3" t="str">
-        <f>AVERAGE(CN5,CN7,CN9,CN11,CN13)</f>
+        <f>AVERAGE(CN5,CN7,CN9,CN11,CN13,CN15,CN17,CN19)</f>
       </c>
       <c r="CO3" s="3" t="str">
-        <f>IFERROR(SUM(CN5,CN7,CN9,CN11,CN13)/SUM(CM5,CM7,CM9,CM11,CM13)*100,0)</f>
+        <f>IFERROR(SUM(CN5,CN7,CN9,CN11,CN13,CN15,CN17,CN19)/SUM(CM5,CM7,CM9,CM11,CM13,CM15,CM17,CM19)*100,0)</f>
       </c>
       <c r="CP3" s="3" t="str">
-        <f>AVERAGE(CP5,CP7,CP9,CP11,CP13)</f>
+        <f>AVERAGE(CP5,CP7,CP9,CP11,CP13,CP15,CP17,CP19)</f>
       </c>
       <c r="CQ3" s="3" t="str">
-        <f>AVERAGE(CQ5,CQ7,CQ9,CQ11,CQ13)</f>
+        <f>AVERAGE(CQ5,CQ7,CQ9,CQ11,CQ13,CQ15,CQ17,CQ19)</f>
       </c>
       <c r="CR3" s="3" t="str">
-        <f>IFERROR(SUM(CQ5,CQ7,CQ9,CQ11,CQ13)/SUM(CP5,CP7,CP9,CP11,CP13)*100,0)</f>
+        <f>IFERROR(SUM(CQ5,CQ7,CQ9,CQ11,CQ13,CQ15,CQ17,CQ19)/SUM(CP5,CP7,CP9,CP11,CP13,CP15,CP17,CP19)*100,0)</f>
       </c>
       <c r="CS3" s="3" t="str">
-        <f>AVERAGE(CS5,CS7,CS9,CS11,CS13)</f>
+        <f>AVERAGE(CS5,CS7,CS9,CS11,CS13,CS15,CS17,CS19)</f>
       </c>
       <c r="CT3" s="3" t="str">
-        <f>AVERAGE(CT5,CT7,CT9,CT11,CT13)</f>
+        <f>AVERAGE(CT5,CT7,CT9,CT11,CT13,CT15,CT17,CT19)</f>
       </c>
       <c r="CU3" s="3" t="str">
-        <f>IFERROR(SUM(CT5,CT7,CT9,CT11,CT13)/SUM(CS5,CS7,CS9,CS11,CS13)*100,0)</f>
+        <f>IFERROR(SUM(CT5,CT7,CT9,CT11,CT13,CT15,CT17,CT19)/SUM(CS5,CS7,CS9,CS11,CS13,CS15,CS17,CS19)*100,0)</f>
       </c>
       <c r="CV3" s="3" t="str">
-        <f>AVERAGE(CV5,CV7,CV9,CV11,CV13)</f>
+        <f>AVERAGE(CV5,CV7,CV9,CV11,CV13,CV15,CV17,CV19)</f>
       </c>
       <c r="CW3" s="3" t="str">
-        <f>AVERAGE(CW5,CW7,CW9,CW11,CW13)</f>
+        <f>AVERAGE(CW5,CW7,CW9,CW11,CW13,CW15,CW17,CW19)</f>
       </c>
       <c r="CX3" s="3" t="str">
-        <f>IFERROR(SUM(CW5,CW7,CW9,CW11,CW13)/SUM(CV5,CV7,CV9,CV11,CV13)*100,0)</f>
+        <f>IFERROR(SUM(CW5,CW7,CW9,CW11,CW13,CW15,CW17,CW19)/SUM(CV5,CV7,CV9,CV11,CV13,CV15,CV17,CV19)*100,0)</f>
       </c>
       <c r="CY3" s="3" t="str">
-        <f>AVERAGE(CY5,CY7,CY9,CY11,CY13)</f>
+        <f>AVERAGE(CY5,CY7,CY9,CY11,CY13,CY15,CY17,CY19)</f>
       </c>
       <c r="CZ3" s="3" t="str">
-        <f>AVERAGE(CZ5,CZ7,CZ9,CZ11,CZ13)</f>
+        <f>AVERAGE(CZ5,CZ7,CZ9,CZ11,CZ13,CZ15,CZ17,CZ19)</f>
       </c>
       <c r="DA3" s="3" t="str">
-        <f>AVERAGE(DA5,DA7,DA9,DA11,DA13)</f>
+        <f>AVERAGE(DA5,DA7,DA9,DA11,DA13,DA15,DA17,DA19)</f>
       </c>
       <c r="DB3" s="3" t="str">
-        <f>AVERAGE(DB5,DB7,DB9,DB11,DB13)</f>
+        <f>AVERAGE(DB5,DB7,DB9,DB11,DB13,DB15,DB17,DB19)</f>
       </c>
       <c r="DC3" s="3" t="str">
-        <f>AVERAGE(DC5,DC7,DC9,DC11,DC13)</f>
+        <f>AVERAGE(DC5,DC7,DC9,DC11,DC13,DC15,DC17,DC19)</f>
       </c>
       <c r="DD3" s="3" t="str">
-        <f>AVERAGE(DD5,DD7,DD9,DD11,DD13)</f>
+        <f>AVERAGE(DD5,DD7,DD9,DD11,DD13,DD15,DD17,DD19)</f>
       </c>
       <c r="DE3" s="3" t="str">
-        <f>AVERAGE(DE5,DE7,DE9,DE11,DE13)</f>
+        <f>AVERAGE(DE5,DE7,DE9,DE11,DE13,DE15,DE17,DE19)</f>
       </c>
     </row>
     <row ht="12" customHeight="true" r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Sūduva - Dainava 1:0</t>
+          <t>Banga - Dainava 2:1</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
@@ -1401,116 +1401,116 @@
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>5-3-2 (100.0%)</t>
+          <t>4-2-3-1 (97.41%)</t>
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.23</v>
+        <v>1.11</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>12.5</v>
+        <v>26.67</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>463.0</v>
+        <v>440.0</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>389.0</v>
+        <v>351.0</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>84.02</v>
+        <v>79.77</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>45.46</v>
+        <v>50.01</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>36.0</v>
+        <v>45.0</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>100.0</v>
+        <v>104.0</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>54.0</v>
+        <v>43.0</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>28.0</v>
+        <v>46.0</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>262.0</v>
+        <v>274.0</v>
       </c>
       <c r="Y4" s="0" t="n">
         <v>130.0</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>49.62</v>
+        <v>47.45</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>0.0</v>
+        <v>11.11</v>
       </c>
       <c r="AD4" s="0" t="n">
         <v>34</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>17.65</v>
+        <v>32.35</v>
       </c>
       <c r="AG4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AI4" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ4" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL4" s="0" t="n">
-        <v>10.53</v>
+        <v>13.64</v>
       </c>
       <c r="AM4" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN4" s="0" t="n">
         <v>3.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AO4" s="0" t="n">
-        <v>0.0</v>
+        <v>42.86</v>
       </c>
       <c r="AP4" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AQ4" s="0" t="n">
         <v>0.0</v>
@@ -1528,91 +1528,91 @@
         <v>0</v>
       </c>
       <c r="AV4" s="0" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="AW4" s="0" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="AX4" s="0" t="n">
-        <v>54.17</v>
+        <v>33.33</v>
       </c>
       <c r="AY4" s="0" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="AZ4" s="0" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="BA4" s="0" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="BB4" s="0" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="BC4" s="0" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="BD4" s="0" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="BE4" s="0" t="n">
-        <v>77.0</v>
+        <v>75.0</v>
       </c>
       <c r="BF4" s="0" t="n">
         <v>20.0</v>
       </c>
       <c r="BG4" s="0" t="n">
-        <v>25.97</v>
+        <v>26.67</v>
       </c>
       <c r="BH4" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI4" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="BI4" s="0" t="n">
-        <v>1.0</v>
-      </c>
       <c r="BJ4" s="0" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="BK4" s="0" t="n">
         <v>4.0</v>
       </c>
       <c r="BL4" s="0" t="n">
-        <v>40.0</v>
+        <v>33.33</v>
       </c>
       <c r="BM4" s="0" t="n">
-        <v>99.0</v>
+        <v>78.0</v>
       </c>
       <c r="BN4" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BO4" s="0" t="n">
+        <v>62.82</v>
+      </c>
+      <c r="BP4" s="0" t="n">
         <v>70.0</v>
       </c>
-      <c r="BO4" s="0" t="n">
-        <v>70.71</v>
-      </c>
-      <c r="BP4" s="0" t="n">
-        <v>56.0</v>
-      </c>
       <c r="BQ4" s="0" t="n">
-        <v>28.0</v>
+        <v>41.0</v>
       </c>
       <c r="BR4" s="0" t="n">
-        <v>50.0</v>
+        <v>58.57</v>
       </c>
       <c r="BS4" s="0" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT4" s="0" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="BU4" s="0" t="n">
-        <v>71.43</v>
+        <v>100.0</v>
       </c>
       <c r="BV4" s="0" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="BW4" s="0" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="BX4" s="0" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="BY4" s="0" t="n">
         <v>3.0</v>
@@ -1621,108 +1621,108 @@
         <v>0.0</v>
       </c>
       <c r="CA4" s="0" t="n">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="CB4" s="0" t="n">
-        <v>113.0</v>
+        <v>108.0</v>
       </c>
       <c r="CC4" s="0" t="n">
-        <v>73.38</v>
+        <v>69.68</v>
       </c>
       <c r="CD4" s="0" t="n">
-        <v>69.0</v>
+        <v>68.0</v>
       </c>
       <c r="CE4" s="0" t="n">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="CF4" s="0" t="n">
-        <v>94.2</v>
+        <v>94.12</v>
       </c>
       <c r="CG4" s="0" t="n">
-        <v>189.0</v>
+        <v>155.0</v>
       </c>
       <c r="CH4" s="0" t="n">
-        <v>168.0</v>
+        <v>136.0</v>
       </c>
       <c r="CI4" s="0" t="n">
-        <v>88.89</v>
+        <v>87.74</v>
       </c>
       <c r="CJ4" s="0" t="n">
-        <v>54.0</v>
+        <v>68.0</v>
       </c>
       <c r="CK4" s="0" t="n">
-        <v>30.0</v>
+        <v>39.0</v>
       </c>
       <c r="CL4" s="0" t="n">
-        <v>55.56</v>
+        <v>57.35</v>
       </c>
       <c r="CM4" s="0" t="n">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="CN4" s="0" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="CO4" s="0" t="n">
-        <v>63.49</v>
+        <v>67.21</v>
       </c>
       <c r="CP4" s="0" t="n">
-        <v>91.0</v>
+        <v>85.0</v>
       </c>
       <c r="CQ4" s="0" t="n">
-        <v>77.0</v>
+        <v>60.0</v>
       </c>
       <c r="CR4" s="0" t="n">
-        <v>84.62</v>
+        <v>70.59</v>
       </c>
       <c r="CS4" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CT4" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="CU4" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="CV4" s="0" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="CW4" s="0" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="CX4" s="0" t="n">
-        <v>100.0</v>
+        <v>78.26</v>
       </c>
       <c r="CY4" s="0" t="n">
         <v>6.0</v>
       </c>
       <c r="CZ4" s="0" t="n">
-        <v>16.83</v>
+        <v>17.48</v>
       </c>
       <c r="DA4" s="0" t="n">
-        <v>4.29</v>
+        <v>3.86</v>
       </c>
       <c r="DB4" s="0" t="n">
-        <v>11.66</v>
+        <v>15.45</v>
       </c>
       <c r="DC4" s="0" t="n">
-        <v>21.66</v>
+        <v>21.61</v>
       </c>
       <c r="DD4" s="0" t="n">
-        <v>20.82</v>
+        <v>19.86</v>
       </c>
       <c r="DE4" s="0" t="n">
-        <v>14.12</v>
+        <v>6.5</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Sūduva - Dainava 1:0</t>
+          <t>Banga - Dainava 2:1</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -1731,11 +1731,11 @@
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
@@ -1744,82 +1744,82 @@
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1.0</v>
+        <v>0.97</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>4.0</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>40.0</v>
+        <v>33.33</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>478.0</v>
+        <v>325.0</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>409.0</v>
+        <v>257.0</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>85.56</v>
+        <v>79.08</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>54.54</v>
+        <v>49.99</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>109.0</v>
+        <v>129.0</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>26.0</v>
+        <v>54.0</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>57.0</v>
+        <v>53.0</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>83.0</v>
+        <v>97.0</v>
       </c>
       <c r="U5" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="V5" s="0" t="n">
         <v>46.0</v>
       </c>
-      <c r="V5" s="0" t="n">
-        <v>22.0</v>
-      </c>
       <c r="W5" s="0" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>262.0</v>
+        <v>274.0</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>122.0</v>
+        <v>119.0</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>46.56</v>
+        <v>43.43</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>22.22</v>
+        <v>30.0</v>
       </c>
       <c r="AG5" s="0" t="n">
         <v>0</v>
@@ -1831,31 +1831,31 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL5" s="0" t="n">
-        <v>9.09</v>
+        <v>12.5</v>
       </c>
       <c r="AM5" s="0" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN5" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="AO5" s="0" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AQ5" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR5" s="0" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="AS5" s="0" t="n">
         <v>0.0</v>
@@ -1867,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="AV5" s="0" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="AW5" s="0" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AX5" s="0" t="n">
-        <v>23.08</v>
+        <v>36.36</v>
       </c>
       <c r="AY5" s="0" t="n">
         <v>4.0</v>
@@ -1882,186 +1882,186 @@
         <v>8.0</v>
       </c>
       <c r="BA5" s="0" t="n">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="BB5" s="0" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="BC5" s="0" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="BD5" s="0" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="BE5" s="0" t="n">
-        <v>99.0</v>
+        <v>78.0</v>
       </c>
       <c r="BF5" s="0" t="n">
         <v>29.0</v>
       </c>
       <c r="BG5" s="0" t="n">
-        <v>29.29</v>
+        <v>37.18</v>
       </c>
       <c r="BH5" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="BI5" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ5" s="0" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="BK5" s="0" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="BL5" s="0" t="n">
-        <v>12.5</v>
+        <v>26.67</v>
       </c>
       <c r="BM5" s="0" t="n">
-        <v>77.0</v>
+        <v>75.0</v>
       </c>
       <c r="BN5" s="0" t="n">
-        <v>57.0</v>
+        <v>55.0</v>
       </c>
       <c r="BO5" s="0" t="n">
-        <v>74.03</v>
+        <v>73.33</v>
       </c>
       <c r="BP5" s="0" t="n">
-        <v>56.0</v>
+        <v>70.0</v>
       </c>
       <c r="BQ5" s="0" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="BR5" s="0" t="n">
-        <v>41.07</v>
+        <v>25.71</v>
       </c>
       <c r="BS5" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BT5" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BU5" s="0" t="n">
         <v>100.0</v>
       </c>
       <c r="BV5" s="0" t="n">
-        <v>37.0</v>
+        <v>54.0</v>
       </c>
       <c r="BW5" s="0" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BX5" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BY5" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ5" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA5" s="0" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="CB5" s="0" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="CC5" s="0" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="CD5" s="0" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="CE5" s="0" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="CF5" s="0" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="CG5" s="0" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="CH5" s="0" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="CI5" s="0" t="n">
+        <v>90.72</v>
+      </c>
+      <c r="CJ5" s="0" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="CK5" s="0" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="CL5" s="0" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="CM5" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CN5" s="0" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CO5" s="0" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="CP5" s="0" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CQ5" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CR5" s="0" t="n">
+        <v>72.46</v>
+      </c>
+      <c r="CS5" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT5" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU5" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CV5" s="0" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CW5" s="0" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CX5" s="0" t="n">
+        <v>78.57</v>
+      </c>
+      <c r="CY5" s="0" t="n">
         <v>12.0</v>
       </c>
-      <c r="BX5" s="0" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="BY5" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BZ5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA5" s="0" t="n">
-        <v>169.0</v>
-      </c>
-      <c r="CB5" s="0" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="CC5" s="0" t="n">
-        <v>79.29</v>
-      </c>
-      <c r="CD5" s="0" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="CE5" s="0" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="CF5" s="0" t="n">
-        <v>96.34</v>
-      </c>
-      <c r="CG5" s="0" t="n">
-        <v>181.0</v>
-      </c>
-      <c r="CH5" s="0" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="CI5" s="0" t="n">
-        <v>87.29</v>
-      </c>
-      <c r="CJ5" s="0" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="CK5" s="0" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="CL5" s="0" t="n">
-        <v>48.94</v>
-      </c>
-      <c r="CM5" s="0" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="CN5" s="0" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="CO5" s="0" t="n">
-        <v>73.91</v>
-      </c>
-      <c r="CP5" s="0" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="CQ5" s="0" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="CR5" s="0" t="n">
-        <v>75.64</v>
-      </c>
-      <c r="CS5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CT5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CU5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="0" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="CW5" s="0" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="CX5" s="0" t="n">
-        <v>81.25</v>
-      </c>
-      <c r="CY5" s="0" t="n">
-        <v>7.0</v>
-      </c>
       <c r="CZ5" s="0" t="n">
-        <v>14.49</v>
+        <v>12.92</v>
       </c>
       <c r="DA5" s="0" t="n">
-        <v>4.35</v>
+        <v>2.95</v>
       </c>
       <c r="DB5" s="0" t="n">
-        <v>9.83</v>
+        <v>19.38</v>
       </c>
       <c r="DC5" s="0" t="n">
-        <v>19.2</v>
+        <v>17.92</v>
       </c>
       <c r="DD5" s="0" t="n">
-        <v>20.44</v>
+        <v>20.64</v>
       </c>
       <c r="DE5" s="0" t="n">
-        <v>13.04</v>
+        <v>10.9</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Žalgiris 0:1</t>
+          <t>Dainava - Panevėžys 1:3</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
@@ -2079,328 +2079,328 @@
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>5-3-2 (100.0%)</t>
+          <t>4-4-2 (100.0%)</t>
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.15</v>
+        <v>1.26</v>
       </c>
       <c r="I6" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>435.0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>79.08</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AN6" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>50.0</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>275.0</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>193.0</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>70.18</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>33.09</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>231.0</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>41.13</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="AG6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AJ6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="0" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AM6" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AN6" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AO6" s="0" t="n">
-        <v>0.0</v>
       </c>
       <c r="AP6" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="AQ6" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR6" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS6" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT6" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU6" s="0" t="n">
-        <v>0</v>
+        <v>100.0</v>
       </c>
       <c r="AV6" s="0" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AW6" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AX6" s="0" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="AY6" s="0" t="n">
         <v>5.0</v>
-      </c>
-      <c r="AW6" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AX6" s="0" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AY6" s="0" t="n">
-        <v>1.0</v>
       </c>
       <c r="AZ6" s="0" t="n">
         <v>3.0</v>
       </c>
       <c r="BA6" s="0" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
       <c r="BB6" s="0" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="BC6" s="0" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="BD6" s="0" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="BE6" s="0" t="n">
-        <v>60.0</v>
+        <v>67.0</v>
       </c>
       <c r="BF6" s="0" t="n">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
       <c r="BG6" s="0" t="n">
-        <v>18.33</v>
+        <v>35.82</v>
       </c>
       <c r="BH6" s="0" t="n">
         <v>3.0</v>
       </c>
       <c r="BI6" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="BJ6" s="0" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="BK6" s="0" t="n">
         <v>7.0</v>
       </c>
       <c r="BL6" s="0" t="n">
-        <v>29.17</v>
+        <v>36.84</v>
       </c>
       <c r="BM6" s="0" t="n">
-        <v>83.0</v>
+        <v>79.0</v>
       </c>
       <c r="BN6" s="0" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="BO6" s="0" t="n">
-        <v>56.63</v>
+        <v>65.82</v>
       </c>
       <c r="BP6" s="0" t="n">
-        <v>64.0</v>
+        <v>45.0</v>
       </c>
       <c r="BQ6" s="0" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="BR6" s="0" t="n">
-        <v>42.19</v>
+        <v>68.89</v>
       </c>
       <c r="BS6" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BT6" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="BT6" s="0" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BU6" s="0" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="BV6" s="0" t="n">
-        <v>57.0</v>
+        <v>39.0</v>
       </c>
       <c r="BW6" s="0" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="BX6" s="0" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="BY6" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ6" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA6" s="0" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="CB6" s="0" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="CC6" s="0" t="n">
+        <v>66.06</v>
+      </c>
+      <c r="CD6" s="0" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="CE6" s="0" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CF6" s="0" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="CG6" s="0" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="CH6" s="0" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="CI6" s="0" t="n">
+        <v>88.68</v>
+      </c>
+      <c r="CJ6" s="0" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CK6" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CL6" s="0" t="n">
+        <v>53.23</v>
+      </c>
+      <c r="CM6" s="0" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CN6" s="0" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="CO6" s="0" t="n">
+        <v>60.66</v>
+      </c>
+      <c r="CP6" s="0" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="CQ6" s="0" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CR6" s="0" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="CS6" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="BZ6" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA6" s="0" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="CB6" s="0" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="CC6" s="0" t="n">
-        <v>57.75</v>
-      </c>
-      <c r="CD6" s="0" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="CE6" s="0" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="CF6" s="0" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="CG6" s="0" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="CH6" s="0" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="CI6" s="0" t="n">
-        <v>85.45</v>
-      </c>
-      <c r="CJ6" s="0" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="CK6" s="0" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="CL6" s="0" t="n">
-        <v>56.96</v>
-      </c>
-      <c r="CM6" s="0" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="CN6" s="0" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="CO6" s="0" t="n">
-        <v>35.48</v>
-      </c>
-      <c r="CP6" s="0" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="CQ6" s="0" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="CR6" s="0" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="CS6" s="0" t="n">
-        <v>0.0</v>
-      </c>
       <c r="CT6" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU6" s="0" t="n">
-        <v>0</v>
+        <v>50.0</v>
       </c>
       <c r="CV6" s="0" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="CW6" s="0" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="CX6" s="0" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="CY6" s="0" t="n">
         <v>16.0</v>
       </c>
       <c r="CZ6" s="0" t="n">
-        <v>15.34</v>
+        <v>15.9</v>
       </c>
       <c r="DA6" s="0" t="n">
-        <v>2.39</v>
+        <v>3.22</v>
       </c>
       <c r="DB6" s="0" t="n">
-        <v>28.73</v>
+        <v>14.25</v>
       </c>
       <c r="DC6" s="0" t="n">
-        <v>12.27</v>
+        <v>18.65</v>
       </c>
       <c r="DD6" s="0" t="n">
-        <v>22.85</v>
+        <v>22.55</v>
       </c>
       <c r="DE6" s="0" t="n">
-        <v>18.0</v>
+        <v>11.09</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Žalgiris 0:1</t>
+          <t>Dainava - Panevėžys 1:3</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -2409,131 +2409,131 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>4-4-2 (100.0%)</t>
+          <t>4-4-1-1 (100.0%)</t>
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3.1</v>
+        <v>2.22</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>7.0</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>29.17</v>
+        <v>36.84</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>655.0</v>
+        <v>390.0</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>547.0</v>
+        <v>306.0</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>83.51</v>
+        <v>78.46</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>66.91</v>
+        <v>46.51</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>147.0</v>
+        <v>130.0</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>101.0</v>
+        <v>57.0</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>118.0</v>
+        <v>84.0</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>61.0</v>
+        <v>40.0</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>231.0</v>
+        <v>221.0</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>124.0</v>
+        <v>90.0</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>53.68</v>
+        <v>40.72</v>
       </c>
       <c r="AA7" s="0" t="n">
         <v>6.0</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>16.67</v>
+        <v>33.33</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>24.64</v>
+        <v>31.71</v>
       </c>
       <c r="AG7" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI7" s="0" t="n">
-        <v>0</v>
+        <v>100.0</v>
       </c>
       <c r="AJ7" s="0" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AK7" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AL7" s="0" t="n">
-        <v>31.82</v>
+        <v>11.11</v>
       </c>
       <c r="AM7" s="0" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AN7" s="0" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO7" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP7" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AQ7" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="AR7" s="0" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="AS7" s="0" t="n">
         <v>0.0</v>
@@ -2545,201 +2545,201 @@
         <v>0</v>
       </c>
       <c r="AV7" s="0" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AW7" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AX7" s="0" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AY7" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AZ7" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BA7" s="0" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BB7" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BC7" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BD7" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BE7" s="0" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BF7" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BG7" s="0" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="BH7" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BI7" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ7" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BK7" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL7" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BM7" s="0" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BN7" s="0" t="n">
         <v>43.0</v>
       </c>
-      <c r="AW7" s="0" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AX7" s="0" t="n">
-        <v>46.51</v>
-      </c>
-      <c r="AY7" s="0" t="n">
+      <c r="BO7" s="0" t="n">
+        <v>64.18</v>
+      </c>
+      <c r="BP7" s="0" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BQ7" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR7" s="0" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="BS7" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BT7" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BU7" s="0" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BV7" s="0" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BW7" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BX7" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BY7" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BZ7" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA7" s="0" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="CB7" s="0" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="CC7" s="0" t="n">
+        <v>66.22</v>
+      </c>
+      <c r="CD7" s="0" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CE7" s="0" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="CF7" s="0" t="n">
+        <v>90.32</v>
+      </c>
+      <c r="CG7" s="0" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="CH7" s="0" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="CI7" s="0" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="CJ7" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CK7" s="0" t="n">
         <v>18.0</v>
       </c>
-      <c r="AZ7" s="0" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="BA7" s="0" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="BB7" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BC7" s="0" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="BD7" s="0" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="BE7" s="0" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="BF7" s="0" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="BG7" s="0" t="n">
-        <v>43.37</v>
-      </c>
-      <c r="BH7" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BI7" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ7" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BK7" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BL7" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="BM7" s="0" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="BN7" s="0" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="BO7" s="0" t="n">
-        <v>81.67</v>
-      </c>
-      <c r="BP7" s="0" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="BQ7" s="0" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="BR7" s="0" t="n">
-        <v>45.31</v>
-      </c>
-      <c r="BS7" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BT7" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BU7" s="0" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="BV7" s="0" t="n">
+      <c r="CL7" s="0" t="n">
+        <v>51.43</v>
+      </c>
+      <c r="CM7" s="0" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CN7" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="CO7" s="0" t="n">
+        <v>65.22</v>
+      </c>
+      <c r="CP7" s="0" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="CQ7" s="0" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="CR7" s="0" t="n">
+        <v>70.83</v>
+      </c>
+      <c r="CS7" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT7" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU7" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV7" s="0" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CW7" s="0" t="n">
         <v>24.0</v>
       </c>
-      <c r="BW7" s="0" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BX7" s="0" t="n">
+      <c r="CX7" s="0" t="n">
+        <v>85.71</v>
+      </c>
+      <c r="CY7" s="0" t="n">
         <v>7.0</v>
       </c>
-      <c r="BY7" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BZ7" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA7" s="0" t="n">
-        <v>232.0</v>
-      </c>
-      <c r="CB7" s="0" t="n">
-        <v>176.0</v>
-      </c>
-      <c r="CC7" s="0" t="n">
-        <v>75.86</v>
-      </c>
-      <c r="CD7" s="0" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="CE7" s="0" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="CF7" s="0" t="n">
-        <v>96.81</v>
-      </c>
-      <c r="CG7" s="0" t="n">
-        <v>261.0</v>
-      </c>
-      <c r="CH7" s="0" t="n">
-        <v>231.0</v>
-      </c>
-      <c r="CI7" s="0" t="n">
-        <v>88.51</v>
-      </c>
-      <c r="CJ7" s="0" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="CK7" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="CL7" s="0" t="n">
-        <v>65.79</v>
-      </c>
-      <c r="CM7" s="0" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="CN7" s="0" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="CO7" s="0" t="n">
-        <v>78.38</v>
-      </c>
-      <c r="CP7" s="0" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="CQ7" s="0" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="CR7" s="0" t="n">
-        <v>92.25</v>
-      </c>
-      <c r="CS7" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="CT7" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="CU7" s="0" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="CV7" s="0" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="CW7" s="0" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="CX7" s="0" t="n">
-        <v>94.29</v>
-      </c>
-      <c r="CY7" s="0" t="n">
-        <v>3.0</v>
-      </c>
       <c r="CZ7" s="0" t="n">
-        <v>18.07</v>
+        <v>16.4</v>
       </c>
       <c r="DA7" s="0" t="n">
-        <v>5.24</v>
+        <v>2.95</v>
       </c>
       <c r="DB7" s="0" t="n">
-        <v>11.6</v>
+        <v>8.97</v>
       </c>
       <c r="DC7" s="0" t="n">
-        <v>15.05</v>
+        <v>19.24</v>
       </c>
       <c r="DD7" s="0" t="n">
-        <v>20.7</v>
+        <v>18.79</v>
       </c>
       <c r="DE7" s="0" t="n">
-        <v>7.5</v>
+        <v>10.03</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Džiugas Telšiai 0:2</t>
+          <t>Hegelmann Litauen - Dainava 3:2</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
@@ -2757,328 +2757,328 @@
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>5-3-2 (86.15%)</t>
+          <t>4-1-3-2 (100.0%)</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>312.0</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>77.56</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AG8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="AH8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO8" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AP8" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ8" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AR8" s="0" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AS8" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT8" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU8" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AV8" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AW8" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX8" s="0" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="AY8" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AZ8" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BA8" s="0" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BB8" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC8" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BD8" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BE8" s="0" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BF8" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BG8" s="0" t="n">
+        <v>39.68</v>
+      </c>
+      <c r="BH8" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI8" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BJ8" s="0" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BK8" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BL8" s="0" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="BM8" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BN8" s="0" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BO8" s="0" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="BP8" s="0" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BQ8" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BR8" s="0" t="n">
+        <v>37.84</v>
+      </c>
+      <c r="BS8" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BT8" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU8" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BV8" s="0" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BW8" s="0" t="n">
         <v>16.0</v>
       </c>
-      <c r="J8" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="BX8" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BY8" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ8" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA8" s="0" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="CB8" s="0" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="CC8" s="0" t="n">
+        <v>70.67</v>
+      </c>
+      <c r="CD8" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CE8" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CF8" s="0" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="CG8" s="0" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="CH8" s="0" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CI8" s="0" t="n">
+        <v>83.13</v>
+      </c>
+      <c r="CJ8" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CK8" s="0" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CL8" s="0" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="CM8" s="0" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CN8" s="0" t="n">
         <v>25.0</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <v>476.0</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>397.0</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>83.4</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>266.0</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>51.13</v>
-      </c>
-      <c r="AA8" s="0" t="n">
+      <c r="CO8" s="0" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="CP8" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CQ8" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CR8" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CS8" s="0" t="n">
         <v>5.0</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC8" s="0" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AD8" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE8" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" s="0" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="AG8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="0" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="AJ8" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL8" s="0" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="AM8" s="0" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AN8" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AO8" s="0" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="AP8" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AQ8" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR8" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS8" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT8" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="0" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="AW8" s="0" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AX8" s="0" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="AY8" s="0" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AZ8" s="0" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BA8" s="0" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="BB8" s="0" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="BC8" s="0" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="BD8" s="0" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="BE8" s="0" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="BF8" s="0" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="BG8" s="0" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="BH8" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BI8" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BJ8" s="0" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="BK8" s="0" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BL8" s="0" t="n">
-        <v>72.73</v>
-      </c>
-      <c r="BM8" s="0" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="BN8" s="0" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="BO8" s="0" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="BP8" s="0" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="BQ8" s="0" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="BR8" s="0" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="BS8" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BT8" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BU8" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="BV8" s="0" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="BW8" s="0" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="BX8" s="0" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="BY8" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BZ8" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA8" s="0" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="CB8" s="0" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="CC8" s="0" t="n">
-        <v>71.25</v>
-      </c>
-      <c r="CD8" s="0" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="CE8" s="0" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="CF8" s="0" t="n">
-        <v>94.05</v>
-      </c>
-      <c r="CG8" s="0" t="n">
-        <v>176.0</v>
-      </c>
-      <c r="CH8" s="0" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="CI8" s="0" t="n">
-        <v>89.77</v>
-      </c>
-      <c r="CJ8" s="0" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="CK8" s="0" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="CL8" s="0" t="n">
-        <v>58.33</v>
-      </c>
-      <c r="CM8" s="0" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="CN8" s="0" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="CO8" s="0" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="CP8" s="0" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="CQ8" s="0" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="CR8" s="0" t="n">
-        <v>79.52</v>
-      </c>
-      <c r="CS8" s="0" t="n">
-        <v>2.0</v>
       </c>
       <c r="CT8" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="CU8" s="0" t="n">
-        <v>100.0</v>
+        <v>40.0</v>
       </c>
       <c r="CV8" s="0" t="n">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="CW8" s="0" t="n">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="CX8" s="0" t="n">
-        <v>89.29</v>
+        <v>75.0</v>
       </c>
       <c r="CY8" s="0" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="CZ8" s="0" t="n">
-        <v>14.87</v>
+        <v>15.89</v>
       </c>
       <c r="DA8" s="0" t="n">
-        <v>4.07</v>
+        <v>2.84</v>
       </c>
       <c r="DB8" s="0" t="n">
-        <v>12.61</v>
+        <v>16.67</v>
       </c>
       <c r="DC8" s="0" t="n">
-        <v>17.57</v>
+        <v>19.62</v>
       </c>
       <c r="DD8" s="0" t="n">
-        <v>19.97</v>
+        <v>20.82</v>
       </c>
       <c r="DE8" s="0" t="n">
-        <v>8.59</v>
+        <v>14.71</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Džiugas Telšiai 0:2</t>
+          <t>Hegelmann Litauen - Dainava 3:2</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -3087,131 +3087,131 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>4-2-3-1 (100.0%)</t>
+          <t>4-3-3 (65.53%)</t>
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1.37</v>
+        <v>2.34</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="J9" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>517.0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>64.48</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>50.82</v>
+      </c>
+      <c r="AA9" s="0" t="n">
         <v>8.0</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>72.73</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>348.0</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>288.0</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>82.76</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>266.0</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>45.11</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>4.0</v>
-      </c>
       <c r="AB9" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>75.0</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>30.43</v>
+        <v>26.83</v>
       </c>
       <c r="AG9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AI9" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ9" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AK9" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL9" s="0" t="n">
-        <v>19.05</v>
+        <v>28.0</v>
       </c>
       <c r="AM9" s="0" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="AN9" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="AO9" s="0" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="AP9" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ9" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR9" s="0" t="n">
         <v>50.0</v>
-      </c>
-      <c r="AP9" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AQ9" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR9" s="0" t="n">
-        <v>0.0</v>
       </c>
       <c r="AS9" s="0" t="n">
         <v>0.0</v>
@@ -3223,201 +3223,201 @@
         <v>0</v>
       </c>
       <c r="AV9" s="0" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="AW9" s="0" t="n">
         <v>8.0</v>
       </c>
       <c r="AX9" s="0" t="n">
-        <v>61.54</v>
+        <v>40.0</v>
       </c>
       <c r="AY9" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AZ9" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BA9" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BB9" s="0" t="n">
         <v>6.0</v>
       </c>
-      <c r="AZ9" s="0" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="BA9" s="0" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="BB9" s="0" t="n">
+      <c r="BC9" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BD9" s="0" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BE9" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BF9" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG9" s="0" t="n">
+        <v>38.46</v>
+      </c>
+      <c r="BH9" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BI9" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BJ9" s="0" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BK9" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL9" s="0" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="BM9" s="0" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BN9" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BO9" s="0" t="n">
+        <v>60.32</v>
+      </c>
+      <c r="BP9" s="0" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BQ9" s="0" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BR9" s="0" t="n">
+        <v>51.35</v>
+      </c>
+      <c r="BS9" s="0" t="n">
         <v>5.0</v>
       </c>
-      <c r="BC9" s="0" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="BD9" s="0" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="BE9" s="0" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="BF9" s="0" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="BG9" s="0" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="BH9" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BI9" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ9" s="0" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="BK9" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BL9" s="0" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="BM9" s="0" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="BN9" s="0" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="BO9" s="0" t="n">
-        <v>60.67</v>
-      </c>
-      <c r="BP9" s="0" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="BQ9" s="0" t="n">
+      <c r="BT9" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BU9" s="0" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BV9" s="0" t="n">
         <v>27.0</v>
       </c>
-      <c r="BR9" s="0" t="n">
-        <v>50.94</v>
-      </c>
-      <c r="BS9" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BT9" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BU9" s="0" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="BV9" s="0" t="n">
-        <v>52.0</v>
-      </c>
       <c r="BW9" s="0" t="n">
-        <v>39.0</v>
+        <v>8.0</v>
       </c>
       <c r="BX9" s="0" t="n">
         <v>14.0</v>
       </c>
       <c r="BY9" s="0" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="BZ9" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="CA9" s="0" t="n">
-        <v>129.0</v>
+        <v>184.0</v>
       </c>
       <c r="CB9" s="0" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="CC9" s="0" t="n">
+        <v>79.35</v>
+      </c>
+      <c r="CD9" s="0" t="n">
         <v>91.0</v>
       </c>
-      <c r="CC9" s="0" t="n">
-        <v>70.54</v>
-      </c>
-      <c r="CD9" s="0" t="n">
-        <v>52.0</v>
-      </c>
       <c r="CE9" s="0" t="n">
-        <v>52.0</v>
+        <v>89.0</v>
       </c>
       <c r="CF9" s="0" t="n">
-        <v>100.0</v>
+        <v>97.8</v>
       </c>
       <c r="CG9" s="0" t="n">
-        <v>114.0</v>
+        <v>251.0</v>
       </c>
       <c r="CH9" s="0" t="n">
-        <v>103.0</v>
+        <v>223.0</v>
       </c>
       <c r="CI9" s="0" t="n">
-        <v>90.35</v>
+        <v>88.84</v>
       </c>
       <c r="CJ9" s="0" t="n">
-        <v>59.0</v>
+        <v>57.0</v>
       </c>
       <c r="CK9" s="0" t="n">
         <v>36.0</v>
       </c>
       <c r="CL9" s="0" t="n">
-        <v>61.02</v>
+        <v>63.16</v>
       </c>
       <c r="CM9" s="0" t="n">
-        <v>38.0</v>
+        <v>79.0</v>
       </c>
       <c r="CN9" s="0" t="n">
-        <v>24.0</v>
+        <v>62.0</v>
       </c>
       <c r="CO9" s="0" t="n">
-        <v>63.16</v>
+        <v>78.48</v>
       </c>
       <c r="CP9" s="0" t="n">
-        <v>74.0</v>
+        <v>114.0</v>
       </c>
       <c r="CQ9" s="0" t="n">
-        <v>53.0</v>
+        <v>98.0</v>
       </c>
       <c r="CR9" s="0" t="n">
-        <v>71.62</v>
+        <v>85.96</v>
       </c>
       <c r="CS9" s="0" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="CT9" s="0" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="CU9" s="0" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="CV9" s="0" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="CW9" s="0" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="CX9" s="0" t="n">
-        <v>88.24</v>
+        <v>85.71</v>
       </c>
       <c r="CY9" s="0" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="CZ9" s="0" t="n">
-        <v>14.59</v>
+        <v>16.83</v>
       </c>
       <c r="DA9" s="0" t="n">
-        <v>3.63</v>
+        <v>5.17</v>
       </c>
       <c r="DB9" s="0" t="n">
-        <v>16.95</v>
+        <v>9.5</v>
       </c>
       <c r="DC9" s="0" t="n">
-        <v>15.94</v>
+        <v>18.02</v>
       </c>
       <c r="DD9" s="0" t="n">
-        <v>20.18</v>
+        <v>20.43</v>
       </c>
       <c r="DE9" s="0" t="n">
-        <v>10.09</v>
+        <v>7.77</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Šiauliai - Dainava 2:2</t>
+          <t>Sūduva - Dainava 1:0</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
@@ -3439,82 +3439,82 @@
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.42</v>
+        <v>0.11</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>33.33</v>
+        <v>0.0</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>310.0</v>
+        <v>467.0</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>217.0</v>
+        <v>390.0</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>70.0</v>
+        <v>83.51</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>42.16</v>
+        <v>45.55</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>133.0</v>
+        <v>127.0</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>49.0</v>
+        <v>33.0</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>58.0</v>
+        <v>69.0</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>81.0</v>
+        <v>99.0</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>42.0</v>
+        <v>54.0</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>226.0</v>
+        <v>259.0</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>106.0</v>
+        <v>128.0</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>46.9</v>
+        <v>49.42</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>42.86</v>
+        <v>0.0</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>24.0</v>
+        <v>14.71</v>
       </c>
       <c r="AG10" s="0" t="n">
         <v>0</v>
@@ -3526,16 +3526,16 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AK10" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="0" t="n">
-        <v>8.82</v>
+        <v>5.26</v>
       </c>
       <c r="AM10" s="0" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="AN10" s="0" t="n">
         <v>0.0</v>
@@ -3547,10 +3547,10 @@
         <v>2.0</v>
       </c>
       <c r="AQ10" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR10" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS10" s="0" t="n">
         <v>0.0</v>
@@ -3562,201 +3562,201 @@
         <v>0</v>
       </c>
       <c r="AV10" s="0" t="n">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="AW10" s="0" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="AX10" s="0" t="n">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
       <c r="AY10" s="0" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="AZ10" s="0" t="n">
         <v>7.0</v>
       </c>
       <c r="BA10" s="0" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BB10" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC10" s="0" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BD10" s="0" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BE10" s="0" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BF10" s="0" t="n">
         <v>20.0</v>
       </c>
-      <c r="BB10" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BC10" s="0" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="BD10" s="0" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="BE10" s="0" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="BF10" s="0" t="n">
-        <v>24.0</v>
-      </c>
       <c r="BG10" s="0" t="n">
-        <v>50.0</v>
+        <v>26.32</v>
       </c>
       <c r="BH10" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BI10" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ10" s="0" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="BK10" s="0" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="BL10" s="0" t="n">
-        <v>33.33</v>
+        <v>40.0</v>
       </c>
       <c r="BM10" s="0" t="n">
-        <v>83.0</v>
+        <v>98.0</v>
       </c>
       <c r="BN10" s="0" t="n">
-        <v>50.0</v>
+        <v>69.0</v>
       </c>
       <c r="BO10" s="0" t="n">
-        <v>60.24</v>
+        <v>70.41</v>
       </c>
       <c r="BP10" s="0" t="n">
-        <v>49.0</v>
+        <v>55.0</v>
       </c>
       <c r="BQ10" s="0" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="BR10" s="0" t="n">
-        <v>28.57</v>
+        <v>49.09</v>
       </c>
       <c r="BS10" s="0" t="n">
         <v>6.0</v>
       </c>
       <c r="BT10" s="0" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="BU10" s="0" t="n">
-        <v>33.33</v>
+        <v>66.67</v>
       </c>
       <c r="BV10" s="0" t="n">
         <v>37.0</v>
       </c>
       <c r="BW10" s="0" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="BX10" s="0" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="BY10" s="0" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="BZ10" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="CA10" s="0" t="n">
-        <v>117.0</v>
+        <v>155.0</v>
       </c>
       <c r="CB10" s="0" t="n">
-        <v>70.0</v>
+        <v>112.0</v>
       </c>
       <c r="CC10" s="0" t="n">
-        <v>59.83</v>
+        <v>72.26</v>
       </c>
       <c r="CD10" s="0" t="n">
-        <v>48.0</v>
+        <v>69.0</v>
       </c>
       <c r="CE10" s="0" t="n">
-        <v>42.0</v>
+        <v>66.0</v>
       </c>
       <c r="CF10" s="0" t="n">
-        <v>87.5</v>
+        <v>95.65</v>
       </c>
       <c r="CG10" s="0" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="CH10" s="0" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="CI10" s="0" t="n">
+        <v>88.6</v>
+      </c>
+      <c r="CJ10" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CK10" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CL10" s="0" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="CM10" s="0" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CN10" s="0" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="CO10" s="0" t="n">
+        <v>63.08</v>
+      </c>
+      <c r="CP10" s="0" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="CQ10" s="0" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CR10" s="0" t="n">
+        <v>86.05</v>
+      </c>
+      <c r="CS10" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CT10" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU10" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CV10" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="CW10" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="CX10" s="0" t="n">
         <v>100.0</v>
       </c>
-      <c r="CH10" s="0" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="CI10" s="0" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="CJ10" s="0" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="CK10" s="0" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="CL10" s="0" t="n">
-        <v>60.38</v>
-      </c>
-      <c r="CM10" s="0" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="CN10" s="0" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="CO10" s="0" t="n">
-        <v>51.43</v>
-      </c>
-      <c r="CP10" s="0" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="CQ10" s="0" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="CR10" s="0" t="n">
-        <v>53.23</v>
-      </c>
-      <c r="CS10" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="CT10" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="CU10" s="0" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="CV10" s="0" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="CW10" s="0" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="CX10" s="0" t="n">
-        <v>83.33</v>
-      </c>
       <c r="CY10" s="0" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="CZ10" s="0" t="n">
-        <v>14.8</v>
+        <v>16.92</v>
       </c>
       <c r="DA10" s="0" t="n">
-        <v>2.65</v>
+        <v>4.32</v>
       </c>
       <c r="DB10" s="0" t="n">
-        <v>17.1</v>
+        <v>11.13</v>
       </c>
       <c r="DC10" s="0" t="n">
-        <v>20.15</v>
+        <v>23.94</v>
       </c>
       <c r="DD10" s="0" t="n">
-        <v>20.74</v>
+        <v>20.79</v>
       </c>
       <c r="DE10" s="0" t="n">
-        <v>16.15</v>
+        <v>14.71</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Šiauliai - Dainava 2:2</t>
+          <t>Sūduva - Dainava 1:0</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -3765,11 +3765,11 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
@@ -3778,64 +3778,64 @@
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.34</v>
+        <v>1.0</v>
       </c>
       <c r="I11" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>85.56</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>54.45</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="W11" s="0" t="n">
         <v>15.0</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>474.0</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>383.0</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>57.84</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>17.0</v>
-      </c>
       <c r="X11" s="0" t="n">
-        <v>226.0</v>
+        <v>259.0</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>106.0</v>
+        <v>121.0</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>46.9</v>
+        <v>46.72</v>
       </c>
       <c r="AA11" s="0" t="n">
         <v>4.0</v>
@@ -3847,49 +3847,49 @@
         <v>50.0</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>26.83</v>
+        <v>22.22</v>
       </c>
       <c r="AG11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="0" t="n">
-        <v>100.0</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL11" s="0" t="n">
-        <v>12.0</v>
+        <v>9.09</v>
       </c>
       <c r="AM11" s="0" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="AN11" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO11" s="0" t="n">
-        <v>11.11</v>
+        <v>0.0</v>
       </c>
       <c r="AP11" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AQ11" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR11" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS11" s="0" t="n">
         <v>0.0</v>
@@ -3901,201 +3901,201 @@
         <v>0</v>
       </c>
       <c r="AV11" s="0" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="AW11" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX11" s="0" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="AY11" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AZ11" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BA11" s="0" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BB11" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC11" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BD11" s="0" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BE11" s="0" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="BF11" s="0" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BG11" s="0" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="BH11" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI11" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ11" s="0" t="n">
         <v>6.0</v>
       </c>
-      <c r="AX11" s="0" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="AY11" s="0" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AZ11" s="0" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="BA11" s="0" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="BB11" s="0" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="BC11" s="0" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="BD11" s="0" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="BE11" s="0" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="BF11" s="0" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="BG11" s="0" t="n">
-        <v>39.76</v>
-      </c>
-      <c r="BH11" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BI11" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BJ11" s="0" t="n">
-        <v>9.0</v>
-      </c>
       <c r="BK11" s="0" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL11" s="0" t="n">
-        <v>44.44</v>
+        <v>16.67</v>
       </c>
       <c r="BM11" s="0" t="n">
-        <v>48.0</v>
+        <v>76.0</v>
       </c>
       <c r="BN11" s="0" t="n">
-        <v>24.0</v>
+        <v>56.0</v>
       </c>
       <c r="BO11" s="0" t="n">
-        <v>50.0</v>
+        <v>73.68</v>
       </c>
       <c r="BP11" s="0" t="n">
-        <v>49.0</v>
+        <v>55.0</v>
       </c>
       <c r="BQ11" s="0" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="BR11" s="0" t="n">
-        <v>61.22</v>
+        <v>41.82</v>
       </c>
       <c r="BS11" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="BT11" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BU11" s="0" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="BV11" s="0" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="BW11" s="0" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="BX11" s="0" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BY11" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ11" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA11" s="0" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="CB11" s="0" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="CC11" s="0" t="n">
+        <v>79.29</v>
+      </c>
+      <c r="CD11" s="0" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CE11" s="0" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CF11" s="0" t="n">
+        <v>96.34</v>
+      </c>
+      <c r="CG11" s="0" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="CH11" s="0" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="CI11" s="0" t="n">
+        <v>87.22</v>
+      </c>
+      <c r="CJ11" s="0" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CK11" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CL11" s="0" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="CM11" s="0" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CN11" s="0" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CO11" s="0" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="CP11" s="0" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="CQ11" s="0" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CR11" s="0" t="n">
+        <v>75.64</v>
+      </c>
+      <c r="CS11" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT11" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CW11" s="0" t="n">
         <v>13.0</v>
       </c>
-      <c r="BY11" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BZ11" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA11" s="0" t="n">
-        <v>171.0</v>
-      </c>
-      <c r="CB11" s="0" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="CC11" s="0" t="n">
-        <v>72.51</v>
-      </c>
-      <c r="CD11" s="0" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="CE11" s="0" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="CF11" s="0" t="n">
-        <v>92.75</v>
-      </c>
-      <c r="CG11" s="0" t="n">
-        <v>195.0</v>
-      </c>
-      <c r="CH11" s="0" t="n">
-        <v>167.0</v>
-      </c>
-      <c r="CI11" s="0" t="n">
-        <v>85.64</v>
-      </c>
-      <c r="CJ11" s="0" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="CK11" s="0" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="CL11" s="0" t="n">
-        <v>56.52</v>
-      </c>
-      <c r="CM11" s="0" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="CN11" s="0" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="CO11" s="0" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="CP11" s="0" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="CQ11" s="0" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="CR11" s="0" t="n">
-        <v>76.09</v>
-      </c>
-      <c r="CS11" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="CT11" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CU11" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CV11" s="0" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="CW11" s="0" t="n">
-        <v>15.0</v>
-      </c>
       <c r="CX11" s="0" t="n">
-        <v>100.0</v>
+        <v>81.25</v>
       </c>
       <c r="CY11" s="0" t="n">
         <v>7.0</v>
       </c>
       <c r="CZ11" s="0" t="n">
-        <v>16.49</v>
+        <v>14.49</v>
       </c>
       <c r="DA11" s="0" t="n">
-        <v>3.98</v>
+        <v>4.35</v>
       </c>
       <c r="DB11" s="0" t="n">
-        <v>14.56</v>
+        <v>9.83</v>
       </c>
       <c r="DC11" s="0" t="n">
-        <v>14.46</v>
+        <v>19.2</v>
       </c>
       <c r="DD11" s="0" t="n">
-        <v>21.29</v>
+        <v>20.43</v>
       </c>
       <c r="DE11" s="0" t="n">
-        <v>7.75</v>
+        <v>13.13</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Kauno Žalgiris 1:3</t>
+          <t>Dainava - Žalgiris 0:1</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
@@ -4113,278 +4113,278 @@
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>4-1-3-2 (100.0%)</t>
+          <t>5-3-2 (100.0%)</t>
         </is>
       </c>
       <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>70.18</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>33.09</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>324.0</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>262.0</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>80.86</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>37.71</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>181.0</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>44.75</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC12" s="0" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="AF12" s="0" t="n">
-        <v>15.79</v>
+        <v>8.33</v>
       </c>
       <c r="AG12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AH12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AI12" s="0" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="AJ12" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AM12" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP12" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ12" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR12" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AS12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL12" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AM12" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN12" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AO12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AQ12" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR12" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS12" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AT12" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AU12" s="0" t="n">
-        <v>100.0</v>
-      </c>
       <c r="AV12" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AW12" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX12" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AY12" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ12" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BA12" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BB12" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC12" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BD12" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BE12" s="0" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BF12" s="0" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BG12" s="0" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="BH12" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BI12" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ12" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BK12" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BL12" s="0" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="BM12" s="0" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="BN12" s="0" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BO12" s="0" t="n">
+        <v>56.63</v>
+      </c>
+      <c r="BP12" s="0" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BQ12" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BR12" s="0" t="n">
+        <v>42.19</v>
+      </c>
+      <c r="BS12" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="AW12" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AX12" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AY12" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ12" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BA12" s="0" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="BB12" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BC12" s="0" t="n">
+      <c r="BT12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV12" s="0" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BW12" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BX12" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BY12" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="BD12" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BE12" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="BF12" s="0" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="BG12" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BH12" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI12" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BJ12" s="0" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="BK12" s="0" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BL12" s="0" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="BM12" s="0" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="BN12" s="0" t="n">
+      <c r="BZ12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA12" s="0" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="CB12" s="0" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CC12" s="0" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="CD12" s="0" t="n">
         <v>49.0</v>
       </c>
-      <c r="BO12" s="0" t="n">
-        <v>63.64</v>
-      </c>
-      <c r="BP12" s="0" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="BQ12" s="0" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BR12" s="0" t="n">
-        <v>29.41</v>
-      </c>
-      <c r="BS12" s="0" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="BT12" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BU12" s="0" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="BV12" s="0" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="BW12" s="0" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BX12" s="0" t="n">
+      <c r="CE12" s="0" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="CF12" s="0" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="CG12" s="0" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CH12" s="0" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CI12" s="0" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="CJ12" s="0" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CK12" s="0" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CL12" s="0" t="n">
+        <v>56.96</v>
+      </c>
+      <c r="CM12" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CN12" s="0" t="n">
         <v>11.0</v>
       </c>
-      <c r="BY12" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BZ12" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA12" s="0" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="CB12" s="0" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="CC12" s="0" t="n">
-        <v>64.04</v>
-      </c>
-      <c r="CD12" s="0" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="CE12" s="0" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="CF12" s="0" t="n">
-        <v>94.44</v>
-      </c>
-      <c r="CG12" s="0" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="CH12" s="0" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="CI12" s="0" t="n">
-        <v>88.81</v>
-      </c>
-      <c r="CJ12" s="0" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="CK12" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="CL12" s="0" t="n">
-        <v>54.55</v>
-      </c>
-      <c r="CM12" s="0" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="CN12" s="0" t="n">
-        <v>20.0</v>
-      </c>
       <c r="CO12" s="0" t="n">
-        <v>52.63</v>
+        <v>35.48</v>
       </c>
       <c r="CP12" s="0" t="n">
-        <v>65.0</v>
+        <v>81.0</v>
       </c>
       <c r="CQ12" s="0" t="n">
         <v>42.0</v>
       </c>
       <c r="CR12" s="0" t="n">
-        <v>64.62</v>
+        <v>51.85</v>
       </c>
       <c r="CS12" s="0" t="n">
         <v>0.0</v>
@@ -4396,45 +4396,45 @@
         <v>0</v>
       </c>
       <c r="CV12" s="0" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="CW12" s="0" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="CX12" s="0" t="n">
-        <v>69.23</v>
+        <v>100.0</v>
       </c>
       <c r="CY12" s="0" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="CZ12" s="0" t="n">
-        <v>16.46</v>
+        <v>15.34</v>
       </c>
       <c r="DA12" s="0" t="n">
-        <v>3.72</v>
+        <v>2.39</v>
       </c>
       <c r="DB12" s="0" t="n">
-        <v>16.98</v>
+        <v>28.73</v>
       </c>
       <c r="DC12" s="0" t="n">
-        <v>22.02</v>
+        <v>12.27</v>
       </c>
       <c r="DD12" s="0" t="n">
-        <v>21.43</v>
+        <v>22.85</v>
       </c>
       <c r="DE12" s="0" t="n">
-        <v>15.6</v>
+        <v>18.0</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Kauno Žalgiris 1:3</t>
+          <t>Dainava - Žalgiris 0:1</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -4443,95 +4443,95 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>4-2-3-1 (100.0%)</t>
+          <t>4-4-2 (100.0%)</t>
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>7.0</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>33.33</v>
+        <v>29.17</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>542.0</v>
+        <v>655.0</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>471.0</v>
+        <v>547.0</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>86.9</v>
+        <v>83.51</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>62.29</v>
+        <v>66.91</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>102.0</v>
+        <v>147.0</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>13.0</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>45.0</v>
+        <v>101.0</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>85.0</v>
+        <v>118.0</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>33.0</v>
+        <v>61.0</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>181.0</v>
+        <v>231.0</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>96.0</v>
+        <v>124.0</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>53.04</v>
+        <v>53.68</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>28.57</v>
+        <v>16.67</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>26.19</v>
+        <v>24.64</v>
       </c>
       <c r="AG13" s="0" t="n">
         <v>0</v>
@@ -4543,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK13" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL13" s="0" t="n">
-        <v>47.37</v>
+        <v>31.82</v>
       </c>
       <c r="AM13" s="0" t="n">
         <v>6.0</v>
@@ -4561,91 +4561,91 @@
         <v>50.0</v>
       </c>
       <c r="AP13" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AQ13" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="AR13" s="0" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="AS13" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU13" s="0" t="n">
-        <v>100.0</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="0" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AW13" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AX13" s="0" t="n">
+        <v>46.51</v>
+      </c>
+      <c r="AY13" s="0" t="n">
         <v>18.0</v>
       </c>
-      <c r="AW13" s="0" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AX13" s="0" t="n">
-        <v>38.89</v>
-      </c>
-      <c r="AY13" s="0" t="n">
-        <v>7.0</v>
-      </c>
       <c r="AZ13" s="0" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="BA13" s="0" t="n">
-        <v>35.0</v>
+        <v>59.0</v>
       </c>
       <c r="BB13" s="0" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="BC13" s="0" t="n">
-        <v>10.0</v>
+        <v>32.0</v>
       </c>
       <c r="BD13" s="0" t="n">
-        <v>35.0</v>
+        <v>43.0</v>
       </c>
       <c r="BE13" s="0" t="n">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
       <c r="BF13" s="0" t="n">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="BG13" s="0" t="n">
-        <v>36.36</v>
+        <v>43.37</v>
       </c>
       <c r="BH13" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI13" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ13" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="BI13" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BJ13" s="0" t="n">
-        <v>5.0</v>
-      </c>
       <c r="BK13" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL13" s="0" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="BM13" s="0" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="BN13" s="0" t="n">
-        <v>35.0</v>
+        <v>49.0</v>
       </c>
       <c r="BO13" s="0" t="n">
-        <v>70.0</v>
+        <v>81.67</v>
       </c>
       <c r="BP13" s="0" t="n">
-        <v>34.0</v>
+        <v>64.0</v>
       </c>
       <c r="BQ13" s="0" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="BR13" s="0" t="n">
-        <v>67.65</v>
+        <v>45.31</v>
       </c>
       <c r="BS13" s="0" t="n">
         <v>2.0</v>
@@ -4657,117 +4657,2151 @@
         <v>100.0</v>
       </c>
       <c r="BV13" s="0" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="BW13" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BX13" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BY13" s="0" t="n">
         <v>3.0</v>
       </c>
-      <c r="BX13" s="0" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BY13" s="0" t="n">
-        <v>1.0</v>
-      </c>
       <c r="BZ13" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="CA13" s="0" t="n">
-        <v>165.0</v>
+        <v>232.0</v>
       </c>
       <c r="CB13" s="0" t="n">
-        <v>125.0</v>
+        <v>176.0</v>
       </c>
       <c r="CC13" s="0" t="n">
-        <v>75.76</v>
+        <v>75.86</v>
       </c>
       <c r="CD13" s="0" t="n">
-        <v>89.0</v>
+        <v>94.0</v>
       </c>
       <c r="CE13" s="0" t="n">
-        <v>83.0</v>
+        <v>91.0</v>
       </c>
       <c r="CF13" s="0" t="n">
-        <v>93.26</v>
+        <v>96.81</v>
       </c>
       <c r="CG13" s="0" t="n">
-        <v>238.0</v>
+        <v>261.0</v>
       </c>
       <c r="CH13" s="0" t="n">
-        <v>220.0</v>
+        <v>231.0</v>
       </c>
       <c r="CI13" s="0" t="n">
-        <v>92.44</v>
+        <v>88.51</v>
       </c>
       <c r="CJ13" s="0" t="n">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="CK13" s="0" t="n">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="CL13" s="0" t="n">
-        <v>60.0</v>
+        <v>65.79</v>
       </c>
       <c r="CM13" s="0" t="n">
-        <v>54.0</v>
+        <v>111.0</v>
       </c>
       <c r="CN13" s="0" t="n">
-        <v>38.0</v>
+        <v>87.0</v>
       </c>
       <c r="CO13" s="0" t="n">
-        <v>70.37</v>
+        <v>78.38</v>
       </c>
       <c r="CP13" s="0" t="n">
-        <v>84.0</v>
+        <v>142.0</v>
       </c>
       <c r="CQ13" s="0" t="n">
-        <v>69.0</v>
+        <v>131.0</v>
       </c>
       <c r="CR13" s="0" t="n">
-        <v>82.14</v>
+        <v>92.25</v>
       </c>
       <c r="CS13" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="CT13" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="CU13" s="0" t="n">
         <v>100.0</v>
       </c>
       <c r="CV13" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CW13" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CX13" s="0" t="n">
+        <v>94.29</v>
+      </c>
+      <c r="CY13" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CZ13" s="0" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="DA13" s="0" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="DB13" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="DC13" s="0" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="DD13" s="0" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="DE13" s="0" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Dainava - Džiugas Telšiai 0:2</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Lithuania. A Lyga</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Dainava</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>5-3-2 (86.15%)</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>83.4</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>51.13</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AJ14" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL14" s="0" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="AM14" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN14" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO14" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AP14" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ14" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR14" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS14" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT14" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AW14" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AX14" s="0" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AY14" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AZ14" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BA14" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BB14" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BC14" s="0" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BD14" s="0" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BE14" s="0" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BF14" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BG14" s="0" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="BH14" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BI14" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BJ14" s="0" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BK14" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BL14" s="0" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="BM14" s="0" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BN14" s="0" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BO14" s="0" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="BP14" s="0" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BQ14" s="0" t="n">
         <v>23.0</v>
       </c>
-      <c r="CW13" s="0" t="n">
+      <c r="BR14" s="0" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="BS14" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BT14" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU14" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BV14" s="0" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BW14" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BX14" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BY14" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BZ14" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA14" s="0" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="CB14" s="0" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="CC14" s="0" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="CD14" s="0" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="CE14" s="0" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CF14" s="0" t="n">
+        <v>94.05</v>
+      </c>
+      <c r="CG14" s="0" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="CH14" s="0" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="CI14" s="0" t="n">
+        <v>89.77</v>
+      </c>
+      <c r="CJ14" s="0" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CK14" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CL14" s="0" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="CM14" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CN14" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CO14" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CP14" s="0" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="CQ14" s="0" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CR14" s="0" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="CS14" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CT14" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CU14" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CV14" s="0" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CW14" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CX14" s="0" t="n">
+        <v>89.29</v>
+      </c>
+      <c r="CY14" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ14" s="0" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="DA14" s="0" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="DB14" s="0" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="DC14" s="0" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="DD14" s="0" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="DE14" s="0" t="n">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Dainava - Džiugas Telšiai 0:2</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Lithuania. A Lyga</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Džiugas Telšiai</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>4-2-3-1 (100.0%)</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>82.76</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>45.11</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL15" s="0" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="AM15" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AN15" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO15" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AP15" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ15" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR15" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS15" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT15" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="0" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AW15" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AX15" s="0" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AY15" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AZ15" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BA15" s="0" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BB15" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BC15" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BD15" s="0" t="n">
         <v>19.0</v>
       </c>
-      <c r="CX13" s="0" t="n">
+      <c r="BE15" s="0" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BF15" s="0" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BG15" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BH15" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI15" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ15" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BK15" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BL15" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BM15" s="0" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BN15" s="0" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BO15" s="0" t="n">
+        <v>60.67</v>
+      </c>
+      <c r="BP15" s="0" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BQ15" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BR15" s="0" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="BS15" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BT15" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU15" s="0" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="BV15" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BW15" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BX15" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BY15" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ15" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA15" s="0" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="CB15" s="0" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="CC15" s="0" t="n">
+        <v>70.54</v>
+      </c>
+      <c r="CD15" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CE15" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CF15" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CG15" s="0" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="CH15" s="0" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="CI15" s="0" t="n">
+        <v>90.35</v>
+      </c>
+      <c r="CJ15" s="0" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CK15" s="0" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CL15" s="0" t="n">
+        <v>61.02</v>
+      </c>
+      <c r="CM15" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CN15" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CO15" s="0" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="CP15" s="0" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CQ15" s="0" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CR15" s="0" t="n">
+        <v>71.62</v>
+      </c>
+      <c r="CS15" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT15" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV15" s="0" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CW15" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CX15" s="0" t="n">
+        <v>88.24</v>
+      </c>
+      <c r="CY15" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CZ15" s="0" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="DA15" s="0" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="DB15" s="0" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="DC15" s="0" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="DD15" s="0" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="DE15" s="0" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Šiauliai - Dainava 2:2</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Lithuania. A Lyga</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Dainava</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>5-3-2 (100.0%)</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="0" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="AM16" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN16" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO16" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP16" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ16" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR16" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AS16" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT16" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AW16" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AX16" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AY16" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AZ16" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BA16" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB16" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC16" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BD16" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BE16" s="0" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BF16" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BG16" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BH16" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI16" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BJ16" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BK16" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BL16" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BM16" s="0" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="BN16" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BO16" s="0" t="n">
+        <v>60.24</v>
+      </c>
+      <c r="BP16" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BQ16" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BR16" s="0" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="BS16" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BT16" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU16" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BV16" s="0" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BW16" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BX16" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BY16" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BZ16" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA16" s="0" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="CB16" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CC16" s="0" t="n">
+        <v>59.83</v>
+      </c>
+      <c r="CD16" s="0" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="CE16" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="CF16" s="0" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="CG16" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CH16" s="0" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CI16" s="0" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CJ16" s="0" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CK16" s="0" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CL16" s="0" t="n">
+        <v>60.38</v>
+      </c>
+      <c r="CM16" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CN16" s="0" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CO16" s="0" t="n">
+        <v>51.43</v>
+      </c>
+      <c r="CP16" s="0" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CQ16" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CR16" s="0" t="n">
+        <v>53.23</v>
+      </c>
+      <c r="CS16" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT16" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU16" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CV16" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CW16" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CX16" s="0" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="CY16" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CZ16" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="DA16" s="0" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="DB16" s="0" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="DC16" s="0" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="DD16" s="0" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="DE16" s="0" t="n">
+        <v>16.15</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Šiauliai - Dainava 2:2</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Lithuania. A Lyga</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Šiauliai</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>4-4-2 (100.0%)</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>474.0</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>57.84</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AM17" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AN17" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO17" s="0" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="AP17" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ17" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR17" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AS17" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT17" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AW17" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AX17" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AY17" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AZ17" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BA17" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BB17" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BC17" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BD17" s="0" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BE17" s="0" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="BF17" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BG17" s="0" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="BH17" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BI17" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BJ17" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BK17" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BL17" s="0" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="BM17" s="0" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BN17" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BO17" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BP17" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BQ17" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BR17" s="0" t="n">
+        <v>61.22</v>
+      </c>
+      <c r="BS17" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT17" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU17" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV17" s="0" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BW17" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BX17" s="0" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BY17" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ17" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA17" s="0" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="CB17" s="0" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="CC17" s="0" t="n">
+        <v>72.51</v>
+      </c>
+      <c r="CD17" s="0" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CE17" s="0" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="CF17" s="0" t="n">
+        <v>92.75</v>
+      </c>
+      <c r="CG17" s="0" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="CH17" s="0" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="CI17" s="0" t="n">
+        <v>85.64</v>
+      </c>
+      <c r="CJ17" s="0" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CK17" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CL17" s="0" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="CM17" s="0" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CN17" s="0" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="CO17" s="0" t="n">
+        <v>68.92</v>
+      </c>
+      <c r="CP17" s="0" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="CQ17" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CR17" s="0" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="CS17" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CT17" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU17" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV17" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CW17" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CX17" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CY17" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CZ17" s="0" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="DA17" s="0" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="DB17" s="0" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="DC17" s="0" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="DD17" s="0" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="DE17" s="0" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Dainava - Kauno Žalgiris 1:3</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Lithuania. A Lyga</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Dainava</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>4-1-3-2 (100.0%)</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>80.86</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>44.75</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU18" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AV18" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AW18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX18" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AY18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA18" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BB18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC18" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD18" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE18" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BF18" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BG18" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BH18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI18" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BJ18" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BK18" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BL18" s="0" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="BM18" s="0" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BN18" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BO18" s="0" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="BP18" s="0" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BQ18" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR18" s="0" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="BS18" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BT18" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BU18" s="0" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BV18" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BW18" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BX18" s="0" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BY18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA18" s="0" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="CB18" s="0" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CC18" s="0" t="n">
+        <v>64.04</v>
+      </c>
+      <c r="CD18" s="0" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CE18" s="0" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="CF18" s="0" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="CG18" s="0" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="CH18" s="0" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="CI18" s="0" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="CJ18" s="0" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CK18" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="CL18" s="0" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="CM18" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CN18" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CO18" s="0" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="CP18" s="0" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CQ18" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="CR18" s="0" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="CS18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV18" s="0" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CW18" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CX18" s="0" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="CY18" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CZ18" s="0" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="DA18" s="0" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="DB18" s="0" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="DC18" s="0" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="DD18" s="0" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="DE18" s="0" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Dainava - Kauno Žalgiris 1:3</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Lithuania. A Lyga</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Kauno Žalgiris</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>4-2-3-1 (100.0%)</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>53.04</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL19" s="0" t="n">
+        <v>47.37</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO19" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AP19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR19" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AS19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU19" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AV19" s="0" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW19" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AX19" s="0" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="AY19" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AZ19" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BA19" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BB19" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BC19" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD19" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BE19" s="0" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BF19" s="0" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BG19" s="0" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="BH19" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BI19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ19" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BK19" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL19" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BM19" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BN19" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BO19" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BP19" s="0" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BQ19" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BR19" s="0" t="n">
+        <v>67.65</v>
+      </c>
+      <c r="BS19" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BT19" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU19" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BV19" s="0" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BW19" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BX19" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BY19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA19" s="0" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="CB19" s="0" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="CC19" s="0" t="n">
+        <v>75.76</v>
+      </c>
+      <c r="CD19" s="0" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="CE19" s="0" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="CF19" s="0" t="n">
+        <v>93.26</v>
+      </c>
+      <c r="CG19" s="0" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="CH19" s="0" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="CI19" s="0" t="n">
+        <v>92.44</v>
+      </c>
+      <c r="CJ19" s="0" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CK19" s="0" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CL19" s="0" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CM19" s="0" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CN19" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CO19" s="0" t="n">
+        <v>70.37</v>
+      </c>
+      <c r="CP19" s="0" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="CQ19" s="0" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CR19" s="0" t="n">
+        <v>82.14</v>
+      </c>
+      <c r="CS19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU19" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CV19" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CW19" s="0" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CX19" s="0" t="n">
         <v>82.61</v>
       </c>
-      <c r="CY13" s="0" t="n">
+      <c r="CY19" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="CZ13" s="0" t="n">
+      <c r="CZ19" s="0" t="n">
         <v>16.67</v>
       </c>
-      <c r="DA13" s="0" t="n">
+      <c r="DA19" s="0" t="n">
         <v>5.26</v>
       </c>
-      <c r="DB13" s="0" t="n">
+      <c r="DB19" s="0" t="n">
         <v>11.07</v>
       </c>
-      <c r="DC13" s="0" t="n">
+      <c r="DC19" s="0" t="n">
         <v>17.24</v>
       </c>
-      <c r="DD13" s="0" t="n">
+      <c r="DD19" s="0" t="n">
         <v>21.51</v>
       </c>
-      <c r="DE13" s="0" t="n">
+      <c r="DE19" s="0" t="n">
         <v>10.26</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="47">
+  <mergeCells count="59">
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="P1:S1"/>
@@ -4815,6 +6849,18 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/Data/Team Match Data/Team Stats Dainava.xlsx
+++ b/Data/Team Match Data/Team Stats Dainava.xlsx
@@ -69,7 +69,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DE19"/>
+  <dimension ref="A1:DE21"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -745,313 +745,313 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="str">
-        <f>AVERAGE(G4,G6,G8,G10,G12,G14,G16,G18)</f>
+        <f>AVERAGE(G4,G6,G8,G10,G12,G14,G16,G18,G20)</f>
       </c>
       <c r="H2" s="3" t="str">
-        <f>AVERAGE(H4,H6,H8,H10,H12,H14,H16,H18)</f>
+        <f>AVERAGE(H4,H6,H8,H10,H12,H14,H16,H18,H20)</f>
       </c>
       <c r="I2" s="3" t="str">
-        <f>AVERAGE(I4,I6,I8,I10,I12,I14,I16,I18)</f>
+        <f>AVERAGE(I4,I6,I8,I10,I12,I14,I16,I18,I20)</f>
       </c>
       <c r="J2" s="3" t="str">
-        <f>AVERAGE(J4,J6,J8,J10,J12,J14,J16,J18)</f>
+        <f>AVERAGE(J4,J6,J8,J10,J12,J14,J16,J18,J20)</f>
       </c>
       <c r="K2" s="3" t="str">
-        <f>IFERROR(SUM(J4,J6,J8,J10,J12,J14,J16,J18)/SUM(I4,I6,I8,I10,I12,I14,I16,I18)*100,0)</f>
+        <f>IFERROR(SUM(J4,J6,J8,J10,J12,J14,J16,J18,J20)/SUM(I4,I6,I8,I10,I12,I14,I16,I18,I20)*100,0)</f>
       </c>
       <c r="L2" s="3" t="str">
-        <f>AVERAGE(L4,L6,L8,L10,L12,L14,L16,L18)</f>
+        <f>AVERAGE(L4,L6,L8,L10,L12,L14,L16,L18,L20)</f>
       </c>
       <c r="M2" s="3" t="str">
-        <f>AVERAGE(M4,M6,M8,M10,M12,M14,M16,M18)</f>
+        <f>AVERAGE(M4,M6,M8,M10,M12,M14,M16,M18,M20)</f>
       </c>
       <c r="N2" s="3" t="str">
-        <f>IFERROR(SUM(M4,M6,M8,M10,M12,M14,M16,M18)/SUM(L4,L6,L8,L10,L12,L14,L16,L18)*100,0)</f>
+        <f>IFERROR(SUM(M4,M6,M8,M10,M12,M14,M16,M18,M20)/SUM(L4,L6,L8,L10,L12,L14,L16,L18,L20)*100,0)</f>
       </c>
       <c r="O2" s="3" t="str">
-        <f>AVERAGE(O4,O6,O8,O10,O12,O14,O16,O18)</f>
+        <f>AVERAGE(O4,O6,O8,O10,O12,O14,O16,O18,O20)</f>
       </c>
       <c r="P2" s="3" t="str">
-        <f>AVERAGE(P4,P6,P8,P10,P12,P14,P16,P18)</f>
+        <f>AVERAGE(P4,P6,P8,P10,P12,P14,P16,P18,P20)</f>
       </c>
       <c r="Q2" s="3" t="str">
-        <f>AVERAGE(Q4,Q6,Q8,Q10,Q12,Q14,Q16,Q18)</f>
+        <f>AVERAGE(Q4,Q6,Q8,Q10,Q12,Q14,Q16,Q18,Q20)</f>
       </c>
       <c r="R2" s="3" t="str">
-        <f>AVERAGE(R4,R6,R8,R10,R12,R14,R16,R18)</f>
+        <f>AVERAGE(R4,R6,R8,R10,R12,R14,R16,R18,R20)</f>
       </c>
       <c r="S2" s="3" t="str">
-        <f>AVERAGE(S4,S6,S8,S10,S12,S14,S16,S18)</f>
+        <f>AVERAGE(S4,S6,S8,S10,S12,S14,S16,S18,S20)</f>
       </c>
       <c r="T2" s="3" t="str">
-        <f>AVERAGE(T4,T6,T8,T10,T12,T14,T16,T18)</f>
+        <f>AVERAGE(T4,T6,T8,T10,T12,T14,T16,T18,T20)</f>
       </c>
       <c r="U2" s="3" t="str">
-        <f>AVERAGE(U4,U6,U8,U10,U12,U14,U16,U18)</f>
+        <f>AVERAGE(U4,U6,U8,U10,U12,U14,U16,U18,U20)</f>
       </c>
       <c r="V2" s="3" t="str">
-        <f>AVERAGE(V4,V6,V8,V10,V12,V14,V16,V18)</f>
+        <f>AVERAGE(V4,V6,V8,V10,V12,V14,V16,V18,V20)</f>
       </c>
       <c r="W2" s="3" t="str">
-        <f>AVERAGE(W4,W6,W8,W10,W12,W14,W16,W18)</f>
+        <f>AVERAGE(W4,W6,W8,W10,W12,W14,W16,W18,W20)</f>
       </c>
       <c r="X2" s="3" t="str">
-        <f>AVERAGE(X4,X6,X8,X10,X12,X14,X16,X18)</f>
+        <f>AVERAGE(X4,X6,X8,X10,X12,X14,X16,X18,X20)</f>
       </c>
       <c r="Y2" s="3" t="str">
-        <f>AVERAGE(Y4,Y6,Y8,Y10,Y12,Y14,Y16,Y18)</f>
+        <f>AVERAGE(Y4,Y6,Y8,Y10,Y12,Y14,Y16,Y18,Y20)</f>
       </c>
       <c r="Z2" s="3" t="str">
-        <f>IFERROR(SUM(Y4,Y6,Y8,Y10,Y12,Y14,Y16,Y18)/SUM(X4,X6,X8,X10,X12,X14,X16,X18)*100,0)</f>
+        <f>IFERROR(SUM(Y4,Y6,Y8,Y10,Y12,Y14,Y16,Y18,Y20)/SUM(X4,X6,X8,X10,X12,X14,X16,X18,X20)*100,0)</f>
       </c>
       <c r="AA2" s="3" t="str">
-        <f>AVERAGE(AA4,AA6,AA8,AA10,AA12,AA14,AA16,AA18)</f>
+        <f>AVERAGE(AA4,AA6,AA8,AA10,AA12,AA14,AA16,AA18,AA20)</f>
       </c>
       <c r="AB2" s="3" t="str">
-        <f>AVERAGE(AB4,AB6,AB8,AB10,AB12,AB14,AB16,AB18)</f>
+        <f>AVERAGE(AB4,AB6,AB8,AB10,AB12,AB14,AB16,AB18,AB20)</f>
       </c>
       <c r="AC2" s="3" t="str">
-        <f>IFERROR(SUM(AB4,AB6,AB8,AB10,AB12,AB14,AB16,AB18)/SUM(AA4,AA6,AA8,AA10,AA12,AA14,AA16,AA18)*100,0)</f>
+        <f>IFERROR(SUM(AB4,AB6,AB8,AB10,AB12,AB14,AB16,AB18,AB20)/SUM(AA4,AA6,AA8,AA10,AA12,AA14,AA16,AA18,AA20)*100,0)</f>
       </c>
       <c r="AD2" s="3" t="str">
-        <f>AVERAGE(AD4,AD6,AD8,AD10,AD12,AD14,AD16,AD18)</f>
+        <f>AVERAGE(AD4,AD6,AD8,AD10,AD12,AD14,AD16,AD18,AD20)</f>
       </c>
       <c r="AE2" s="3" t="str">
-        <f>AVERAGE(AE4,AE6,AE8,AE10,AE12,AE14,AE16,AE18)</f>
+        <f>AVERAGE(AE4,AE6,AE8,AE10,AE12,AE14,AE16,AE18,AE20)</f>
       </c>
       <c r="AF2" s="3" t="str">
-        <f>IFERROR(SUM(AE4,AE6,AE8,AE10,AE12,AE14,AE16,AE18)/SUM(AD4,AD6,AD8,AD10,AD12,AD14,AD16,AD18)*100,0)</f>
+        <f>IFERROR(SUM(AE4,AE6,AE8,AE10,AE12,AE14,AE16,AE18,AE20)/SUM(AD4,AD6,AD8,AD10,AD12,AD14,AD16,AD18,AD20)*100,0)</f>
       </c>
       <c r="AG2" s="3" t="str">
-        <f>AVERAGE(AG4,AG6,AG8,AG10,AG12,AG14,AG16,AG18)</f>
+        <f>AVERAGE(AG4,AG6,AG8,AG10,AG12,AG14,AG16,AG18,AG20)</f>
       </c>
       <c r="AH2" s="3" t="str">
-        <f>AVERAGE(AH4,AH6,AH8,AH10,AH12,AH14,AH16,AH18)</f>
+        <f>AVERAGE(AH4,AH6,AH8,AH10,AH12,AH14,AH16,AH18,AH20)</f>
       </c>
       <c r="AI2" s="3" t="str">
-        <f>IFERROR(SUM(AH4,AH6,AH8,AH10,AH12,AH14,AH16,AH18)/SUM(AG4,AG6,AG8,AG10,AG12,AG14,AG16,AG18)*100,0)</f>
+        <f>IFERROR(SUM(AH4,AH6,AH8,AH10,AH12,AH14,AH16,AH18,AH20)/SUM(AG4,AG6,AG8,AG10,AG12,AG14,AG16,AG18,AG20)*100,0)</f>
       </c>
       <c r="AJ2" s="3" t="str">
-        <f>AVERAGE(AJ4,AJ6,AJ8,AJ10,AJ12,AJ14,AJ16,AJ18)</f>
+        <f>AVERAGE(AJ4,AJ6,AJ8,AJ10,AJ12,AJ14,AJ16,AJ18,AJ20)</f>
       </c>
       <c r="AK2" s="3" t="str">
-        <f>AVERAGE(AK4,AK6,AK8,AK10,AK12,AK14,AK16,AK18)</f>
+        <f>AVERAGE(AK4,AK6,AK8,AK10,AK12,AK14,AK16,AK18,AK20)</f>
       </c>
       <c r="AL2" s="3" t="str">
-        <f>IFERROR(SUM(AK4,AK6,AK8,AK10,AK12,AK14,AK16,AK18)/SUM(AJ4,AJ6,AJ8,AJ10,AJ12,AJ14,AJ16,AJ18)*100,0)</f>
+        <f>IFERROR(SUM(AK4,AK6,AK8,AK10,AK12,AK14,AK16,AK18,AK20)/SUM(AJ4,AJ6,AJ8,AJ10,AJ12,AJ14,AJ16,AJ18,AJ20)*100,0)</f>
       </c>
       <c r="AM2" s="3" t="str">
-        <f>AVERAGE(AM4,AM6,AM8,AM10,AM12,AM14,AM16,AM18)</f>
+        <f>AVERAGE(AM4,AM6,AM8,AM10,AM12,AM14,AM16,AM18,AM20)</f>
       </c>
       <c r="AN2" s="3" t="str">
-        <f>AVERAGE(AN4,AN6,AN8,AN10,AN12,AN14,AN16,AN18)</f>
+        <f>AVERAGE(AN4,AN6,AN8,AN10,AN12,AN14,AN16,AN18,AN20)</f>
       </c>
       <c r="AO2" s="3" t="str">
-        <f>IFERROR(SUM(AN4,AN6,AN8,AN10,AN12,AN14,AN16,AN18)/SUM(AM4,AM6,AM8,AM10,AM12,AM14,AM16,AM18)*100,0)</f>
+        <f>IFERROR(SUM(AN4,AN6,AN8,AN10,AN12,AN14,AN16,AN18,AN20)/SUM(AM4,AM6,AM8,AM10,AM12,AM14,AM16,AM18,AM20)*100,0)</f>
       </c>
       <c r="AP2" s="3" t="str">
-        <f>AVERAGE(AP4,AP6,AP8,AP10,AP12,AP14,AP16,AP18)</f>
+        <f>AVERAGE(AP4,AP6,AP8,AP10,AP12,AP14,AP16,AP18,AP20)</f>
       </c>
       <c r="AQ2" s="3" t="str">
-        <f>AVERAGE(AQ4,AQ6,AQ8,AQ10,AQ12,AQ14,AQ16,AQ18)</f>
+        <f>AVERAGE(AQ4,AQ6,AQ8,AQ10,AQ12,AQ14,AQ16,AQ18,AQ20)</f>
       </c>
       <c r="AR2" s="3" t="str">
-        <f>IFERROR(SUM(AQ4,AQ6,AQ8,AQ10,AQ12,AQ14,AQ16,AQ18)/SUM(AP4,AP6,AP8,AP10,AP12,AP14,AP16,AP18)*100,0)</f>
+        <f>IFERROR(SUM(AQ4,AQ6,AQ8,AQ10,AQ12,AQ14,AQ16,AQ18,AQ20)/SUM(AP4,AP6,AP8,AP10,AP12,AP14,AP16,AP18,AP20)*100,0)</f>
       </c>
       <c r="AS2" s="3" t="str">
-        <f>AVERAGE(AS4,AS6,AS8,AS10,AS12,AS14,AS16,AS18)</f>
+        <f>AVERAGE(AS4,AS6,AS8,AS10,AS12,AS14,AS16,AS18,AS20)</f>
       </c>
       <c r="AT2" s="3" t="str">
-        <f>AVERAGE(AT4,AT6,AT8,AT10,AT12,AT14,AT16,AT18)</f>
+        <f>AVERAGE(AT4,AT6,AT8,AT10,AT12,AT14,AT16,AT18,AT20)</f>
       </c>
       <c r="AU2" s="3" t="str">
-        <f>IFERROR(SUM(AT4,AT6,AT8,AT10,AT12,AT14,AT16,AT18)/SUM(AS4,AS6,AS8,AS10,AS12,AS14,AS16,AS18)*100,0)</f>
+        <f>IFERROR(SUM(AT4,AT6,AT8,AT10,AT12,AT14,AT16,AT18,AT20)/SUM(AS4,AS6,AS8,AS10,AS12,AS14,AS16,AS18,AS20)*100,0)</f>
       </c>
       <c r="AV2" s="3" t="str">
-        <f>AVERAGE(AV4,AV6,AV8,AV10,AV12,AV14,AV16,AV18)</f>
+        <f>AVERAGE(AV4,AV6,AV8,AV10,AV12,AV14,AV16,AV18,AV20)</f>
       </c>
       <c r="AW2" s="3" t="str">
-        <f>AVERAGE(AW4,AW6,AW8,AW10,AW12,AW14,AW16,AW18)</f>
+        <f>AVERAGE(AW4,AW6,AW8,AW10,AW12,AW14,AW16,AW18,AW20)</f>
       </c>
       <c r="AX2" s="3" t="str">
-        <f>IFERROR(SUM(AW4,AW6,AW8,AW10,AW12,AW14,AW16,AW18)/SUM(AV4,AV6,AV8,AV10,AV12,AV14,AV16,AV18)*100,0)</f>
+        <f>IFERROR(SUM(AW4,AW6,AW8,AW10,AW12,AW14,AW16,AW18,AW20)/SUM(AV4,AV6,AV8,AV10,AV12,AV14,AV16,AV18,AV20)*100,0)</f>
       </c>
       <c r="AY2" s="3" t="str">
-        <f>AVERAGE(AY4,AY6,AY8,AY10,AY12,AY14,AY16,AY18)</f>
+        <f>AVERAGE(AY4,AY6,AY8,AY10,AY12,AY14,AY16,AY18,AY20)</f>
       </c>
       <c r="AZ2" s="3" t="str">
-        <f>AVERAGE(AZ4,AZ6,AZ8,AZ10,AZ12,AZ14,AZ16,AZ18)</f>
+        <f>AVERAGE(AZ4,AZ6,AZ8,AZ10,AZ12,AZ14,AZ16,AZ18,AZ20)</f>
       </c>
       <c r="BA2" s="3" t="str">
-        <f>AVERAGE(BA4,BA6,BA8,BA10,BA12,BA14,BA16,BA18)</f>
+        <f>AVERAGE(BA4,BA6,BA8,BA10,BA12,BA14,BA16,BA18,BA20)</f>
       </c>
       <c r="BB2" s="3" t="str">
-        <f>AVERAGE(BB4,BB6,BB8,BB10,BB12,BB14,BB16,BB18)</f>
+        <f>AVERAGE(BB4,BB6,BB8,BB10,BB12,BB14,BB16,BB18,BB20)</f>
       </c>
       <c r="BC2" s="3" t="str">
-        <f>AVERAGE(BC4,BC6,BC8,BC10,BC12,BC14,BC16,BC18)</f>
+        <f>AVERAGE(BC4,BC6,BC8,BC10,BC12,BC14,BC16,BC18,BC20)</f>
       </c>
       <c r="BD2" s="3" t="str">
-        <f>AVERAGE(BD4,BD6,BD8,BD10,BD12,BD14,BD16,BD18)</f>
+        <f>AVERAGE(BD4,BD6,BD8,BD10,BD12,BD14,BD16,BD18,BD20)</f>
       </c>
       <c r="BE2" s="3" t="str">
-        <f>AVERAGE(BE4,BE6,BE8,BE10,BE12,BE14,BE16,BE18)</f>
+        <f>AVERAGE(BE4,BE6,BE8,BE10,BE12,BE14,BE16,BE18,BE20)</f>
       </c>
       <c r="BF2" s="3" t="str">
-        <f>AVERAGE(BF4,BF6,BF8,BF10,BF12,BF14,BF16,BF18)</f>
+        <f>AVERAGE(BF4,BF6,BF8,BF10,BF12,BF14,BF16,BF18,BF20)</f>
       </c>
       <c r="BG2" s="3" t="str">
-        <f>IFERROR(SUM(BF4,BF6,BF8,BF10,BF12,BF14,BF16,BF18)/SUM(BE4,BE6,BE8,BE10,BE12,BE14,BE16,BE18)*100,0)</f>
+        <f>IFERROR(SUM(BF4,BF6,BF8,BF10,BF12,BF14,BF16,BF18,BF20)/SUM(BE4,BE6,BE8,BE10,BE12,BE14,BE16,BE18,BE20)*100,0)</f>
       </c>
       <c r="BH2" s="3" t="str">
-        <f>AVERAGE(BH4,BH6,BH8,BH10,BH12,BH14,BH16,BH18)</f>
+        <f>AVERAGE(BH4,BH6,BH8,BH10,BH12,BH14,BH16,BH18,BH20)</f>
       </c>
       <c r="BI2" s="3" t="str">
-        <f>AVERAGE(BI4,BI6,BI8,BI10,BI12,BI14,BI16,BI18)</f>
+        <f>AVERAGE(BI4,BI6,BI8,BI10,BI12,BI14,BI16,BI18,BI20)</f>
       </c>
       <c r="BJ2" s="3" t="str">
-        <f>AVERAGE(BJ4,BJ6,BJ8,BJ10,BJ12,BJ14,BJ16,BJ18)</f>
+        <f>AVERAGE(BJ4,BJ6,BJ8,BJ10,BJ12,BJ14,BJ16,BJ18,BJ20)</f>
       </c>
       <c r="BK2" s="3" t="str">
-        <f>AVERAGE(BK4,BK6,BK8,BK10,BK12,BK14,BK16,BK18)</f>
+        <f>AVERAGE(BK4,BK6,BK8,BK10,BK12,BK14,BK16,BK18,BK20)</f>
       </c>
       <c r="BL2" s="3" t="str">
-        <f>IFERROR(SUM(BK4,BK6,BK8,BK10,BK12,BK14,BK16,BK18)/SUM(BJ4,BJ6,BJ8,BJ10,BJ12,BJ14,BJ16,BJ18)*100,0)</f>
+        <f>IFERROR(SUM(BK4,BK6,BK8,BK10,BK12,BK14,BK16,BK18,BK20)/SUM(BJ4,BJ6,BJ8,BJ10,BJ12,BJ14,BJ16,BJ18,BJ20)*100,0)</f>
       </c>
       <c r="BM2" s="3" t="str">
-        <f>AVERAGE(BM4,BM6,BM8,BM10,BM12,BM14,BM16,BM18)</f>
+        <f>AVERAGE(BM4,BM6,BM8,BM10,BM12,BM14,BM16,BM18,BM20)</f>
       </c>
       <c r="BN2" s="3" t="str">
-        <f>AVERAGE(BN4,BN6,BN8,BN10,BN12,BN14,BN16,BN18)</f>
+        <f>AVERAGE(BN4,BN6,BN8,BN10,BN12,BN14,BN16,BN18,BN20)</f>
       </c>
       <c r="BO2" s="3" t="str">
-        <f>IFERROR(SUM(BN4,BN6,BN8,BN10,BN12,BN14,BN16,BN18)/SUM(BM4,BM6,BM8,BM10,BM12,BM14,BM16,BM18)*100,0)</f>
+        <f>IFERROR(SUM(BN4,BN6,BN8,BN10,BN12,BN14,BN16,BN18,BN20)/SUM(BM4,BM6,BM8,BM10,BM12,BM14,BM16,BM18,BM20)*100,0)</f>
       </c>
       <c r="BP2" s="3" t="str">
-        <f>AVERAGE(BP4,BP6,BP8,BP10,BP12,BP14,BP16,BP18)</f>
+        <f>AVERAGE(BP4,BP6,BP8,BP10,BP12,BP14,BP16,BP18,BP20)</f>
       </c>
       <c r="BQ2" s="3" t="str">
-        <f>AVERAGE(BQ4,BQ6,BQ8,BQ10,BQ12,BQ14,BQ16,BQ18)</f>
+        <f>AVERAGE(BQ4,BQ6,BQ8,BQ10,BQ12,BQ14,BQ16,BQ18,BQ20)</f>
       </c>
       <c r="BR2" s="3" t="str">
-        <f>IFERROR(SUM(BQ4,BQ6,BQ8,BQ10,BQ12,BQ14,BQ16,BQ18)/SUM(BP4,BP6,BP8,BP10,BP12,BP14,BP16,BP18)*100,0)</f>
+        <f>IFERROR(SUM(BQ4,BQ6,BQ8,BQ10,BQ12,BQ14,BQ16,BQ18,BQ20)/SUM(BP4,BP6,BP8,BP10,BP12,BP14,BP16,BP18,BP20)*100,0)</f>
       </c>
       <c r="BS2" s="3" t="str">
-        <f>AVERAGE(BS4,BS6,BS8,BS10,BS12,BS14,BS16,BS18)</f>
+        <f>AVERAGE(BS4,BS6,BS8,BS10,BS12,BS14,BS16,BS18,BS20)</f>
       </c>
       <c r="BT2" s="3" t="str">
-        <f>AVERAGE(BT4,BT6,BT8,BT10,BT12,BT14,BT16,BT18)</f>
+        <f>AVERAGE(BT4,BT6,BT8,BT10,BT12,BT14,BT16,BT18,BT20)</f>
       </c>
       <c r="BU2" s="3" t="str">
-        <f>IFERROR(SUM(BT4,BT6,BT8,BT10,BT12,BT14,BT16,BT18)/SUM(BS4,BS6,BS8,BS10,BS12,BS14,BS16,BS18)*100,0)</f>
+        <f>IFERROR(SUM(BT4,BT6,BT8,BT10,BT12,BT14,BT16,BT18,BT20)/SUM(BS4,BS6,BS8,BS10,BS12,BS14,BS16,BS18,BS20)*100,0)</f>
       </c>
       <c r="BV2" s="3" t="str">
-        <f>AVERAGE(BV4,BV6,BV8,BV10,BV12,BV14,BV16,BV18)</f>
+        <f>AVERAGE(BV4,BV6,BV8,BV10,BV12,BV14,BV16,BV18,BV20)</f>
       </c>
       <c r="BW2" s="3" t="str">
-        <f>AVERAGE(BW4,BW6,BW8,BW10,BW12,BW14,BW16,BW18)</f>
+        <f>AVERAGE(BW4,BW6,BW8,BW10,BW12,BW14,BW16,BW18,BW20)</f>
       </c>
       <c r="BX2" s="3" t="str">
-        <f>AVERAGE(BX4,BX6,BX8,BX10,BX12,BX14,BX16,BX18)</f>
+        <f>AVERAGE(BX4,BX6,BX8,BX10,BX12,BX14,BX16,BX18,BX20)</f>
       </c>
       <c r="BY2" s="3" t="str">
-        <f>AVERAGE(BY4,BY6,BY8,BY10,BY12,BY14,BY16,BY18)</f>
+        <f>AVERAGE(BY4,BY6,BY8,BY10,BY12,BY14,BY16,BY18,BY20)</f>
       </c>
       <c r="BZ2" s="3" t="str">
-        <f>AVERAGE(BZ4,BZ6,BZ8,BZ10,BZ12,BZ14,BZ16,BZ18)</f>
+        <f>AVERAGE(BZ4,BZ6,BZ8,BZ10,BZ12,BZ14,BZ16,BZ18,BZ20)</f>
       </c>
       <c r="CA2" s="3" t="str">
-        <f>AVERAGE(CA4,CA6,CA8,CA10,CA12,CA14,CA16,CA18)</f>
+        <f>AVERAGE(CA4,CA6,CA8,CA10,CA12,CA14,CA16,CA18,CA20)</f>
       </c>
       <c r="CB2" s="3" t="str">
-        <f>AVERAGE(CB4,CB6,CB8,CB10,CB12,CB14,CB16,CB18)</f>
+        <f>AVERAGE(CB4,CB6,CB8,CB10,CB12,CB14,CB16,CB18,CB20)</f>
       </c>
       <c r="CC2" s="3" t="str">
-        <f>IFERROR(SUM(CB4,CB6,CB8,CB10,CB12,CB14,CB16,CB18)/SUM(CA4,CA6,CA8,CA10,CA12,CA14,CA16,CA18)*100,0)</f>
+        <f>IFERROR(SUM(CB4,CB6,CB8,CB10,CB12,CB14,CB16,CB18,CB20)/SUM(CA4,CA6,CA8,CA10,CA12,CA14,CA16,CA18,CA20)*100,0)</f>
       </c>
       <c r="CD2" s="3" t="str">
-        <f>AVERAGE(CD4,CD6,CD8,CD10,CD12,CD14,CD16,CD18)</f>
+        <f>AVERAGE(CD4,CD6,CD8,CD10,CD12,CD14,CD16,CD18,CD20)</f>
       </c>
       <c r="CE2" s="3" t="str">
-        <f>AVERAGE(CE4,CE6,CE8,CE10,CE12,CE14,CE16,CE18)</f>
+        <f>AVERAGE(CE4,CE6,CE8,CE10,CE12,CE14,CE16,CE18,CE20)</f>
       </c>
       <c r="CF2" s="3" t="str">
-        <f>IFERROR(SUM(CE4,CE6,CE8,CE10,CE12,CE14,CE16,CE18)/SUM(CD4,CD6,CD8,CD10,CD12,CD14,CD16,CD18)*100,0)</f>
+        <f>IFERROR(SUM(CE4,CE6,CE8,CE10,CE12,CE14,CE16,CE18,CE20)/SUM(CD4,CD6,CD8,CD10,CD12,CD14,CD16,CD18,CD20)*100,0)</f>
       </c>
       <c r="CG2" s="3" t="str">
-        <f>AVERAGE(CG4,CG6,CG8,CG10,CG12,CG14,CG16,CG18)</f>
+        <f>AVERAGE(CG4,CG6,CG8,CG10,CG12,CG14,CG16,CG18,CG20)</f>
       </c>
       <c r="CH2" s="3" t="str">
-        <f>AVERAGE(CH4,CH6,CH8,CH10,CH12,CH14,CH16,CH18)</f>
+        <f>AVERAGE(CH4,CH6,CH8,CH10,CH12,CH14,CH16,CH18,CH20)</f>
       </c>
       <c r="CI2" s="3" t="str">
-        <f>IFERROR(SUM(CH4,CH6,CH8,CH10,CH12,CH14,CH16,CH18)/SUM(CG4,CG6,CG8,CG10,CG12,CG14,CG16,CG18)*100,0)</f>
+        <f>IFERROR(SUM(CH4,CH6,CH8,CH10,CH12,CH14,CH16,CH18,CH20)/SUM(CG4,CG6,CG8,CG10,CG12,CG14,CG16,CG18,CG20)*100,0)</f>
       </c>
       <c r="CJ2" s="3" t="str">
-        <f>AVERAGE(CJ4,CJ6,CJ8,CJ10,CJ12,CJ14,CJ16,CJ18)</f>
+        <f>AVERAGE(CJ4,CJ6,CJ8,CJ10,CJ12,CJ14,CJ16,CJ18,CJ20)</f>
       </c>
       <c r="CK2" s="3" t="str">
-        <f>AVERAGE(CK4,CK6,CK8,CK10,CK12,CK14,CK16,CK18)</f>
+        <f>AVERAGE(CK4,CK6,CK8,CK10,CK12,CK14,CK16,CK18,CK20)</f>
       </c>
       <c r="CL2" s="3" t="str">
-        <f>IFERROR(SUM(CK4,CK6,CK8,CK10,CK12,CK14,CK16,CK18)/SUM(CJ4,CJ6,CJ8,CJ10,CJ12,CJ14,CJ16,CJ18)*100,0)</f>
+        <f>IFERROR(SUM(CK4,CK6,CK8,CK10,CK12,CK14,CK16,CK18,CK20)/SUM(CJ4,CJ6,CJ8,CJ10,CJ12,CJ14,CJ16,CJ18,CJ20)*100,0)</f>
       </c>
       <c r="CM2" s="3" t="str">
-        <f>AVERAGE(CM4,CM6,CM8,CM10,CM12,CM14,CM16,CM18)</f>
+        <f>AVERAGE(CM4,CM6,CM8,CM10,CM12,CM14,CM16,CM18,CM20)</f>
       </c>
       <c r="CN2" s="3" t="str">
-        <f>AVERAGE(CN4,CN6,CN8,CN10,CN12,CN14,CN16,CN18)</f>
+        <f>AVERAGE(CN4,CN6,CN8,CN10,CN12,CN14,CN16,CN18,CN20)</f>
       </c>
       <c r="CO2" s="3" t="str">
-        <f>IFERROR(SUM(CN4,CN6,CN8,CN10,CN12,CN14,CN16,CN18)/SUM(CM4,CM6,CM8,CM10,CM12,CM14,CM16,CM18)*100,0)</f>
+        <f>IFERROR(SUM(CN4,CN6,CN8,CN10,CN12,CN14,CN16,CN18,CN20)/SUM(CM4,CM6,CM8,CM10,CM12,CM14,CM16,CM18,CM20)*100,0)</f>
       </c>
       <c r="CP2" s="3" t="str">
-        <f>AVERAGE(CP4,CP6,CP8,CP10,CP12,CP14,CP16,CP18)</f>
+        <f>AVERAGE(CP4,CP6,CP8,CP10,CP12,CP14,CP16,CP18,CP20)</f>
       </c>
       <c r="CQ2" s="3" t="str">
-        <f>AVERAGE(CQ4,CQ6,CQ8,CQ10,CQ12,CQ14,CQ16,CQ18)</f>
+        <f>AVERAGE(CQ4,CQ6,CQ8,CQ10,CQ12,CQ14,CQ16,CQ18,CQ20)</f>
       </c>
       <c r="CR2" s="3" t="str">
-        <f>IFERROR(SUM(CQ4,CQ6,CQ8,CQ10,CQ12,CQ14,CQ16,CQ18)/SUM(CP4,CP6,CP8,CP10,CP12,CP14,CP16,CP18)*100,0)</f>
+        <f>IFERROR(SUM(CQ4,CQ6,CQ8,CQ10,CQ12,CQ14,CQ16,CQ18,CQ20)/SUM(CP4,CP6,CP8,CP10,CP12,CP14,CP16,CP18,CP20)*100,0)</f>
       </c>
       <c r="CS2" s="3" t="str">
-        <f>AVERAGE(CS4,CS6,CS8,CS10,CS12,CS14,CS16,CS18)</f>
+        <f>AVERAGE(CS4,CS6,CS8,CS10,CS12,CS14,CS16,CS18,CS20)</f>
       </c>
       <c r="CT2" s="3" t="str">
-        <f>AVERAGE(CT4,CT6,CT8,CT10,CT12,CT14,CT16,CT18)</f>
+        <f>AVERAGE(CT4,CT6,CT8,CT10,CT12,CT14,CT16,CT18,CT20)</f>
       </c>
       <c r="CU2" s="3" t="str">
-        <f>IFERROR(SUM(CT4,CT6,CT8,CT10,CT12,CT14,CT16,CT18)/SUM(CS4,CS6,CS8,CS10,CS12,CS14,CS16,CS18)*100,0)</f>
+        <f>IFERROR(SUM(CT4,CT6,CT8,CT10,CT12,CT14,CT16,CT18,CT20)/SUM(CS4,CS6,CS8,CS10,CS12,CS14,CS16,CS18,CS20)*100,0)</f>
       </c>
       <c r="CV2" s="3" t="str">
-        <f>AVERAGE(CV4,CV6,CV8,CV10,CV12,CV14,CV16,CV18)</f>
+        <f>AVERAGE(CV4,CV6,CV8,CV10,CV12,CV14,CV16,CV18,CV20)</f>
       </c>
       <c r="CW2" s="3" t="str">
-        <f>AVERAGE(CW4,CW6,CW8,CW10,CW12,CW14,CW16,CW18)</f>
+        <f>AVERAGE(CW4,CW6,CW8,CW10,CW12,CW14,CW16,CW18,CW20)</f>
       </c>
       <c r="CX2" s="3" t="str">
-        <f>IFERROR(SUM(CW4,CW6,CW8,CW10,CW12,CW14,CW16,CW18)/SUM(CV4,CV6,CV8,CV10,CV12,CV14,CV16,CV18)*100,0)</f>
+        <f>IFERROR(SUM(CW4,CW6,CW8,CW10,CW12,CW14,CW16,CW18,CW20)/SUM(CV4,CV6,CV8,CV10,CV12,CV14,CV16,CV18,CV20)*100,0)</f>
       </c>
       <c r="CY2" s="3" t="str">
-        <f>AVERAGE(CY4,CY6,CY8,CY10,CY12,CY14,CY16,CY18)</f>
+        <f>AVERAGE(CY4,CY6,CY8,CY10,CY12,CY14,CY16,CY18,CY20)</f>
       </c>
       <c r="CZ2" s="3" t="str">
-        <f>AVERAGE(CZ4,CZ6,CZ8,CZ10,CZ12,CZ14,CZ16,CZ18)</f>
+        <f>AVERAGE(CZ4,CZ6,CZ8,CZ10,CZ12,CZ14,CZ16,CZ18,CZ20)</f>
       </c>
       <c r="DA2" s="3" t="str">
-        <f>AVERAGE(DA4,DA6,DA8,DA10,DA12,DA14,DA16,DA18)</f>
+        <f>AVERAGE(DA4,DA6,DA8,DA10,DA12,DA14,DA16,DA18,DA20)</f>
       </c>
       <c r="DB2" s="3" t="str">
-        <f>AVERAGE(DB4,DB6,DB8,DB10,DB12,DB14,DB16,DB18)</f>
+        <f>AVERAGE(DB4,DB6,DB8,DB10,DB12,DB14,DB16,DB18,DB20)</f>
       </c>
       <c r="DC2" s="3" t="str">
-        <f>AVERAGE(DC4,DC6,DC8,DC10,DC12,DC14,DC16,DC18)</f>
+        <f>AVERAGE(DC4,DC6,DC8,DC10,DC12,DC14,DC16,DC18,DC20)</f>
       </c>
       <c r="DD2" s="3" t="str">
-        <f>AVERAGE(DD4,DD6,DD8,DD10,DD12,DD14,DD16,DD18)</f>
+        <f>AVERAGE(DD4,DD6,DD8,DD10,DD12,DD14,DD16,DD18,DD20)</f>
       </c>
       <c r="DE2" s="3" t="str">
-        <f>AVERAGE(DE4,DE6,DE8,DE10,DE12,DE14,DE16,DE18)</f>
+        <f>AVERAGE(DE4,DE6,DE8,DE10,DE12,DE14,DE16,DE18,DE20)</f>
       </c>
     </row>
     <row r="3">
@@ -1066,324 +1066,324 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="str">
-        <f>AVERAGE(G5,G7,G9,G11,G13,G15,G17,G19)</f>
+        <f>AVERAGE(G5,G7,G9,G11,G13,G15,G17,G19,G21)</f>
       </c>
       <c r="H3" s="3" t="str">
-        <f>AVERAGE(H5,H7,H9,H11,H13,H15,H17,H19)</f>
+        <f>AVERAGE(H5,H7,H9,H11,H13,H15,H17,H19,H21)</f>
       </c>
       <c r="I3" s="3" t="str">
-        <f>AVERAGE(I5,I7,I9,I11,I13,I15,I17,I19)</f>
+        <f>AVERAGE(I5,I7,I9,I11,I13,I15,I17,I19,I21)</f>
       </c>
       <c r="J3" s="3" t="str">
-        <f>AVERAGE(J5,J7,J9,J11,J13,J15,J17,J19)</f>
+        <f>AVERAGE(J5,J7,J9,J11,J13,J15,J17,J19,J21)</f>
       </c>
       <c r="K3" s="3" t="str">
-        <f>IFERROR(SUM(J5,J7,J9,J11,J13,J15,J17,J19)/SUM(I5,I7,I9,I11,I13,I15,I17,I19)*100,0)</f>
+        <f>IFERROR(SUM(J5,J7,J9,J11,J13,J15,J17,J19,J21)/SUM(I5,I7,I9,I11,I13,I15,I17,I19,I21)*100,0)</f>
       </c>
       <c r="L3" s="3" t="str">
-        <f>AVERAGE(L5,L7,L9,L11,L13,L15,L17,L19)</f>
+        <f>AVERAGE(L5,L7,L9,L11,L13,L15,L17,L19,L21)</f>
       </c>
       <c r="M3" s="3" t="str">
-        <f>AVERAGE(M5,M7,M9,M11,M13,M15,M17,M19)</f>
+        <f>AVERAGE(M5,M7,M9,M11,M13,M15,M17,M19,M21)</f>
       </c>
       <c r="N3" s="3" t="str">
-        <f>IFERROR(SUM(M5,M7,M9,M11,M13,M15,M17,M19)/SUM(L5,L7,L9,L11,L13,L15,L17,L19)*100,0)</f>
+        <f>IFERROR(SUM(M5,M7,M9,M11,M13,M15,M17,M19,M21)/SUM(L5,L7,L9,L11,L13,L15,L17,L19,L21)*100,0)</f>
       </c>
       <c r="O3" s="3" t="str">
-        <f>AVERAGE(O5,O7,O9,O11,O13,O15,O17,O19)</f>
+        <f>AVERAGE(O5,O7,O9,O11,O13,O15,O17,O19,O21)</f>
       </c>
       <c r="P3" s="3" t="str">
-        <f>AVERAGE(P5,P7,P9,P11,P13,P15,P17,P19)</f>
+        <f>AVERAGE(P5,P7,P9,P11,P13,P15,P17,P19,P21)</f>
       </c>
       <c r="Q3" s="3" t="str">
-        <f>AVERAGE(Q5,Q7,Q9,Q11,Q13,Q15,Q17,Q19)</f>
+        <f>AVERAGE(Q5,Q7,Q9,Q11,Q13,Q15,Q17,Q19,Q21)</f>
       </c>
       <c r="R3" s="3" t="str">
-        <f>AVERAGE(R5,R7,R9,R11,R13,R15,R17,R19)</f>
+        <f>AVERAGE(R5,R7,R9,R11,R13,R15,R17,R19,R21)</f>
       </c>
       <c r="S3" s="3" t="str">
-        <f>AVERAGE(S5,S7,S9,S11,S13,S15,S17,S19)</f>
+        <f>AVERAGE(S5,S7,S9,S11,S13,S15,S17,S19,S21)</f>
       </c>
       <c r="T3" s="3" t="str">
-        <f>AVERAGE(T5,T7,T9,T11,T13,T15,T17,T19)</f>
+        <f>AVERAGE(T5,T7,T9,T11,T13,T15,T17,T19,T21)</f>
       </c>
       <c r="U3" s="3" t="str">
-        <f>AVERAGE(U5,U7,U9,U11,U13,U15,U17,U19)</f>
+        <f>AVERAGE(U5,U7,U9,U11,U13,U15,U17,U19,U21)</f>
       </c>
       <c r="V3" s="3" t="str">
-        <f>AVERAGE(V5,V7,V9,V11,V13,V15,V17,V19)</f>
+        <f>AVERAGE(V5,V7,V9,V11,V13,V15,V17,V19,V21)</f>
       </c>
       <c r="W3" s="3" t="str">
-        <f>AVERAGE(W5,W7,W9,W11,W13,W15,W17,W19)</f>
+        <f>AVERAGE(W5,W7,W9,W11,W13,W15,W17,W19,W21)</f>
       </c>
       <c r="X3" s="3" t="str">
-        <f>AVERAGE(X5,X7,X9,X11,X13,X15,X17,X19)</f>
+        <f>AVERAGE(X5,X7,X9,X11,X13,X15,X17,X19,X21)</f>
       </c>
       <c r="Y3" s="3" t="str">
-        <f>AVERAGE(Y5,Y7,Y9,Y11,Y13,Y15,Y17,Y19)</f>
+        <f>AVERAGE(Y5,Y7,Y9,Y11,Y13,Y15,Y17,Y19,Y21)</f>
       </c>
       <c r="Z3" s="3" t="str">
-        <f>IFERROR(SUM(Y5,Y7,Y9,Y11,Y13,Y15,Y17,Y19)/SUM(X5,X7,X9,X11,X13,X15,X17,X19)*100,0)</f>
+        <f>IFERROR(SUM(Y5,Y7,Y9,Y11,Y13,Y15,Y17,Y19,Y21)/SUM(X5,X7,X9,X11,X13,X15,X17,X19,X21)*100,0)</f>
       </c>
       <c r="AA3" s="3" t="str">
-        <f>AVERAGE(AA5,AA7,AA9,AA11,AA13,AA15,AA17,AA19)</f>
+        <f>AVERAGE(AA5,AA7,AA9,AA11,AA13,AA15,AA17,AA19,AA21)</f>
       </c>
       <c r="AB3" s="3" t="str">
-        <f>AVERAGE(AB5,AB7,AB9,AB11,AB13,AB15,AB17,AB19)</f>
+        <f>AVERAGE(AB5,AB7,AB9,AB11,AB13,AB15,AB17,AB19,AB21)</f>
       </c>
       <c r="AC3" s="3" t="str">
-        <f>IFERROR(SUM(AB5,AB7,AB9,AB11,AB13,AB15,AB17,AB19)/SUM(AA5,AA7,AA9,AA11,AA13,AA15,AA17,AA19)*100,0)</f>
+        <f>IFERROR(SUM(AB5,AB7,AB9,AB11,AB13,AB15,AB17,AB19,AB21)/SUM(AA5,AA7,AA9,AA11,AA13,AA15,AA17,AA19,AA21)*100,0)</f>
       </c>
       <c r="AD3" s="3" t="str">
-        <f>AVERAGE(AD5,AD7,AD9,AD11,AD13,AD15,AD17,AD19)</f>
+        <f>AVERAGE(AD5,AD7,AD9,AD11,AD13,AD15,AD17,AD19,AD21)</f>
       </c>
       <c r="AE3" s="3" t="str">
-        <f>AVERAGE(AE5,AE7,AE9,AE11,AE13,AE15,AE17,AE19)</f>
+        <f>AVERAGE(AE5,AE7,AE9,AE11,AE13,AE15,AE17,AE19,AE21)</f>
       </c>
       <c r="AF3" s="3" t="str">
-        <f>IFERROR(SUM(AE5,AE7,AE9,AE11,AE13,AE15,AE17,AE19)/SUM(AD5,AD7,AD9,AD11,AD13,AD15,AD17,AD19)*100,0)</f>
+        <f>IFERROR(SUM(AE5,AE7,AE9,AE11,AE13,AE15,AE17,AE19,AE21)/SUM(AD5,AD7,AD9,AD11,AD13,AD15,AD17,AD19,AD21)*100,0)</f>
       </c>
       <c r="AG3" s="3" t="str">
-        <f>AVERAGE(AG5,AG7,AG9,AG11,AG13,AG15,AG17,AG19)</f>
+        <f>AVERAGE(AG5,AG7,AG9,AG11,AG13,AG15,AG17,AG19,AG21)</f>
       </c>
       <c r="AH3" s="3" t="str">
-        <f>AVERAGE(AH5,AH7,AH9,AH11,AH13,AH15,AH17,AH19)</f>
+        <f>AVERAGE(AH5,AH7,AH9,AH11,AH13,AH15,AH17,AH19,AH21)</f>
       </c>
       <c r="AI3" s="3" t="str">
-        <f>IFERROR(SUM(AH5,AH7,AH9,AH11,AH13,AH15,AH17,AH19)/SUM(AG5,AG7,AG9,AG11,AG13,AG15,AG17,AG19)*100,0)</f>
+        <f>IFERROR(SUM(AH5,AH7,AH9,AH11,AH13,AH15,AH17,AH19,AH21)/SUM(AG5,AG7,AG9,AG11,AG13,AG15,AG17,AG19,AG21)*100,0)</f>
       </c>
       <c r="AJ3" s="3" t="str">
-        <f>AVERAGE(AJ5,AJ7,AJ9,AJ11,AJ13,AJ15,AJ17,AJ19)</f>
+        <f>AVERAGE(AJ5,AJ7,AJ9,AJ11,AJ13,AJ15,AJ17,AJ19,AJ21)</f>
       </c>
       <c r="AK3" s="3" t="str">
-        <f>AVERAGE(AK5,AK7,AK9,AK11,AK13,AK15,AK17,AK19)</f>
+        <f>AVERAGE(AK5,AK7,AK9,AK11,AK13,AK15,AK17,AK19,AK21)</f>
       </c>
       <c r="AL3" s="3" t="str">
-        <f>IFERROR(SUM(AK5,AK7,AK9,AK11,AK13,AK15,AK17,AK19)/SUM(AJ5,AJ7,AJ9,AJ11,AJ13,AJ15,AJ17,AJ19)*100,0)</f>
+        <f>IFERROR(SUM(AK5,AK7,AK9,AK11,AK13,AK15,AK17,AK19,AK21)/SUM(AJ5,AJ7,AJ9,AJ11,AJ13,AJ15,AJ17,AJ19,AJ21)*100,0)</f>
       </c>
       <c r="AM3" s="3" t="str">
-        <f>AVERAGE(AM5,AM7,AM9,AM11,AM13,AM15,AM17,AM19)</f>
+        <f>AVERAGE(AM5,AM7,AM9,AM11,AM13,AM15,AM17,AM19,AM21)</f>
       </c>
       <c r="AN3" s="3" t="str">
-        <f>AVERAGE(AN5,AN7,AN9,AN11,AN13,AN15,AN17,AN19)</f>
+        <f>AVERAGE(AN5,AN7,AN9,AN11,AN13,AN15,AN17,AN19,AN21)</f>
       </c>
       <c r="AO3" s="3" t="str">
-        <f>IFERROR(SUM(AN5,AN7,AN9,AN11,AN13,AN15,AN17,AN19)/SUM(AM5,AM7,AM9,AM11,AM13,AM15,AM17,AM19)*100,0)</f>
+        <f>IFERROR(SUM(AN5,AN7,AN9,AN11,AN13,AN15,AN17,AN19,AN21)/SUM(AM5,AM7,AM9,AM11,AM13,AM15,AM17,AM19,AM21)*100,0)</f>
       </c>
       <c r="AP3" s="3" t="str">
-        <f>AVERAGE(AP5,AP7,AP9,AP11,AP13,AP15,AP17,AP19)</f>
+        <f>AVERAGE(AP5,AP7,AP9,AP11,AP13,AP15,AP17,AP19,AP21)</f>
       </c>
       <c r="AQ3" s="3" t="str">
-        <f>AVERAGE(AQ5,AQ7,AQ9,AQ11,AQ13,AQ15,AQ17,AQ19)</f>
+        <f>AVERAGE(AQ5,AQ7,AQ9,AQ11,AQ13,AQ15,AQ17,AQ19,AQ21)</f>
       </c>
       <c r="AR3" s="3" t="str">
-        <f>IFERROR(SUM(AQ5,AQ7,AQ9,AQ11,AQ13,AQ15,AQ17,AQ19)/SUM(AP5,AP7,AP9,AP11,AP13,AP15,AP17,AP19)*100,0)</f>
+        <f>IFERROR(SUM(AQ5,AQ7,AQ9,AQ11,AQ13,AQ15,AQ17,AQ19,AQ21)/SUM(AP5,AP7,AP9,AP11,AP13,AP15,AP17,AP19,AP21)*100,0)</f>
       </c>
       <c r="AS3" s="3" t="str">
-        <f>AVERAGE(AS5,AS7,AS9,AS11,AS13,AS15,AS17,AS19)</f>
+        <f>AVERAGE(AS5,AS7,AS9,AS11,AS13,AS15,AS17,AS19,AS21)</f>
       </c>
       <c r="AT3" s="3" t="str">
-        <f>AVERAGE(AT5,AT7,AT9,AT11,AT13,AT15,AT17,AT19)</f>
+        <f>AVERAGE(AT5,AT7,AT9,AT11,AT13,AT15,AT17,AT19,AT21)</f>
       </c>
       <c r="AU3" s="3" t="str">
-        <f>IFERROR(SUM(AT5,AT7,AT9,AT11,AT13,AT15,AT17,AT19)/SUM(AS5,AS7,AS9,AS11,AS13,AS15,AS17,AS19)*100,0)</f>
+        <f>IFERROR(SUM(AT5,AT7,AT9,AT11,AT13,AT15,AT17,AT19,AT21)/SUM(AS5,AS7,AS9,AS11,AS13,AS15,AS17,AS19,AS21)*100,0)</f>
       </c>
       <c r="AV3" s="3" t="str">
-        <f>AVERAGE(AV5,AV7,AV9,AV11,AV13,AV15,AV17,AV19)</f>
+        <f>AVERAGE(AV5,AV7,AV9,AV11,AV13,AV15,AV17,AV19,AV21)</f>
       </c>
       <c r="AW3" s="3" t="str">
-        <f>AVERAGE(AW5,AW7,AW9,AW11,AW13,AW15,AW17,AW19)</f>
+        <f>AVERAGE(AW5,AW7,AW9,AW11,AW13,AW15,AW17,AW19,AW21)</f>
       </c>
       <c r="AX3" s="3" t="str">
-        <f>IFERROR(SUM(AW5,AW7,AW9,AW11,AW13,AW15,AW17,AW19)/SUM(AV5,AV7,AV9,AV11,AV13,AV15,AV17,AV19)*100,0)</f>
+        <f>IFERROR(SUM(AW5,AW7,AW9,AW11,AW13,AW15,AW17,AW19,AW21)/SUM(AV5,AV7,AV9,AV11,AV13,AV15,AV17,AV19,AV21)*100,0)</f>
       </c>
       <c r="AY3" s="3" t="str">
-        <f>AVERAGE(AY5,AY7,AY9,AY11,AY13,AY15,AY17,AY19)</f>
+        <f>AVERAGE(AY5,AY7,AY9,AY11,AY13,AY15,AY17,AY19,AY21)</f>
       </c>
       <c r="AZ3" s="3" t="str">
-        <f>AVERAGE(AZ5,AZ7,AZ9,AZ11,AZ13,AZ15,AZ17,AZ19)</f>
+        <f>AVERAGE(AZ5,AZ7,AZ9,AZ11,AZ13,AZ15,AZ17,AZ19,AZ21)</f>
       </c>
       <c r="BA3" s="3" t="str">
-        <f>AVERAGE(BA5,BA7,BA9,BA11,BA13,BA15,BA17,BA19)</f>
+        <f>AVERAGE(BA5,BA7,BA9,BA11,BA13,BA15,BA17,BA19,BA21)</f>
       </c>
       <c r="BB3" s="3" t="str">
-        <f>AVERAGE(BB5,BB7,BB9,BB11,BB13,BB15,BB17,BB19)</f>
+        <f>AVERAGE(BB5,BB7,BB9,BB11,BB13,BB15,BB17,BB19,BB21)</f>
       </c>
       <c r="BC3" s="3" t="str">
-        <f>AVERAGE(BC5,BC7,BC9,BC11,BC13,BC15,BC17,BC19)</f>
+        <f>AVERAGE(BC5,BC7,BC9,BC11,BC13,BC15,BC17,BC19,BC21)</f>
       </c>
       <c r="BD3" s="3" t="str">
-        <f>AVERAGE(BD5,BD7,BD9,BD11,BD13,BD15,BD17,BD19)</f>
+        <f>AVERAGE(BD5,BD7,BD9,BD11,BD13,BD15,BD17,BD19,BD21)</f>
       </c>
       <c r="BE3" s="3" t="str">
-        <f>AVERAGE(BE5,BE7,BE9,BE11,BE13,BE15,BE17,BE19)</f>
+        <f>AVERAGE(BE5,BE7,BE9,BE11,BE13,BE15,BE17,BE19,BE21)</f>
       </c>
       <c r="BF3" s="3" t="str">
-        <f>AVERAGE(BF5,BF7,BF9,BF11,BF13,BF15,BF17,BF19)</f>
+        <f>AVERAGE(BF5,BF7,BF9,BF11,BF13,BF15,BF17,BF19,BF21)</f>
       </c>
       <c r="BG3" s="3" t="str">
-        <f>IFERROR(SUM(BF5,BF7,BF9,BF11,BF13,BF15,BF17,BF19)/SUM(BE5,BE7,BE9,BE11,BE13,BE15,BE17,BE19)*100,0)</f>
+        <f>IFERROR(SUM(BF5,BF7,BF9,BF11,BF13,BF15,BF17,BF19,BF21)/SUM(BE5,BE7,BE9,BE11,BE13,BE15,BE17,BE19,BE21)*100,0)</f>
       </c>
       <c r="BH3" s="3" t="str">
-        <f>AVERAGE(BH5,BH7,BH9,BH11,BH13,BH15,BH17,BH19)</f>
+        <f>AVERAGE(BH5,BH7,BH9,BH11,BH13,BH15,BH17,BH19,BH21)</f>
       </c>
       <c r="BI3" s="3" t="str">
-        <f>AVERAGE(BI5,BI7,BI9,BI11,BI13,BI15,BI17,BI19)</f>
+        <f>AVERAGE(BI5,BI7,BI9,BI11,BI13,BI15,BI17,BI19,BI21)</f>
       </c>
       <c r="BJ3" s="3" t="str">
-        <f>AVERAGE(BJ5,BJ7,BJ9,BJ11,BJ13,BJ15,BJ17,BJ19)</f>
+        <f>AVERAGE(BJ5,BJ7,BJ9,BJ11,BJ13,BJ15,BJ17,BJ19,BJ21)</f>
       </c>
       <c r="BK3" s="3" t="str">
-        <f>AVERAGE(BK5,BK7,BK9,BK11,BK13,BK15,BK17,BK19)</f>
+        <f>AVERAGE(BK5,BK7,BK9,BK11,BK13,BK15,BK17,BK19,BK21)</f>
       </c>
       <c r="BL3" s="3" t="str">
-        <f>IFERROR(SUM(BK5,BK7,BK9,BK11,BK13,BK15,BK17,BK19)/SUM(BJ5,BJ7,BJ9,BJ11,BJ13,BJ15,BJ17,BJ19)*100,0)</f>
+        <f>IFERROR(SUM(BK5,BK7,BK9,BK11,BK13,BK15,BK17,BK19,BK21)/SUM(BJ5,BJ7,BJ9,BJ11,BJ13,BJ15,BJ17,BJ19,BJ21)*100,0)</f>
       </c>
       <c r="BM3" s="3" t="str">
-        <f>AVERAGE(BM5,BM7,BM9,BM11,BM13,BM15,BM17,BM19)</f>
+        <f>AVERAGE(BM5,BM7,BM9,BM11,BM13,BM15,BM17,BM19,BM21)</f>
       </c>
       <c r="BN3" s="3" t="str">
-        <f>AVERAGE(BN5,BN7,BN9,BN11,BN13,BN15,BN17,BN19)</f>
+        <f>AVERAGE(BN5,BN7,BN9,BN11,BN13,BN15,BN17,BN19,BN21)</f>
       </c>
       <c r="BO3" s="3" t="str">
-        <f>IFERROR(SUM(BN5,BN7,BN9,BN11,BN13,BN15,BN17,BN19)/SUM(BM5,BM7,BM9,BM11,BM13,BM15,BM17,BM19)*100,0)</f>
+        <f>IFERROR(SUM(BN5,BN7,BN9,BN11,BN13,BN15,BN17,BN19,BN21)/SUM(BM5,BM7,BM9,BM11,BM13,BM15,BM17,BM19,BM21)*100,0)</f>
       </c>
       <c r="BP3" s="3" t="str">
-        <f>AVERAGE(BP5,BP7,BP9,BP11,BP13,BP15,BP17,BP19)</f>
+        <f>AVERAGE(BP5,BP7,BP9,BP11,BP13,BP15,BP17,BP19,BP21)</f>
       </c>
       <c r="BQ3" s="3" t="str">
-        <f>AVERAGE(BQ5,BQ7,BQ9,BQ11,BQ13,BQ15,BQ17,BQ19)</f>
+        <f>AVERAGE(BQ5,BQ7,BQ9,BQ11,BQ13,BQ15,BQ17,BQ19,BQ21)</f>
       </c>
       <c r="BR3" s="3" t="str">
-        <f>IFERROR(SUM(BQ5,BQ7,BQ9,BQ11,BQ13,BQ15,BQ17,BQ19)/SUM(BP5,BP7,BP9,BP11,BP13,BP15,BP17,BP19)*100,0)</f>
+        <f>IFERROR(SUM(BQ5,BQ7,BQ9,BQ11,BQ13,BQ15,BQ17,BQ19,BQ21)/SUM(BP5,BP7,BP9,BP11,BP13,BP15,BP17,BP19,BP21)*100,0)</f>
       </c>
       <c r="BS3" s="3" t="str">
-        <f>AVERAGE(BS5,BS7,BS9,BS11,BS13,BS15,BS17,BS19)</f>
+        <f>AVERAGE(BS5,BS7,BS9,BS11,BS13,BS15,BS17,BS19,BS21)</f>
       </c>
       <c r="BT3" s="3" t="str">
-        <f>AVERAGE(BT5,BT7,BT9,BT11,BT13,BT15,BT17,BT19)</f>
+        <f>AVERAGE(BT5,BT7,BT9,BT11,BT13,BT15,BT17,BT19,BT21)</f>
       </c>
       <c r="BU3" s="3" t="str">
-        <f>IFERROR(SUM(BT5,BT7,BT9,BT11,BT13,BT15,BT17,BT19)/SUM(BS5,BS7,BS9,BS11,BS13,BS15,BS17,BS19)*100,0)</f>
+        <f>IFERROR(SUM(BT5,BT7,BT9,BT11,BT13,BT15,BT17,BT19,BT21)/SUM(BS5,BS7,BS9,BS11,BS13,BS15,BS17,BS19,BS21)*100,0)</f>
       </c>
       <c r="BV3" s="3" t="str">
-        <f>AVERAGE(BV5,BV7,BV9,BV11,BV13,BV15,BV17,BV19)</f>
+        <f>AVERAGE(BV5,BV7,BV9,BV11,BV13,BV15,BV17,BV19,BV21)</f>
       </c>
       <c r="BW3" s="3" t="str">
-        <f>AVERAGE(BW5,BW7,BW9,BW11,BW13,BW15,BW17,BW19)</f>
+        <f>AVERAGE(BW5,BW7,BW9,BW11,BW13,BW15,BW17,BW19,BW21)</f>
       </c>
       <c r="BX3" s="3" t="str">
-        <f>AVERAGE(BX5,BX7,BX9,BX11,BX13,BX15,BX17,BX19)</f>
+        <f>AVERAGE(BX5,BX7,BX9,BX11,BX13,BX15,BX17,BX19,BX21)</f>
       </c>
       <c r="BY3" s="3" t="str">
-        <f>AVERAGE(BY5,BY7,BY9,BY11,BY13,BY15,BY17,BY19)</f>
+        <f>AVERAGE(BY5,BY7,BY9,BY11,BY13,BY15,BY17,BY19,BY21)</f>
       </c>
       <c r="BZ3" s="3" t="str">
-        <f>AVERAGE(BZ5,BZ7,BZ9,BZ11,BZ13,BZ15,BZ17,BZ19)</f>
+        <f>AVERAGE(BZ5,BZ7,BZ9,BZ11,BZ13,BZ15,BZ17,BZ19,BZ21)</f>
       </c>
       <c r="CA3" s="3" t="str">
-        <f>AVERAGE(CA5,CA7,CA9,CA11,CA13,CA15,CA17,CA19)</f>
+        <f>AVERAGE(CA5,CA7,CA9,CA11,CA13,CA15,CA17,CA19,CA21)</f>
       </c>
       <c r="CB3" s="3" t="str">
-        <f>AVERAGE(CB5,CB7,CB9,CB11,CB13,CB15,CB17,CB19)</f>
+        <f>AVERAGE(CB5,CB7,CB9,CB11,CB13,CB15,CB17,CB19,CB21)</f>
       </c>
       <c r="CC3" s="3" t="str">
-        <f>IFERROR(SUM(CB5,CB7,CB9,CB11,CB13,CB15,CB17,CB19)/SUM(CA5,CA7,CA9,CA11,CA13,CA15,CA17,CA19)*100,0)</f>
+        <f>IFERROR(SUM(CB5,CB7,CB9,CB11,CB13,CB15,CB17,CB19,CB21)/SUM(CA5,CA7,CA9,CA11,CA13,CA15,CA17,CA19,CA21)*100,0)</f>
       </c>
       <c r="CD3" s="3" t="str">
-        <f>AVERAGE(CD5,CD7,CD9,CD11,CD13,CD15,CD17,CD19)</f>
+        <f>AVERAGE(CD5,CD7,CD9,CD11,CD13,CD15,CD17,CD19,CD21)</f>
       </c>
       <c r="CE3" s="3" t="str">
-        <f>AVERAGE(CE5,CE7,CE9,CE11,CE13,CE15,CE17,CE19)</f>
+        <f>AVERAGE(CE5,CE7,CE9,CE11,CE13,CE15,CE17,CE19,CE21)</f>
       </c>
       <c r="CF3" s="3" t="str">
-        <f>IFERROR(SUM(CE5,CE7,CE9,CE11,CE13,CE15,CE17,CE19)/SUM(CD5,CD7,CD9,CD11,CD13,CD15,CD17,CD19)*100,0)</f>
+        <f>IFERROR(SUM(CE5,CE7,CE9,CE11,CE13,CE15,CE17,CE19,CE21)/SUM(CD5,CD7,CD9,CD11,CD13,CD15,CD17,CD19,CD21)*100,0)</f>
       </c>
       <c r="CG3" s="3" t="str">
-        <f>AVERAGE(CG5,CG7,CG9,CG11,CG13,CG15,CG17,CG19)</f>
+        <f>AVERAGE(CG5,CG7,CG9,CG11,CG13,CG15,CG17,CG19,CG21)</f>
       </c>
       <c r="CH3" s="3" t="str">
-        <f>AVERAGE(CH5,CH7,CH9,CH11,CH13,CH15,CH17,CH19)</f>
+        <f>AVERAGE(CH5,CH7,CH9,CH11,CH13,CH15,CH17,CH19,CH21)</f>
       </c>
       <c r="CI3" s="3" t="str">
-        <f>IFERROR(SUM(CH5,CH7,CH9,CH11,CH13,CH15,CH17,CH19)/SUM(CG5,CG7,CG9,CG11,CG13,CG15,CG17,CG19)*100,0)</f>
+        <f>IFERROR(SUM(CH5,CH7,CH9,CH11,CH13,CH15,CH17,CH19,CH21)/SUM(CG5,CG7,CG9,CG11,CG13,CG15,CG17,CG19,CG21)*100,0)</f>
       </c>
       <c r="CJ3" s="3" t="str">
-        <f>AVERAGE(CJ5,CJ7,CJ9,CJ11,CJ13,CJ15,CJ17,CJ19)</f>
+        <f>AVERAGE(CJ5,CJ7,CJ9,CJ11,CJ13,CJ15,CJ17,CJ19,CJ21)</f>
       </c>
       <c r="CK3" s="3" t="str">
-        <f>AVERAGE(CK5,CK7,CK9,CK11,CK13,CK15,CK17,CK19)</f>
+        <f>AVERAGE(CK5,CK7,CK9,CK11,CK13,CK15,CK17,CK19,CK21)</f>
       </c>
       <c r="CL3" s="3" t="str">
-        <f>IFERROR(SUM(CK5,CK7,CK9,CK11,CK13,CK15,CK17,CK19)/SUM(CJ5,CJ7,CJ9,CJ11,CJ13,CJ15,CJ17,CJ19)*100,0)</f>
+        <f>IFERROR(SUM(CK5,CK7,CK9,CK11,CK13,CK15,CK17,CK19,CK21)/SUM(CJ5,CJ7,CJ9,CJ11,CJ13,CJ15,CJ17,CJ19,CJ21)*100,0)</f>
       </c>
       <c r="CM3" s="3" t="str">
-        <f>AVERAGE(CM5,CM7,CM9,CM11,CM13,CM15,CM17,CM19)</f>
+        <f>AVERAGE(CM5,CM7,CM9,CM11,CM13,CM15,CM17,CM19,CM21)</f>
       </c>
       <c r="CN3" s="3" t="str">
-        <f>AVERAGE(CN5,CN7,CN9,CN11,CN13,CN15,CN17,CN19)</f>
+        <f>AVERAGE(CN5,CN7,CN9,CN11,CN13,CN15,CN17,CN19,CN21)</f>
       </c>
       <c r="CO3" s="3" t="str">
-        <f>IFERROR(SUM(CN5,CN7,CN9,CN11,CN13,CN15,CN17,CN19)/SUM(CM5,CM7,CM9,CM11,CM13,CM15,CM17,CM19)*100,0)</f>
+        <f>IFERROR(SUM(CN5,CN7,CN9,CN11,CN13,CN15,CN17,CN19,CN21)/SUM(CM5,CM7,CM9,CM11,CM13,CM15,CM17,CM19,CM21)*100,0)</f>
       </c>
       <c r="CP3" s="3" t="str">
-        <f>AVERAGE(CP5,CP7,CP9,CP11,CP13,CP15,CP17,CP19)</f>
+        <f>AVERAGE(CP5,CP7,CP9,CP11,CP13,CP15,CP17,CP19,CP21)</f>
       </c>
       <c r="CQ3" s="3" t="str">
-        <f>AVERAGE(CQ5,CQ7,CQ9,CQ11,CQ13,CQ15,CQ17,CQ19)</f>
+        <f>AVERAGE(CQ5,CQ7,CQ9,CQ11,CQ13,CQ15,CQ17,CQ19,CQ21)</f>
       </c>
       <c r="CR3" s="3" t="str">
-        <f>IFERROR(SUM(CQ5,CQ7,CQ9,CQ11,CQ13,CQ15,CQ17,CQ19)/SUM(CP5,CP7,CP9,CP11,CP13,CP15,CP17,CP19)*100,0)</f>
+        <f>IFERROR(SUM(CQ5,CQ7,CQ9,CQ11,CQ13,CQ15,CQ17,CQ19,CQ21)/SUM(CP5,CP7,CP9,CP11,CP13,CP15,CP17,CP19,CP21)*100,0)</f>
       </c>
       <c r="CS3" s="3" t="str">
-        <f>AVERAGE(CS5,CS7,CS9,CS11,CS13,CS15,CS17,CS19)</f>
+        <f>AVERAGE(CS5,CS7,CS9,CS11,CS13,CS15,CS17,CS19,CS21)</f>
       </c>
       <c r="CT3" s="3" t="str">
-        <f>AVERAGE(CT5,CT7,CT9,CT11,CT13,CT15,CT17,CT19)</f>
+        <f>AVERAGE(CT5,CT7,CT9,CT11,CT13,CT15,CT17,CT19,CT21)</f>
       </c>
       <c r="CU3" s="3" t="str">
-        <f>IFERROR(SUM(CT5,CT7,CT9,CT11,CT13,CT15,CT17,CT19)/SUM(CS5,CS7,CS9,CS11,CS13,CS15,CS17,CS19)*100,0)</f>
+        <f>IFERROR(SUM(CT5,CT7,CT9,CT11,CT13,CT15,CT17,CT19,CT21)/SUM(CS5,CS7,CS9,CS11,CS13,CS15,CS17,CS19,CS21)*100,0)</f>
       </c>
       <c r="CV3" s="3" t="str">
-        <f>AVERAGE(CV5,CV7,CV9,CV11,CV13,CV15,CV17,CV19)</f>
+        <f>AVERAGE(CV5,CV7,CV9,CV11,CV13,CV15,CV17,CV19,CV21)</f>
       </c>
       <c r="CW3" s="3" t="str">
-        <f>AVERAGE(CW5,CW7,CW9,CW11,CW13,CW15,CW17,CW19)</f>
+        <f>AVERAGE(CW5,CW7,CW9,CW11,CW13,CW15,CW17,CW19,CW21)</f>
       </c>
       <c r="CX3" s="3" t="str">
-        <f>IFERROR(SUM(CW5,CW7,CW9,CW11,CW13,CW15,CW17,CW19)/SUM(CV5,CV7,CV9,CV11,CV13,CV15,CV17,CV19)*100,0)</f>
+        <f>IFERROR(SUM(CW5,CW7,CW9,CW11,CW13,CW15,CW17,CW19,CW21)/SUM(CV5,CV7,CV9,CV11,CV13,CV15,CV17,CV19,CV21)*100,0)</f>
       </c>
       <c r="CY3" s="3" t="str">
-        <f>AVERAGE(CY5,CY7,CY9,CY11,CY13,CY15,CY17,CY19)</f>
+        <f>AVERAGE(CY5,CY7,CY9,CY11,CY13,CY15,CY17,CY19,CY21)</f>
       </c>
       <c r="CZ3" s="3" t="str">
-        <f>AVERAGE(CZ5,CZ7,CZ9,CZ11,CZ13,CZ15,CZ17,CZ19)</f>
+        <f>AVERAGE(CZ5,CZ7,CZ9,CZ11,CZ13,CZ15,CZ17,CZ19,CZ21)</f>
       </c>
       <c r="DA3" s="3" t="str">
-        <f>AVERAGE(DA5,DA7,DA9,DA11,DA13,DA15,DA17,DA19)</f>
+        <f>AVERAGE(DA5,DA7,DA9,DA11,DA13,DA15,DA17,DA19,DA21)</f>
       </c>
       <c r="DB3" s="3" t="str">
-        <f>AVERAGE(DB5,DB7,DB9,DB11,DB13,DB15,DB17,DB19)</f>
+        <f>AVERAGE(DB5,DB7,DB9,DB11,DB13,DB15,DB17,DB19,DB21)</f>
       </c>
       <c r="DC3" s="3" t="str">
-        <f>AVERAGE(DC5,DC7,DC9,DC11,DC13,DC15,DC17,DC19)</f>
+        <f>AVERAGE(DC5,DC7,DC9,DC11,DC13,DC15,DC17,DC19,DC21)</f>
       </c>
       <c r="DD3" s="3" t="str">
-        <f>AVERAGE(DD5,DD7,DD9,DD11,DD13,DD15,DD17,DD19)</f>
+        <f>AVERAGE(DD5,DD7,DD9,DD11,DD13,DD15,DD17,DD19,DD21)</f>
       </c>
       <c r="DE3" s="3" t="str">
-        <f>AVERAGE(DE5,DE7,DE9,DE11,DE13,DE15,DE17,DE19)</f>
+        <f>AVERAGE(DE5,DE7,DE9,DE11,DE13,DE15,DE17,DE19,DE21)</f>
       </c>
     </row>
     <row ht="12" customHeight="true" r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Banga - Dainava 2:1</t>
+          <t>Dainava - Riteriai 1:1</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
@@ -1401,116 +1401,116 @@
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>4-2-3-1 (97.41%)</t>
+          <t>4-1-3-2 (100.0%)</t>
         </is>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>26.67</v>
+        <v>16.67</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>440.0</v>
+        <v>420.0</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>351.0</v>
+        <v>306.0</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>79.77</v>
+        <v>72.86</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>50.01</v>
+        <v>44.76</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>131.0</v>
+        <v>178.0</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="R4" s="0" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="U4" s="0" t="n">
         <v>45.0</v>
       </c>
-      <c r="S4" s="0" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>43.0</v>
-      </c>
       <c r="V4" s="0" t="n">
-        <v>46.0</v>
+        <v>50.0</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>274.0</v>
+        <v>236.0</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>130.0</v>
+        <v>94.0</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>47.45</v>
+        <v>39.83</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB4" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>11.11</v>
+        <v>16.67</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>32.35</v>
+        <v>29.03</v>
       </c>
       <c r="AG4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AH4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="0" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="AJ4" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AK4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL4" s="0" t="n">
-        <v>13.64</v>
+        <v>11.11</v>
       </c>
       <c r="AM4" s="0" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AN4" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AO4" s="0" t="n">
-        <v>42.86</v>
+        <v>100.0</v>
       </c>
       <c r="AP4" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AQ4" s="0" t="n">
         <v>0.0</v>
@@ -1528,91 +1528,91 @@
         <v>0</v>
       </c>
       <c r="AV4" s="0" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AW4" s="0" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="AX4" s="0" t="n">
-        <v>33.33</v>
+        <v>53.85</v>
       </c>
       <c r="AY4" s="0" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="AZ4" s="0" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="BA4" s="0" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="BB4" s="0" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC4" s="0" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="BD4" s="0" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="BE4" s="0" t="n">
-        <v>75.0</v>
+        <v>68.0</v>
       </c>
       <c r="BF4" s="0" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="BG4" s="0" t="n">
-        <v>26.67</v>
+        <v>23.53</v>
       </c>
       <c r="BH4" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="BI4" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ4" s="0" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="BK4" s="0" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL4" s="0" t="n">
-        <v>33.33</v>
+        <v>14.29</v>
       </c>
       <c r="BM4" s="0" t="n">
         <v>78.0</v>
       </c>
       <c r="BN4" s="0" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
       <c r="BO4" s="0" t="n">
-        <v>62.82</v>
+        <v>60.26</v>
       </c>
       <c r="BP4" s="0" t="n">
         <v>70.0</v>
       </c>
       <c r="BQ4" s="0" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="BR4" s="0" t="n">
-        <v>58.57</v>
+        <v>35.71</v>
       </c>
       <c r="BS4" s="0" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="BT4" s="0" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="BU4" s="0" t="n">
-        <v>100.0</v>
+        <v>62.5</v>
       </c>
       <c r="BV4" s="0" t="n">
-        <v>33.0</v>
+        <v>54.0</v>
       </c>
       <c r="BW4" s="0" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="BX4" s="0" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="BY4" s="0" t="n">
         <v>3.0</v>
@@ -1621,58 +1621,58 @@
         <v>0.0</v>
       </c>
       <c r="CA4" s="0" t="n">
-        <v>155.0</v>
+        <v>167.0</v>
       </c>
       <c r="CB4" s="0" t="n">
-        <v>108.0</v>
+        <v>96.0</v>
       </c>
       <c r="CC4" s="0" t="n">
-        <v>69.68</v>
+        <v>57.49</v>
       </c>
       <c r="CD4" s="0" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="CE4" s="0" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CF4" s="0" t="n">
+        <v>90.79</v>
+      </c>
+      <c r="CG4" s="0" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="CH4" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CI4" s="0" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="CJ4" s="0" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="CK4" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="CL4" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CM4" s="0" t="n">
         <v>68.0</v>
       </c>
-      <c r="CE4" s="0" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="CF4" s="0" t="n">
-        <v>94.12</v>
-      </c>
-      <c r="CG4" s="0" t="n">
-        <v>155.0</v>
-      </c>
-      <c r="CH4" s="0" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="CI4" s="0" t="n">
-        <v>87.74</v>
-      </c>
-      <c r="CJ4" s="0" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="CK4" s="0" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="CL4" s="0" t="n">
-        <v>57.35</v>
-      </c>
-      <c r="CM4" s="0" t="n">
-        <v>61.0</v>
-      </c>
       <c r="CN4" s="0" t="n">
-        <v>41.0</v>
+        <v>32.0</v>
       </c>
       <c r="CO4" s="0" t="n">
-        <v>67.21</v>
+        <v>47.06</v>
       </c>
       <c r="CP4" s="0" t="n">
-        <v>85.0</v>
+        <v>83.0</v>
       </c>
       <c r="CQ4" s="0" t="n">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
       <c r="CR4" s="0" t="n">
-        <v>70.59</v>
+        <v>71.08</v>
       </c>
       <c r="CS4" s="0" t="n">
         <v>1.0</v>
@@ -1684,45 +1684,45 @@
         <v>0.0</v>
       </c>
       <c r="CV4" s="0" t="n">
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
       <c r="CW4" s="0" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="CX4" s="0" t="n">
-        <v>78.26</v>
+        <v>70.97</v>
       </c>
       <c r="CY4" s="0" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="CZ4" s="0" t="n">
-        <v>17.48</v>
+        <v>17.55</v>
       </c>
       <c r="DA4" s="0" t="n">
-        <v>3.86</v>
+        <v>3.39</v>
       </c>
       <c r="DB4" s="0" t="n">
-        <v>15.45</v>
+        <v>20.0</v>
       </c>
       <c r="DC4" s="0" t="n">
-        <v>21.61</v>
+        <v>19.39</v>
       </c>
       <c r="DD4" s="0" t="n">
-        <v>19.86</v>
+        <v>21.62</v>
       </c>
       <c r="DE4" s="0" t="n">
-        <v>6.5</v>
+        <v>9.3</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Banga - Dainava 2:1</t>
+          <t>Dainava - Riteriai 1:1</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -1731,95 +1731,95 @@
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>4-4-2 (100.0%)</t>
+          <t>4-2-3-1 (49.42%)</t>
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.97</v>
+        <v>0.26</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K5" s="0" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>75.97</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>55.24</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC5" s="0" t="n">
         <v>33.33</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>325.0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>257.0</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>79.08</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>49.99</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>274.0</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>43.43</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC5" s="0" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AD5" s="0" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>30.0</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" s="0" t="n">
         <v>0</v>
@@ -1831,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="AL5" s="0" t="n">
-        <v>12.5</v>
+        <v>13.64</v>
       </c>
       <c r="AM5" s="0" t="n">
         <v>0.0</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="AP5" s="0" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="AQ5" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="AR5" s="0" t="n">
-        <v>100.0</v>
+        <v>16.67</v>
       </c>
       <c r="AS5" s="0" t="n">
         <v>0.0</v>
@@ -1867,40 +1867,40 @@
         <v>0</v>
       </c>
       <c r="AV5" s="0" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AW5" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX5" s="0" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="AY5" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AZ5" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BA5" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB5" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC5" s="0" t="n">
         <v>11.0</v>
       </c>
-      <c r="AW5" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AX5" s="0" t="n">
-        <v>36.36</v>
-      </c>
-      <c r="AY5" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AZ5" s="0" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BA5" s="0" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="BB5" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BC5" s="0" t="n">
-        <v>6.0</v>
-      </c>
       <c r="BD5" s="0" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="BE5" s="0" t="n">
         <v>78.0</v>
       </c>
       <c r="BF5" s="0" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="BG5" s="0" t="n">
-        <v>37.18</v>
+        <v>39.74</v>
       </c>
       <c r="BH5" s="0" t="n">
         <v>0.0</v>
@@ -1909,31 +1909,31 @@
         <v>1.0</v>
       </c>
       <c r="BJ5" s="0" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="BK5" s="0" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="BL5" s="0" t="n">
-        <v>26.67</v>
+        <v>16.67</v>
       </c>
       <c r="BM5" s="0" t="n">
-        <v>75.0</v>
+        <v>68.0</v>
       </c>
       <c r="BN5" s="0" t="n">
-        <v>55.0</v>
+        <v>52.0</v>
       </c>
       <c r="BO5" s="0" t="n">
-        <v>73.33</v>
+        <v>76.47</v>
       </c>
       <c r="BP5" s="0" t="n">
         <v>70.0</v>
       </c>
       <c r="BQ5" s="0" t="n">
-        <v>18.0</v>
+        <v>37.0</v>
       </c>
       <c r="BR5" s="0" t="n">
-        <v>25.71</v>
+        <v>52.86</v>
       </c>
       <c r="BS5" s="0" t="n">
         <v>2.0</v>
@@ -1945,10 +1945,10 @@
         <v>100.0</v>
       </c>
       <c r="BV5" s="0" t="n">
-        <v>54.0</v>
+        <v>52.0</v>
       </c>
       <c r="BW5" s="0" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="BX5" s="0" t="n">
         <v>9.0</v>
@@ -1960,108 +1960,108 @@
         <v>0.0</v>
       </c>
       <c r="CA5" s="0" t="n">
-        <v>139.0</v>
+        <v>198.0</v>
       </c>
       <c r="CB5" s="0" t="n">
-        <v>96.0</v>
+        <v>126.0</v>
       </c>
       <c r="CC5" s="0" t="n">
-        <v>69.06</v>
+        <v>63.64</v>
       </c>
       <c r="CD5" s="0" t="n">
-        <v>48.0</v>
+        <v>70.0</v>
       </c>
       <c r="CE5" s="0" t="n">
-        <v>44.0</v>
+        <v>63.0</v>
       </c>
       <c r="CF5" s="0" t="n">
-        <v>91.67</v>
+        <v>90.0</v>
       </c>
       <c r="CG5" s="0" t="n">
-        <v>97.0</v>
+        <v>158.0</v>
       </c>
       <c r="CH5" s="0" t="n">
-        <v>88.0</v>
+        <v>137.0</v>
       </c>
       <c r="CI5" s="0" t="n">
-        <v>90.72</v>
+        <v>86.71</v>
       </c>
       <c r="CJ5" s="0" t="n">
-        <v>63.0</v>
+        <v>82.0</v>
       </c>
       <c r="CK5" s="0" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="CL5" s="0" t="n">
-        <v>68.25</v>
+        <v>50.0</v>
       </c>
       <c r="CM5" s="0" t="n">
-        <v>38.0</v>
+        <v>67.0</v>
       </c>
       <c r="CN5" s="0" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="CO5" s="0" t="n">
-        <v>68.42</v>
+        <v>47.76</v>
       </c>
       <c r="CP5" s="0" t="n">
-        <v>69.0</v>
+        <v>107.0</v>
       </c>
       <c r="CQ5" s="0" t="n">
-        <v>50.0</v>
+        <v>66.0</v>
       </c>
       <c r="CR5" s="0" t="n">
-        <v>72.46</v>
+        <v>61.68</v>
       </c>
       <c r="CS5" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CT5" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU5" s="0" t="n">
-        <v>100.0</v>
+        <v>0</v>
       </c>
       <c r="CV5" s="0" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="CW5" s="0" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="CX5" s="0" t="n">
-        <v>78.57</v>
+        <v>83.33</v>
       </c>
       <c r="CY5" s="0" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="CZ5" s="0" t="n">
-        <v>12.92</v>
+        <v>15.78</v>
       </c>
       <c r="DA5" s="0" t="n">
-        <v>2.95</v>
+        <v>3.56</v>
       </c>
       <c r="DB5" s="0" t="n">
-        <v>19.38</v>
+        <v>17.6</v>
       </c>
       <c r="DC5" s="0" t="n">
-        <v>17.92</v>
+        <v>18.24</v>
       </c>
       <c r="DD5" s="0" t="n">
-        <v>20.64</v>
+        <v>21.51</v>
       </c>
       <c r="DE5" s="0" t="n">
-        <v>10.9</v>
+        <v>10.13</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Panevėžys 1:3</t>
+          <t>Banga - Dainava 2:1</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
@@ -2079,328 +2079,328 @@
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>4-4-2 (100.0%)</t>
+          <t>4-2-3-1 (97.41%)</t>
         </is>
       </c>
       <c r="G6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="I6" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>50.01</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>47.45</v>
+      </c>
+      <c r="AA6" s="0" t="n">
         <v>9.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN6" s="0" t="n">
         <v>3.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AP6" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AW6" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AX6" s="0" t="n">
         <v>33.33</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>435.0</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>344.0</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>79.08</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>53.49</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>221.0</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>54.75</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC6" s="0" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="AD6" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AG6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AJ6" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL6" s="0" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AY6" s="0" t="n">
         <v>4.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AO6" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AP6" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AQ6" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR6" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS6" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AT6" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AU6" s="0" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="AV6" s="0" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="AW6" s="0" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AX6" s="0" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="AY6" s="0" t="n">
-        <v>5.0</v>
-      </c>
       <c r="AZ6" s="0" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="BA6" s="0" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="BB6" s="0" t="n">
         <v>5.0</v>
       </c>
       <c r="BC6" s="0" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="BD6" s="0" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="BE6" s="0" t="n">
-        <v>67.0</v>
+        <v>75.0</v>
       </c>
       <c r="BF6" s="0" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="BG6" s="0" t="n">
-        <v>35.82</v>
+        <v>26.67</v>
       </c>
       <c r="BH6" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI6" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BJ6" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BK6" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BL6" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BM6" s="0" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BN6" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BO6" s="0" t="n">
+        <v>62.82</v>
+      </c>
+      <c r="BP6" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BQ6" s="0" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BR6" s="0" t="n">
+        <v>58.57</v>
+      </c>
+      <c r="BS6" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT6" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU6" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BV6" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BW6" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BX6" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BY6" s="0" t="n">
         <v>3.0</v>
       </c>
-      <c r="BI6" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BJ6" s="0" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="BK6" s="0" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="BL6" s="0" t="n">
-        <v>36.84</v>
-      </c>
-      <c r="BM6" s="0" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="BN6" s="0" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="BO6" s="0" t="n">
-        <v>65.82</v>
-      </c>
-      <c r="BP6" s="0" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="BQ6" s="0" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="BR6" s="0" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="BS6" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BT6" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BU6" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="BV6" s="0" t="n">
+      <c r="BZ6" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA6" s="0" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="CB6" s="0" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="CC6" s="0" t="n">
+        <v>69.68</v>
+      </c>
+      <c r="CD6" s="0" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="CE6" s="0" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="CF6" s="0" t="n">
+        <v>94.12</v>
+      </c>
+      <c r="CG6" s="0" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="CH6" s="0" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="CI6" s="0" t="n">
+        <v>87.74</v>
+      </c>
+      <c r="CJ6" s="0" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="CK6" s="0" t="n">
         <v>39.0</v>
       </c>
-      <c r="BW6" s="0" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="BX6" s="0" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="BY6" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BZ6" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA6" s="0" t="n">
-        <v>165.0</v>
-      </c>
-      <c r="CB6" s="0" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="CC6" s="0" t="n">
-        <v>66.06</v>
-      </c>
-      <c r="CD6" s="0" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="CE6" s="0" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="CF6" s="0" t="n">
-        <v>91.95</v>
-      </c>
-      <c r="CG6" s="0" t="n">
-        <v>159.0</v>
-      </c>
-      <c r="CH6" s="0" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="CI6" s="0" t="n">
-        <v>88.68</v>
-      </c>
-      <c r="CJ6" s="0" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="CK6" s="0" t="n">
-        <v>33.0</v>
-      </c>
       <c r="CL6" s="0" t="n">
-        <v>53.23</v>
+        <v>57.35</v>
       </c>
       <c r="CM6" s="0" t="n">
         <v>61.0</v>
       </c>
       <c r="CN6" s="0" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="CO6" s="0" t="n">
-        <v>60.66</v>
+        <v>67.21</v>
       </c>
       <c r="CP6" s="0" t="n">
-        <v>89.0</v>
+        <v>85.0</v>
       </c>
       <c r="CQ6" s="0" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="CR6" s="0" t="n">
-        <v>65.17</v>
+        <v>70.59</v>
       </c>
       <c r="CS6" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="CT6" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU6" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="CV6" s="0" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="CW6" s="0" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="CX6" s="0" t="n">
-        <v>80.0</v>
+        <v>78.26</v>
       </c>
       <c r="CY6" s="0" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="CZ6" s="0" t="n">
-        <v>15.9</v>
+        <v>17.48</v>
       </c>
       <c r="DA6" s="0" t="n">
-        <v>3.22</v>
+        <v>3.86</v>
       </c>
       <c r="DB6" s="0" t="n">
-        <v>14.25</v>
+        <v>15.45</v>
       </c>
       <c r="DC6" s="0" t="n">
-        <v>18.65</v>
+        <v>21.61</v>
       </c>
       <c r="DD6" s="0" t="n">
-        <v>22.55</v>
+        <v>19.86</v>
       </c>
       <c r="DE6" s="0" t="n">
-        <v>11.09</v>
+        <v>6.5</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Panevėžys 1:3</t>
+          <t>Banga - Dainava 2:1</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -2409,122 +2409,122 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>Panevėžys</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>4-4-1-1 (100.0%)</t>
+          <t>4-4-2 (100.0%)</t>
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2.22</v>
+        <v>0.97</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>36.84</v>
+        <v>33.33</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>390.0</v>
+        <v>325.0</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>306.0</v>
+        <v>257.0</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>78.46</v>
+        <v>79.08</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>46.51</v>
+        <v>49.99</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>130.0</v>
+        <v>129.0</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>48.0</v>
+        <v>54.0</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>57.0</v>
+        <v>53.0</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>84.0</v>
+        <v>97.0</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>221.0</v>
+        <v>274.0</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>90.0</v>
+        <v>119.0</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>40.72</v>
+        <v>43.43</v>
       </c>
       <c r="AA7" s="0" t="n">
         <v>6.0</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>33.33</v>
+        <v>0.0</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>31.71</v>
+        <v>30.0</v>
       </c>
       <c r="AG7" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="0" t="n">
-        <v>100.0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="0" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AK7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="AL7" s="0" t="n">
-        <v>11.11</v>
+        <v>12.5</v>
       </c>
       <c r="AM7" s="0" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN7" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="AO7" s="0" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="0" t="n">
         <v>1.0</v>
@@ -2554,192 +2554,192 @@
         <v>36.36</v>
       </c>
       <c r="AY7" s="0" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="AZ7" s="0" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="BA7" s="0" t="n">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="BB7" s="0" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="BC7" s="0" t="n">
         <v>6.0</v>
       </c>
       <c r="BD7" s="0" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="BE7" s="0" t="n">
-        <v>79.0</v>
+        <v>78.0</v>
       </c>
       <c r="BF7" s="0" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="BG7" s="0" t="n">
-        <v>34.18</v>
+        <v>37.18</v>
       </c>
       <c r="BH7" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI7" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ7" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BK7" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BL7" s="0" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="BM7" s="0" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BN7" s="0" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BO7" s="0" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="BP7" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BQ7" s="0" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BR7" s="0" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="BS7" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="BI7" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BJ7" s="0" t="n">
+      <c r="BT7" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU7" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BV7" s="0" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BW7" s="0" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BX7" s="0" t="n">
         <v>9.0</v>
       </c>
-      <c r="BK7" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BL7" s="0" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="BM7" s="0" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="BN7" s="0" t="n">
+      <c r="BY7" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ7" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA7" s="0" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="CB7" s="0" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="CC7" s="0" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="CD7" s="0" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="CE7" s="0" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="CF7" s="0" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="CG7" s="0" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="CH7" s="0" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="CI7" s="0" t="n">
+        <v>90.72</v>
+      </c>
+      <c r="CJ7" s="0" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="CK7" s="0" t="n">
         <v>43.0</v>
       </c>
-      <c r="BO7" s="0" t="n">
-        <v>64.18</v>
-      </c>
-      <c r="BP7" s="0" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="BQ7" s="0" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BR7" s="0" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="BS7" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BT7" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BU7" s="0" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="BV7" s="0" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="BW7" s="0" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="BX7" s="0" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="BY7" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BZ7" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA7" s="0" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="CB7" s="0" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="CC7" s="0" t="n">
-        <v>66.22</v>
-      </c>
-      <c r="CD7" s="0" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="CE7" s="0" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="CF7" s="0" t="n">
-        <v>90.32</v>
-      </c>
-      <c r="CG7" s="0" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="CH7" s="0" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="CI7" s="0" t="n">
-        <v>84.8</v>
-      </c>
-      <c r="CJ7" s="0" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="CK7" s="0" t="n">
-        <v>18.0</v>
-      </c>
       <c r="CL7" s="0" t="n">
-        <v>51.43</v>
+        <v>68.25</v>
       </c>
       <c r="CM7" s="0" t="n">
-        <v>46.0</v>
+        <v>38.0</v>
       </c>
       <c r="CN7" s="0" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="CO7" s="0" t="n">
-        <v>65.22</v>
+        <v>68.42</v>
       </c>
       <c r="CP7" s="0" t="n">
-        <v>72.0</v>
+        <v>69.0</v>
       </c>
       <c r="CQ7" s="0" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="CR7" s="0" t="n">
-        <v>70.83</v>
+        <v>72.46</v>
       </c>
       <c r="CS7" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="CT7" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU7" s="0" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="CV7" s="0" t="n">
         <v>28.0</v>
       </c>
       <c r="CW7" s="0" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="CX7" s="0" t="n">
-        <v>85.71</v>
+        <v>78.57</v>
       </c>
       <c r="CY7" s="0" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="CZ7" s="0" t="n">
-        <v>16.4</v>
+        <v>12.92</v>
       </c>
       <c r="DA7" s="0" t="n">
         <v>2.95</v>
       </c>
       <c r="DB7" s="0" t="n">
-        <v>8.97</v>
+        <v>19.38</v>
       </c>
       <c r="DC7" s="0" t="n">
-        <v>19.24</v>
+        <v>17.92</v>
       </c>
       <c r="DD7" s="0" t="n">
-        <v>18.79</v>
+        <v>20.64</v>
       </c>
       <c r="DE7" s="0" t="n">
-        <v>10.03</v>
+        <v>10.9</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen - Dainava 3:2</t>
+          <t>Dainava - Panevėžys 1:3</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
@@ -2757,122 +2757,122 @@
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>4-1-3-2 (100.0%)</t>
+          <t>4-4-2 (100.0%)</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>3.0</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>23.08</v>
+        <v>33.33</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>312.0</v>
+        <v>435.0</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>242.0</v>
+        <v>344.0</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>77.56</v>
+        <v>79.08</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>35.52</v>
+        <v>53.48</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>120.0</v>
+        <v>134.0</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>43.0</v>
+        <v>52.0</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>86.0</v>
+        <v>97.0</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>55.0</v>
+        <v>46.0</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>23.0</v>
+        <v>39.0</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>183.0</v>
+        <v>222.0</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>84.0</v>
+        <v>121.0</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>45.9</v>
+        <v>54.5</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB8" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>12.5</v>
+        <v>33.33</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>42.86</v>
+        <v>6.25</v>
       </c>
       <c r="AG8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="0" t="n">
-        <v>0</v>
+        <v>50.0</v>
       </c>
       <c r="AJ8" s="0" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AK8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL8" s="0" t="n">
-        <v>13.04</v>
+        <v>11.11</v>
       </c>
       <c r="AM8" s="0" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="AN8" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AO8" s="0" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="AP8" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="AQ8" s="0" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8" s="0" t="n">
-        <v>150.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8" s="0" t="n">
         <v>1.0</v>
@@ -2884,43 +2884,43 @@
         <v>100.0</v>
       </c>
       <c r="AV8" s="0" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="AW8" s="0" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="AX8" s="0" t="n">
-        <v>11.11</v>
+        <v>35.29</v>
       </c>
       <c r="AY8" s="0" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="AZ8" s="0" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="BA8" s="0" t="n">
-        <v>17.0</v>
+        <v>27.0</v>
       </c>
       <c r="BB8" s="0" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="BC8" s="0" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="BD8" s="0" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="BE8" s="0" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="BF8" s="0" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="BG8" s="0" t="n">
-        <v>39.68</v>
+        <v>35.82</v>
       </c>
       <c r="BH8" s="0" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="BI8" s="0" t="n">
         <v>3.0</v>
@@ -2935,150 +2935,150 @@
         <v>36.84</v>
       </c>
       <c r="BM8" s="0" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BN8" s="0" t="n">
         <v>52.0</v>
       </c>
-      <c r="BN8" s="0" t="n">
-        <v>32.0</v>
-      </c>
       <c r="BO8" s="0" t="n">
-        <v>61.54</v>
+        <v>65.82</v>
       </c>
       <c r="BP8" s="0" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BQ8" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BR8" s="0" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="BS8" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BT8" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU8" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BV8" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BW8" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BX8" s="0" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BY8" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ8" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA8" s="0" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="CB8" s="0" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="CC8" s="0" t="n">
+        <v>66.06</v>
+      </c>
+      <c r="CD8" s="0" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="CE8" s="0" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CF8" s="0" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="CG8" s="0" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="CH8" s="0" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="CI8" s="0" t="n">
+        <v>88.68</v>
+      </c>
+      <c r="CJ8" s="0" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CK8" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CL8" s="0" t="n">
+        <v>53.23</v>
+      </c>
+      <c r="CM8" s="0" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CN8" s="0" t="n">
         <v>37.0</v>
       </c>
-      <c r="BQ8" s="0" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="BR8" s="0" t="n">
-        <v>37.84</v>
-      </c>
-      <c r="BS8" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BT8" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BU8" s="0" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="BV8" s="0" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="BW8" s="0" t="n">
+      <c r="CO8" s="0" t="n">
+        <v>60.66</v>
+      </c>
+      <c r="CP8" s="0" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="CQ8" s="0" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CR8" s="0" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="CS8" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CT8" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU8" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CV8" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CW8" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CX8" s="0" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CY8" s="0" t="n">
         <v>16.0</v>
       </c>
-      <c r="BX8" s="0" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BY8" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BZ8" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA8" s="0" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="CB8" s="0" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="CC8" s="0" t="n">
-        <v>70.67</v>
-      </c>
-      <c r="CD8" s="0" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="CE8" s="0" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="CF8" s="0" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="CG8" s="0" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="CH8" s="0" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="CI8" s="0" t="n">
-        <v>83.13</v>
-      </c>
-      <c r="CJ8" s="0" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="CK8" s="0" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="CL8" s="0" t="n">
-        <v>53.85</v>
-      </c>
-      <c r="CM8" s="0" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="CN8" s="0" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="CO8" s="0" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="CP8" s="0" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="CQ8" s="0" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="CR8" s="0" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="CS8" s="0" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="CT8" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="CU8" s="0" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="CV8" s="0" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="CW8" s="0" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="CX8" s="0" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="CY8" s="0" t="n">
-        <v>10.0</v>
-      </c>
       <c r="CZ8" s="0" t="n">
-        <v>15.89</v>
+        <v>15.9</v>
       </c>
       <c r="DA8" s="0" t="n">
-        <v>2.84</v>
+        <v>3.22</v>
       </c>
       <c r="DB8" s="0" t="n">
-        <v>16.67</v>
+        <v>14.25</v>
       </c>
       <c r="DC8" s="0" t="n">
-        <v>19.62</v>
+        <v>18.65</v>
       </c>
       <c r="DD8" s="0" t="n">
-        <v>20.82</v>
+        <v>22.54</v>
       </c>
       <c r="DE8" s="0" t="n">
-        <v>14.71</v>
+        <v>11.13</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen - Dainava 3:2</t>
+          <t>Dainava - Panevėžys 1:3</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -3087,23 +3087,23 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Panevėžys</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>4-3-3 (65.53%)</t>
+          <t>4-4-1-1 (100.0%)</t>
         </is>
       </c>
       <c r="G9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>19.0</v>
@@ -3115,103 +3115,103 @@
         <v>36.84</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>600.0</v>
+        <v>391.0</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>517.0</v>
+        <v>307.0</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>86.17</v>
+        <v>78.52</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>64.48</v>
+        <v>46.52</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>132.0</v>
+        <v>130.0</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>38.0</v>
+        <v>48.0</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>76.0</v>
+        <v>57.0</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>183.0</v>
+        <v>222.0</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>93.0</v>
+        <v>90.0</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>50.82</v>
+        <v>40.54</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB9" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>12.5</v>
+        <v>33.33</v>
       </c>
       <c r="AD9" s="0" t="n">
         <v>41</v>
       </c>
       <c r="AE9" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <v>26.83</v>
+        <v>31.71</v>
       </c>
       <c r="AG9" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH9" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI9" s="0" t="n">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="AJ9" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK9" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AL9" s="0" t="n">
-        <v>28.0</v>
+        <v>11.11</v>
       </c>
       <c r="AM9" s="0" t="n">
         <v>7.0</v>
       </c>
       <c r="AN9" s="0" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO9" s="0" t="n">
-        <v>28.57</v>
+        <v>0.0</v>
       </c>
       <c r="AP9" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AQ9" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="AR9" s="0" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="AS9" s="0" t="n">
         <v>0.0</v>
@@ -3223,201 +3223,201 @@
         <v>0</v>
       </c>
       <c r="AV9" s="0" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="AW9" s="0" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AX9" s="0" t="n">
-        <v>40.0</v>
+        <v>36.36</v>
       </c>
       <c r="AY9" s="0" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="AZ9" s="0" t="n">
         <v>10.0</v>
       </c>
       <c r="BA9" s="0" t="n">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="BB9" s="0" t="n">
         <v>6.0</v>
       </c>
       <c r="BC9" s="0" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="BD9" s="0" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="BE9" s="0" t="n">
-        <v>52.0</v>
+        <v>79.0</v>
       </c>
       <c r="BF9" s="0" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="BG9" s="0" t="n">
-        <v>38.46</v>
+        <v>34.18</v>
       </c>
       <c r="BH9" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="BI9" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ9" s="0" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="BK9" s="0" t="n">
         <v>3.0</v>
       </c>
       <c r="BL9" s="0" t="n">
-        <v>23.08</v>
+        <v>33.33</v>
       </c>
       <c r="BM9" s="0" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="BN9" s="0" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="BO9" s="0" t="n">
-        <v>60.32</v>
+        <v>64.18</v>
       </c>
       <c r="BP9" s="0" t="n">
-        <v>37.0</v>
+        <v>45.0</v>
       </c>
       <c r="BQ9" s="0" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="BR9" s="0" t="n">
-        <v>51.35</v>
+        <v>22.22</v>
       </c>
       <c r="BS9" s="0" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="BT9" s="0" t="n">
         <v>3.0</v>
       </c>
       <c r="BU9" s="0" t="n">
-        <v>60.0</v>
+        <v>75.0</v>
       </c>
       <c r="BV9" s="0" t="n">
-        <v>27.0</v>
+        <v>45.0</v>
       </c>
       <c r="BW9" s="0" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="BX9" s="0" t="n">
         <v>14.0</v>
       </c>
       <c r="BY9" s="0" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="BZ9" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="CA9" s="0" t="n">
-        <v>184.0</v>
+        <v>149.0</v>
       </c>
       <c r="CB9" s="0" t="n">
-        <v>146.0</v>
+        <v>99.0</v>
       </c>
       <c r="CC9" s="0" t="n">
-        <v>79.35</v>
+        <v>66.44</v>
       </c>
       <c r="CD9" s="0" t="n">
-        <v>91.0</v>
+        <v>62.0</v>
       </c>
       <c r="CE9" s="0" t="n">
-        <v>89.0</v>
+        <v>56.0</v>
       </c>
       <c r="CF9" s="0" t="n">
-        <v>97.8</v>
+        <v>90.32</v>
       </c>
       <c r="CG9" s="0" t="n">
-        <v>251.0</v>
+        <v>124.0</v>
       </c>
       <c r="CH9" s="0" t="n">
-        <v>223.0</v>
+        <v>106.0</v>
       </c>
       <c r="CI9" s="0" t="n">
-        <v>88.84</v>
+        <v>85.48</v>
       </c>
       <c r="CJ9" s="0" t="n">
-        <v>57.0</v>
+        <v>34.0</v>
       </c>
       <c r="CK9" s="0" t="n">
-        <v>36.0</v>
+        <v>18.0</v>
       </c>
       <c r="CL9" s="0" t="n">
-        <v>63.16</v>
+        <v>52.94</v>
       </c>
       <c r="CM9" s="0" t="n">
-        <v>79.0</v>
+        <v>46.0</v>
       </c>
       <c r="CN9" s="0" t="n">
-        <v>62.0</v>
+        <v>30.0</v>
       </c>
       <c r="CO9" s="0" t="n">
-        <v>78.48</v>
+        <v>65.22</v>
       </c>
       <c r="CP9" s="0" t="n">
-        <v>114.0</v>
+        <v>72.0</v>
       </c>
       <c r="CQ9" s="0" t="n">
-        <v>98.0</v>
+        <v>51.0</v>
       </c>
       <c r="CR9" s="0" t="n">
-        <v>85.96</v>
+        <v>70.83</v>
       </c>
       <c r="CS9" s="0" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="CT9" s="0" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU9" s="0" t="n">
-        <v>33.33</v>
+        <v>0.0</v>
       </c>
       <c r="CV9" s="0" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="CW9" s="0" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="CX9" s="0" t="n">
         <v>85.71</v>
       </c>
       <c r="CY9" s="0" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="CZ9" s="0" t="n">
-        <v>16.83</v>
+        <v>16.43</v>
       </c>
       <c r="DA9" s="0" t="n">
-        <v>5.17</v>
+        <v>2.96</v>
       </c>
       <c r="DB9" s="0" t="n">
-        <v>9.5</v>
+        <v>8.7</v>
       </c>
       <c r="DC9" s="0" t="n">
-        <v>18.02</v>
+        <v>19.13</v>
       </c>
       <c r="DD9" s="0" t="n">
-        <v>20.43</v>
+        <v>18.79</v>
       </c>
       <c r="DE9" s="0" t="n">
-        <v>7.77</v>
+        <v>10.03</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Sūduva - Dainava 1:0</t>
+          <t>Hegelmann Litauen - Dainava 3:2</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
@@ -3435,86 +3435,86 @@
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>5-3-2 (100.0%)</t>
+          <t>4-1-3-2 (100.0%)</t>
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.11</v>
+        <v>1.62</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.0</v>
+        <v>23.08</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>467.0</v>
+        <v>312.0</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>390.0</v>
+        <v>242.0</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>83.51</v>
+        <v>77.56</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>45.55</v>
+        <v>35.52</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>127.0</v>
+        <v>120.0</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>69.0</v>
+        <v>54.0</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>99.0</v>
+        <v>86.0</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>259.0</v>
+        <v>183.0</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>128.0</v>
+        <v>84.0</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>49.42</v>
+        <v>45.9</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>0.0</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <v>14.71</v>
+        <v>42.86</v>
       </c>
       <c r="AG10" s="0" t="n">
         <v>0</v>
@@ -3526,223 +3526,223 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK10" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL10" s="0" t="n">
-        <v>5.26</v>
+        <v>13.04</v>
       </c>
       <c r="AM10" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN10" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO10" s="0" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="AP10" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="AQ10" s="0" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AR10" s="0" t="n">
-        <v>0.0</v>
+        <v>150.0</v>
       </c>
       <c r="AS10" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT10" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AU10" s="0" t="n">
-        <v>0</v>
+        <v>100.0</v>
       </c>
       <c r="AV10" s="0" t="n">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="AW10" s="0" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX10" s="0" t="n">
-        <v>50.0</v>
+        <v>11.11</v>
       </c>
       <c r="AY10" s="0" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="AZ10" s="0" t="n">
         <v>7.0</v>
       </c>
       <c r="BA10" s="0" t="n">
-        <v>34.0</v>
+        <v>17.0</v>
       </c>
       <c r="BB10" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="BC10" s="0" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="BD10" s="0" t="n">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="BE10" s="0" t="n">
-        <v>76.0</v>
+        <v>63.0</v>
       </c>
       <c r="BF10" s="0" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="BG10" s="0" t="n">
-        <v>26.32</v>
+        <v>39.68</v>
       </c>
       <c r="BH10" s="0" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI10" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="BJ10" s="0" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BK10" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BL10" s="0" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="BM10" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BN10" s="0" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BO10" s="0" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="BP10" s="0" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BQ10" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BR10" s="0" t="n">
+        <v>37.84</v>
+      </c>
+      <c r="BS10" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BT10" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU10" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BV10" s="0" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BW10" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BX10" s="0" t="n">
         <v>10.0</v>
       </c>
-      <c r="BK10" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BL10" s="0" t="n">
+      <c r="BY10" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ10" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA10" s="0" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="CB10" s="0" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="CC10" s="0" t="n">
+        <v>70.67</v>
+      </c>
+      <c r="CD10" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="BM10" s="0" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="BN10" s="0" t="n">
+      <c r="CE10" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CF10" s="0" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="CG10" s="0" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="CH10" s="0" t="n">
         <v>69.0</v>
       </c>
-      <c r="BO10" s="0" t="n">
-        <v>70.41</v>
-      </c>
-      <c r="BP10" s="0" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="BQ10" s="0" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="BR10" s="0" t="n">
-        <v>49.09</v>
-      </c>
-      <c r="BS10" s="0" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="BT10" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BU10" s="0" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="BV10" s="0" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="BW10" s="0" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="BX10" s="0" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="BY10" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BZ10" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA10" s="0" t="n">
-        <v>155.0</v>
-      </c>
-      <c r="CB10" s="0" t="n">
-        <v>112.0</v>
-      </c>
-      <c r="CC10" s="0" t="n">
-        <v>72.26</v>
-      </c>
-      <c r="CD10" s="0" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="CE10" s="0" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="CF10" s="0" t="n">
-        <v>95.65</v>
-      </c>
-      <c r="CG10" s="0" t="n">
-        <v>193.0</v>
-      </c>
-      <c r="CH10" s="0" t="n">
-        <v>171.0</v>
-      </c>
       <c r="CI10" s="0" t="n">
-        <v>88.6</v>
+        <v>83.13</v>
       </c>
       <c r="CJ10" s="0" t="n">
         <v>52.0</v>
       </c>
       <c r="CK10" s="0" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="CL10" s="0" t="n">
-        <v>51.92</v>
+        <v>53.85</v>
       </c>
       <c r="CM10" s="0" t="n">
-        <v>65.0</v>
+        <v>45.0</v>
       </c>
       <c r="CN10" s="0" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="CO10" s="0" t="n">
-        <v>63.08</v>
+        <v>55.56</v>
       </c>
       <c r="CP10" s="0" t="n">
-        <v>86.0</v>
+        <v>70.0</v>
       </c>
       <c r="CQ10" s="0" t="n">
-        <v>74.0</v>
+        <v>49.0</v>
       </c>
       <c r="CR10" s="0" t="n">
-        <v>86.05</v>
+        <v>70.0</v>
       </c>
       <c r="CS10" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CT10" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="CT10" s="0" t="n">
-        <v>1.0</v>
-      </c>
       <c r="CU10" s="0" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="CV10" s="0" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="CW10" s="0" t="n">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="CX10" s="0" t="n">
-        <v>100.0</v>
+        <v>75.0</v>
       </c>
       <c r="CY10" s="0" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="CZ10" s="0" t="n">
-        <v>16.92</v>
+        <v>15.89</v>
       </c>
       <c r="DA10" s="0" t="n">
-        <v>4.32</v>
+        <v>2.84</v>
       </c>
       <c r="DB10" s="0" t="n">
-        <v>11.13</v>
+        <v>16.67</v>
       </c>
       <c r="DC10" s="0" t="n">
-        <v>23.94</v>
+        <v>19.62</v>
       </c>
       <c r="DD10" s="0" t="n">
-        <v>20.79</v>
+        <v>20.82</v>
       </c>
       <c r="DE10" s="0" t="n">
         <v>14.71</v>
@@ -3751,12 +3751,12 @@
     <row ht="12" customHeight="true" r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Sūduva - Dainava 1:0</t>
+          <t>Hegelmann Litauen - Dainava 3:2</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -3765,131 +3765,131 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Sūduva</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>4-4-2 (100.0%)</t>
+          <t>4-3-3 (65.53%)</t>
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1.0</v>
+        <v>2.34</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>40.0</v>
+        <v>36.84</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>478.0</v>
+        <v>600.0</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>409.0</v>
+        <v>517.0</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>85.56</v>
+        <v>86.17</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>54.45</v>
+        <v>64.48</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>110.0</v>
+        <v>132.0</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>57.0</v>
+        <v>76.0</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>85.0</v>
+        <v>92.0</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>47.0</v>
+        <v>38.0</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>23.0</v>
+        <v>39.0</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>15.0</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>259.0</v>
+        <v>183.0</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>121.0</v>
+        <v>93.0</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>46.72</v>
+        <v>50.82</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>50.0</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AE11" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <v>22.22</v>
+        <v>26.83</v>
       </c>
       <c r="AG11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AI11" s="0" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ11" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK11" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL11" s="0" t="n">
-        <v>9.09</v>
+        <v>28.0</v>
       </c>
       <c r="AM11" s="0" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="AN11" s="0" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AO11" s="0" t="n">
-        <v>0.0</v>
+        <v>28.57</v>
       </c>
       <c r="AP11" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AQ11" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR11" s="0" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="AS11" s="0" t="n">
         <v>0.0</v>
@@ -3901,201 +3901,201 @@
         <v>0</v>
       </c>
       <c r="AV11" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AW11" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AX11" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AY11" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AZ11" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BA11" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BB11" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BC11" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BD11" s="0" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BE11" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BF11" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG11" s="0" t="n">
+        <v>38.46</v>
+      </c>
+      <c r="BH11" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BI11" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BJ11" s="0" t="n">
         <v>13.0</v>
       </c>
-      <c r="AW11" s="0" t="n">
+      <c r="BK11" s="0" t="n">
         <v>3.0</v>
       </c>
-      <c r="AX11" s="0" t="n">
+      <c r="BL11" s="0" t="n">
         <v>23.08</v>
       </c>
-      <c r="AY11" s="0" t="n">
+      <c r="BM11" s="0" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BN11" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BO11" s="0" t="n">
+        <v>60.32</v>
+      </c>
+      <c r="BP11" s="0" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BQ11" s="0" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BR11" s="0" t="n">
+        <v>51.35</v>
+      </c>
+      <c r="BS11" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BT11" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BU11" s="0" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BV11" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BW11" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BX11" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BY11" s="0" t="n">
         <v>4.0</v>
       </c>
-      <c r="AZ11" s="0" t="n">
+      <c r="BZ11" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA11" s="0" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="CB11" s="0" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="CC11" s="0" t="n">
+        <v>79.35</v>
+      </c>
+      <c r="CD11" s="0" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="CE11" s="0" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="CF11" s="0" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="CG11" s="0" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="CH11" s="0" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="CI11" s="0" t="n">
+        <v>88.84</v>
+      </c>
+      <c r="CJ11" s="0" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="CK11" s="0" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CL11" s="0" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="CM11" s="0" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CN11" s="0" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CO11" s="0" t="n">
+        <v>78.48</v>
+      </c>
+      <c r="CP11" s="0" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="CQ11" s="0" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="CR11" s="0" t="n">
+        <v>85.96</v>
+      </c>
+      <c r="CS11" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CT11" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CU11" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CV11" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="CW11" s="0" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CX11" s="0" t="n">
+        <v>85.71</v>
+      </c>
+      <c r="CY11" s="0" t="n">
         <v>8.0</v>
       </c>
-      <c r="BA11" s="0" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="BB11" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BC11" s="0" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="BD11" s="0" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="BE11" s="0" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="BF11" s="0" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="BG11" s="0" t="n">
-        <v>29.59</v>
-      </c>
-      <c r="BH11" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI11" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ11" s="0" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="BK11" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BL11" s="0" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="BM11" s="0" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="BN11" s="0" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="BO11" s="0" t="n">
-        <v>73.68</v>
-      </c>
-      <c r="BP11" s="0" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="BQ11" s="0" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="BR11" s="0" t="n">
-        <v>41.82</v>
-      </c>
-      <c r="BS11" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BT11" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BU11" s="0" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="BV11" s="0" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="BW11" s="0" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="BX11" s="0" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="BY11" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BZ11" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA11" s="0" t="n">
-        <v>169.0</v>
-      </c>
-      <c r="CB11" s="0" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="CC11" s="0" t="n">
-        <v>79.29</v>
-      </c>
-      <c r="CD11" s="0" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="CE11" s="0" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="CF11" s="0" t="n">
-        <v>96.34</v>
-      </c>
-      <c r="CG11" s="0" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="CH11" s="0" t="n">
-        <v>157.0</v>
-      </c>
-      <c r="CI11" s="0" t="n">
-        <v>87.22</v>
-      </c>
-      <c r="CJ11" s="0" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="CK11" s="0" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="CL11" s="0" t="n">
-        <v>48.94</v>
-      </c>
-      <c r="CM11" s="0" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="CN11" s="0" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="CO11" s="0" t="n">
-        <v>73.91</v>
-      </c>
-      <c r="CP11" s="0" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="CQ11" s="0" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="CR11" s="0" t="n">
-        <v>75.64</v>
-      </c>
-      <c r="CS11" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CT11" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CU11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV11" s="0" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="CW11" s="0" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="CX11" s="0" t="n">
-        <v>81.25</v>
-      </c>
-      <c r="CY11" s="0" t="n">
-        <v>7.0</v>
-      </c>
       <c r="CZ11" s="0" t="n">
-        <v>14.49</v>
+        <v>16.83</v>
       </c>
       <c r="DA11" s="0" t="n">
-        <v>4.35</v>
+        <v>5.17</v>
       </c>
       <c r="DB11" s="0" t="n">
-        <v>9.83</v>
+        <v>9.5</v>
       </c>
       <c r="DC11" s="0" t="n">
-        <v>19.2</v>
+        <v>18.02</v>
       </c>
       <c r="DD11" s="0" t="n">
         <v>20.43</v>
       </c>
       <c r="DE11" s="0" t="n">
-        <v>13.13</v>
+        <v>7.77</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Žalgiris 0:1</t>
+          <t>Sūduva - Dainava 1:0</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
@@ -4120,100 +4120,100 @@
         <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>275.0</v>
+        <v>467.0</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>193.0</v>
+        <v>390.0</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>70.18</v>
+        <v>83.51</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>33.09</v>
+        <v>45.55</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>138.0</v>
+        <v>127.0</v>
       </c>
       <c r="Q12" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="R12" s="0" t="n">
         <v>33.0</v>
       </c>
-      <c r="R12" s="0" t="n">
-        <v>62.0</v>
-      </c>
       <c r="S12" s="0" t="n">
-        <v>43.0</v>
+        <v>69.0</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>65.0</v>
+        <v>54.0</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>231.0</v>
+        <v>259.0</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>95.0</v>
+        <v>128.0</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>41.13</v>
+        <v>49.42</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB12" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="AC12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="AG12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="0" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="AG12" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="AH12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AI12" s="0" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AL12" s="0" t="n">
-        <v>5.0</v>
+        <v>5.26</v>
       </c>
       <c r="AM12" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="AN12" s="0" t="n">
         <v>0.0</v>
@@ -4225,10 +4225,10 @@
         <v>2.0</v>
       </c>
       <c r="AQ12" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR12" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS12" s="0" t="n">
         <v>0.0</v>
@@ -4240,201 +4240,201 @@
         <v>0</v>
       </c>
       <c r="AV12" s="0" t="n">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
       <c r="AW12" s="0" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="AX12" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AY12" s="0" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AZ12" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BA12" s="0" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BB12" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC12" s="0" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BD12" s="0" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BE12" s="0" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BF12" s="0" t="n">
         <v>20.0</v>
       </c>
-      <c r="AY12" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AZ12" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BA12" s="0" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="BB12" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BC12" s="0" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="BD12" s="0" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="BE12" s="0" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="BF12" s="0" t="n">
-        <v>11.0</v>
-      </c>
       <c r="BG12" s="0" t="n">
-        <v>18.33</v>
+        <v>26.32</v>
       </c>
       <c r="BH12" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="BI12" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="BJ12" s="0" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="BK12" s="0" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="BL12" s="0" t="n">
-        <v>29.17</v>
+        <v>40.0</v>
       </c>
       <c r="BM12" s="0" t="n">
-        <v>83.0</v>
+        <v>98.0</v>
       </c>
       <c r="BN12" s="0" t="n">
-        <v>47.0</v>
+        <v>69.0</v>
       </c>
       <c r="BO12" s="0" t="n">
-        <v>56.63</v>
+        <v>70.41</v>
       </c>
       <c r="BP12" s="0" t="n">
-        <v>64.0</v>
+        <v>55.0</v>
       </c>
       <c r="BQ12" s="0" t="n">
         <v>27.0</v>
       </c>
       <c r="BR12" s="0" t="n">
-        <v>42.19</v>
+        <v>49.09</v>
       </c>
       <c r="BS12" s="0" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="BT12" s="0" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="BU12" s="0" t="n">
-        <v>0.0</v>
+        <v>66.67</v>
       </c>
       <c r="BV12" s="0" t="n">
-        <v>57.0</v>
+        <v>37.0</v>
       </c>
       <c r="BW12" s="0" t="n">
         <v>27.0</v>
       </c>
       <c r="BX12" s="0" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="BY12" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BZ12" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA12" s="0" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="CB12" s="0" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="CC12" s="0" t="n">
+        <v>72.26</v>
+      </c>
+      <c r="CD12" s="0" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CE12" s="0" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CF12" s="0" t="n">
+        <v>95.65</v>
+      </c>
+      <c r="CG12" s="0" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="CH12" s="0" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="CI12" s="0" t="n">
+        <v>88.6</v>
+      </c>
+      <c r="CJ12" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CK12" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CL12" s="0" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="CM12" s="0" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CN12" s="0" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="CO12" s="0" t="n">
+        <v>63.08</v>
+      </c>
+      <c r="CP12" s="0" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="CQ12" s="0" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CR12" s="0" t="n">
+        <v>86.05</v>
+      </c>
+      <c r="CS12" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="BZ12" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA12" s="0" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="CB12" s="0" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="CC12" s="0" t="n">
-        <v>57.75</v>
-      </c>
-      <c r="CD12" s="0" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="CE12" s="0" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="CF12" s="0" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="CG12" s="0" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="CH12" s="0" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="CI12" s="0" t="n">
-        <v>85.45</v>
-      </c>
-      <c r="CJ12" s="0" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="CK12" s="0" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="CL12" s="0" t="n">
-        <v>56.96</v>
-      </c>
-      <c r="CM12" s="0" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="CN12" s="0" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="CO12" s="0" t="n">
-        <v>35.48</v>
-      </c>
-      <c r="CP12" s="0" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="CQ12" s="0" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="CR12" s="0" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="CS12" s="0" t="n">
-        <v>0.0</v>
-      </c>
       <c r="CT12" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="CU12" s="0" t="n">
-        <v>0</v>
+        <v>50.0</v>
       </c>
       <c r="CV12" s="0" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="CW12" s="0" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="CX12" s="0" t="n">
         <v>100.0</v>
       </c>
       <c r="CY12" s="0" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="CZ12" s="0" t="n">
-        <v>15.34</v>
+        <v>16.92</v>
       </c>
       <c r="DA12" s="0" t="n">
-        <v>2.39</v>
+        <v>4.32</v>
       </c>
       <c r="DB12" s="0" t="n">
-        <v>28.73</v>
+        <v>11.13</v>
       </c>
       <c r="DC12" s="0" t="n">
-        <v>12.27</v>
+        <v>23.94</v>
       </c>
       <c r="DD12" s="0" t="n">
-        <v>22.85</v>
+        <v>20.79</v>
       </c>
       <c r="DE12" s="0" t="n">
-        <v>18.0</v>
+        <v>14.71</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Žalgiris 0:1</t>
+          <t>Sūduva - Dainava 1:0</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -4443,11 +4443,11 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>Žalgiris</t>
+          <t>Sūduva</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
@@ -4459,79 +4459,79 @@
         <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.1</v>
+        <v>1.0</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>29.17</v>
+        <v>40.0</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>655.0</v>
+        <v>478.0</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>547.0</v>
+        <v>409.0</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>83.51</v>
+        <v>85.56</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>66.91</v>
+        <v>54.45</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>147.0</v>
+        <v>110.0</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>13.0</v>
+        <v>27.0</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>101.0</v>
+        <v>57.0</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>118.0</v>
+        <v>85.0</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>35.0</v>
+        <v>47.0</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>61.0</v>
+        <v>23.0</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>231.0</v>
+        <v>259.0</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>124.0</v>
+        <v>121.0</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>53.68</v>
+        <v>46.72</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>16.67</v>
+        <v>50.0</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="AE13" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>24.64</v>
+        <v>22.22</v>
       </c>
       <c r="AG13" s="0" t="n">
         <v>0</v>
@@ -4546,28 +4546,28 @@
         <v>22</v>
       </c>
       <c r="AK13" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="0" t="n">
-        <v>31.82</v>
+        <v>9.09</v>
       </c>
       <c r="AM13" s="0" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AN13" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO13" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP13" s="0" t="n">
         <v>3.0</v>
       </c>
-      <c r="AO13" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AP13" s="0" t="n">
-        <v>2.0</v>
-      </c>
       <c r="AQ13" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR13" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS13" s="0" t="n">
         <v>0.0</v>
@@ -4579,201 +4579,201 @@
         <v>0</v>
       </c>
       <c r="AV13" s="0" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="AW13" s="0" t="n">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="AX13" s="0" t="n">
-        <v>46.51</v>
+        <v>23.08</v>
       </c>
       <c r="AY13" s="0" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="AZ13" s="0" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="BA13" s="0" t="n">
-        <v>59.0</v>
+        <v>28.0</v>
       </c>
       <c r="BB13" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="BC13" s="0" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="BD13" s="0" t="n">
-        <v>43.0</v>
+        <v>22.0</v>
       </c>
       <c r="BE13" s="0" t="n">
-        <v>83.0</v>
+        <v>98.0</v>
       </c>
       <c r="BF13" s="0" t="n">
-        <v>36.0</v>
+        <v>29.0</v>
       </c>
       <c r="BG13" s="0" t="n">
-        <v>43.37</v>
+        <v>29.59</v>
       </c>
       <c r="BH13" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BI13" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="BJ13" s="0" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="BK13" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="BL13" s="0" t="n">
-        <v>50.0</v>
+        <v>16.67</v>
       </c>
       <c r="BM13" s="0" t="n">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="BN13" s="0" t="n">
-        <v>49.0</v>
+        <v>56.0</v>
       </c>
       <c r="BO13" s="0" t="n">
-        <v>81.67</v>
+        <v>73.68</v>
       </c>
       <c r="BP13" s="0" t="n">
-        <v>64.0</v>
+        <v>55.0</v>
       </c>
       <c r="BQ13" s="0" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="BR13" s="0" t="n">
-        <v>45.31</v>
+        <v>41.82</v>
       </c>
       <c r="BS13" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BT13" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BU13" s="0" t="n">
         <v>100.0</v>
       </c>
       <c r="BV13" s="0" t="n">
-        <v>24.0</v>
+        <v>37.0</v>
       </c>
       <c r="BW13" s="0" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="BX13" s="0" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BY13" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ13" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA13" s="0" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="CB13" s="0" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="CC13" s="0" t="n">
+        <v>79.29</v>
+      </c>
+      <c r="CD13" s="0" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="CE13" s="0" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CF13" s="0" t="n">
+        <v>96.34</v>
+      </c>
+      <c r="CG13" s="0" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="CH13" s="0" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="CI13" s="0" t="n">
+        <v>87.22</v>
+      </c>
+      <c r="CJ13" s="0" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CK13" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CL13" s="0" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="CM13" s="0" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CN13" s="0" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CO13" s="0" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="CP13" s="0" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="CQ13" s="0" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CR13" s="0" t="n">
+        <v>75.64</v>
+      </c>
+      <c r="CS13" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT13" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV13" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CW13" s="0" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CX13" s="0" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="CY13" s="0" t="n">
         <v>7.0</v>
       </c>
-      <c r="BY13" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BZ13" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA13" s="0" t="n">
-        <v>232.0</v>
-      </c>
-      <c r="CB13" s="0" t="n">
-        <v>176.0</v>
-      </c>
-      <c r="CC13" s="0" t="n">
-        <v>75.86</v>
-      </c>
-      <c r="CD13" s="0" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="CE13" s="0" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="CF13" s="0" t="n">
-        <v>96.81</v>
-      </c>
-      <c r="CG13" s="0" t="n">
-        <v>261.0</v>
-      </c>
-      <c r="CH13" s="0" t="n">
-        <v>231.0</v>
-      </c>
-      <c r="CI13" s="0" t="n">
-        <v>88.51</v>
-      </c>
-      <c r="CJ13" s="0" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="CK13" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="CL13" s="0" t="n">
-        <v>65.79</v>
-      </c>
-      <c r="CM13" s="0" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="CN13" s="0" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="CO13" s="0" t="n">
-        <v>78.38</v>
-      </c>
-      <c r="CP13" s="0" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="CQ13" s="0" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="CR13" s="0" t="n">
-        <v>92.25</v>
-      </c>
-      <c r="CS13" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="CT13" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="CU13" s="0" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="CV13" s="0" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="CW13" s="0" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="CX13" s="0" t="n">
-        <v>94.29</v>
-      </c>
-      <c r="CY13" s="0" t="n">
-        <v>3.0</v>
-      </c>
       <c r="CZ13" s="0" t="n">
-        <v>18.07</v>
+        <v>14.49</v>
       </c>
       <c r="DA13" s="0" t="n">
-        <v>5.24</v>
+        <v>4.35</v>
       </c>
       <c r="DB13" s="0" t="n">
-        <v>11.6</v>
+        <v>9.83</v>
       </c>
       <c r="DC13" s="0" t="n">
-        <v>15.05</v>
+        <v>19.2</v>
       </c>
       <c r="DD13" s="0" t="n">
-        <v>20.7</v>
+        <v>20.43</v>
       </c>
       <c r="DE13" s="0" t="n">
-        <v>7.5</v>
+        <v>13.13</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Džiugas Telšiai 0:2</t>
+          <t>Dainava - Žalgiris 0:1</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
@@ -4791,122 +4791,122 @@
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>5-3-2 (86.15%)</t>
+          <t>5-3-2 (100.0%)</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1.22</v>
+        <v>0.15</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>476.0</v>
+        <v>275.0</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>397.0</v>
+        <v>193.0</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>83.4</v>
+        <v>70.18</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>57.3</v>
+        <v>33.09</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>131.0</v>
+        <v>138.0</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>38.0</v>
+        <v>62.0</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>76.0</v>
+        <v>43.0</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>91.0</v>
+        <v>96.0</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>33.0</v>
+        <v>65.0</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>42.0</v>
+        <v>22.0</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>266.0</v>
+        <v>231.0</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>136.0</v>
+        <v>95.0</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>51.13</v>
+        <v>41.13</v>
       </c>
       <c r="AA14" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="0" t="n">
         <v>5.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC14" s="0" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AD14" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE14" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF14" s="0" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="AG14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="0" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="AJ14" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL14" s="0" t="n">
-        <v>16.67</v>
-      </c>
       <c r="AM14" s="0" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="AN14" s="0" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO14" s="0" t="n">
-        <v>37.5</v>
+        <v>0.0</v>
       </c>
       <c r="AP14" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AQ14" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR14" s="0" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="AS14" s="0" t="n">
         <v>0.0</v>
@@ -4918,91 +4918,91 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0" t="n">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="AW14" s="0" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX14" s="0" t="n">
-        <v>42.86</v>
+        <v>20.0</v>
       </c>
       <c r="AY14" s="0" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ14" s="0" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="BA14" s="0" t="n">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="BB14" s="0" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC14" s="0" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="BD14" s="0" t="n">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="BE14" s="0" t="n">
-        <v>89.0</v>
+        <v>60.0</v>
       </c>
       <c r="BF14" s="0" t="n">
-        <v>35.0</v>
+        <v>11.0</v>
       </c>
       <c r="BG14" s="0" t="n">
-        <v>39.33</v>
+        <v>18.33</v>
       </c>
       <c r="BH14" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="BI14" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BJ14" s="0" t="n">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
       <c r="BK14" s="0" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="BL14" s="0" t="n">
-        <v>72.73</v>
+        <v>29.17</v>
       </c>
       <c r="BM14" s="0" t="n">
-        <v>87.0</v>
+        <v>83.0</v>
       </c>
       <c r="BN14" s="0" t="n">
-        <v>58.0</v>
+        <v>47.0</v>
       </c>
       <c r="BO14" s="0" t="n">
-        <v>66.67</v>
+        <v>56.63</v>
       </c>
       <c r="BP14" s="0" t="n">
-        <v>53.0</v>
+        <v>64.0</v>
       </c>
       <c r="BQ14" s="0" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="BR14" s="0" t="n">
-        <v>43.4</v>
+        <v>42.19</v>
       </c>
       <c r="BS14" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="BT14" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BU14" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="BV14" s="0" t="n">
-        <v>22.0</v>
+        <v>57.0</v>
       </c>
       <c r="BW14" s="0" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="BX14" s="0" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="BY14" s="0" t="n">
         <v>2.0</v>
@@ -5011,108 +5011,108 @@
         <v>0.0</v>
       </c>
       <c r="CA14" s="0" t="n">
-        <v>160.0</v>
+        <v>142.0</v>
       </c>
       <c r="CB14" s="0" t="n">
-        <v>114.0</v>
+        <v>82.0</v>
       </c>
       <c r="CC14" s="0" t="n">
-        <v>71.25</v>
+        <v>57.75</v>
       </c>
       <c r="CD14" s="0" t="n">
-        <v>84.0</v>
+        <v>49.0</v>
       </c>
       <c r="CE14" s="0" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="CF14" s="0" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="CG14" s="0" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CH14" s="0" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CI14" s="0" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="CJ14" s="0" t="n">
         <v>79.0</v>
       </c>
-      <c r="CF14" s="0" t="n">
-        <v>94.05</v>
-      </c>
-      <c r="CG14" s="0" t="n">
-        <v>176.0</v>
-      </c>
-      <c r="CH14" s="0" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="CI14" s="0" t="n">
-        <v>89.77</v>
-      </c>
-      <c r="CJ14" s="0" t="n">
-        <v>60.0</v>
-      </c>
       <c r="CK14" s="0" t="n">
-        <v>35.0</v>
+        <v>45.0</v>
       </c>
       <c r="CL14" s="0" t="n">
-        <v>58.33</v>
+        <v>56.96</v>
       </c>
       <c r="CM14" s="0" t="n">
-        <v>70.0</v>
+        <v>31.0</v>
       </c>
       <c r="CN14" s="0" t="n">
-        <v>49.0</v>
+        <v>11.0</v>
       </c>
       <c r="CO14" s="0" t="n">
-        <v>70.0</v>
+        <v>35.48</v>
       </c>
       <c r="CP14" s="0" t="n">
-        <v>83.0</v>
+        <v>81.0</v>
       </c>
       <c r="CQ14" s="0" t="n">
-        <v>66.0</v>
+        <v>42.0</v>
       </c>
       <c r="CR14" s="0" t="n">
-        <v>79.52</v>
+        <v>51.85</v>
       </c>
       <c r="CS14" s="0" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="CT14" s="0" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="CU14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV14" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CW14" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CX14" s="0" t="n">
         <v>100.0</v>
       </c>
-      <c r="CV14" s="0" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="CW14" s="0" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="CX14" s="0" t="n">
-        <v>89.29</v>
-      </c>
       <c r="CY14" s="0" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="CZ14" s="0" t="n">
-        <v>14.87</v>
+        <v>15.34</v>
       </c>
       <c r="DA14" s="0" t="n">
-        <v>4.07</v>
+        <v>2.39</v>
       </c>
       <c r="DB14" s="0" t="n">
-        <v>12.61</v>
+        <v>28.73</v>
       </c>
       <c r="DC14" s="0" t="n">
-        <v>17.57</v>
+        <v>12.27</v>
       </c>
       <c r="DD14" s="0" t="n">
-        <v>19.97</v>
+        <v>22.85</v>
       </c>
       <c r="DE14" s="0" t="n">
-        <v>8.59</v>
+        <v>18.0</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Džiugas Telšiai 0:2</t>
+          <t>Dainava - Žalgiris 0:1</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -5121,95 +5121,95 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>Džiugas Telšiai</t>
+          <t>Žalgiris</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>4-2-3-1 (100.0%)</t>
+          <t>4-4-2 (100.0%)</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1.37</v>
+        <v>3.1</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>72.73</v>
+        <v>29.17</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>348.0</v>
+        <v>655.0</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>288.0</v>
+        <v>547.0</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>82.76</v>
+        <v>83.51</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>42.7</v>
+        <v>66.91</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>121.0</v>
+        <v>147.0</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>29.0</v>
+        <v>13.0</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>45.0</v>
+        <v>33.0</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>47.0</v>
+        <v>101.0</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>80.0</v>
+        <v>118.0</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>30.0</v>
+        <v>61.0</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>266.0</v>
+        <v>231.0</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>120.0</v>
+        <v>124.0</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>45.11</v>
+        <v>53.68</v>
       </c>
       <c r="AA15" s="0" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB15" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>75.0</v>
+        <v>16.67</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <v>30.43</v>
+        <v>24.64</v>
       </c>
       <c r="AG15" s="0" t="n">
         <v>0</v>
@@ -5221,31 +5221,31 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK15" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL15" s="0" t="n">
-        <v>19.05</v>
+        <v>31.82</v>
       </c>
       <c r="AM15" s="0" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="AN15" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AO15" s="0" t="n">
         <v>50.0</v>
       </c>
       <c r="AP15" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AQ15" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR15" s="0" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="AS15" s="0" t="n">
         <v>0.0</v>
@@ -5257,201 +5257,201 @@
         <v>0</v>
       </c>
       <c r="AV15" s="0" t="n">
-        <v>13.0</v>
+        <v>43.0</v>
       </c>
       <c r="AW15" s="0" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="AX15" s="0" t="n">
-        <v>61.54</v>
+        <v>46.51</v>
       </c>
       <c r="AY15" s="0" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="AZ15" s="0" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="BA15" s="0" t="n">
-        <v>22.0</v>
+        <v>59.0</v>
       </c>
       <c r="BB15" s="0" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="BC15" s="0" t="n">
-        <v>7.0</v>
+        <v>32.0</v>
       </c>
       <c r="BD15" s="0" t="n">
-        <v>19.0</v>
+        <v>43.0</v>
       </c>
       <c r="BE15" s="0" t="n">
-        <v>87.0</v>
+        <v>83.0</v>
       </c>
       <c r="BF15" s="0" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BG15" s="0" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="BH15" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI15" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ15" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK15" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL15" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BM15" s="0" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BN15" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BO15" s="0" t="n">
+        <v>81.67</v>
+      </c>
+      <c r="BP15" s="0" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BQ15" s="0" t="n">
         <v>29.0</v>
       </c>
-      <c r="BG15" s="0" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="BH15" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BI15" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ15" s="0" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="BK15" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BL15" s="0" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="BM15" s="0" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="BN15" s="0" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="BO15" s="0" t="n">
-        <v>60.67</v>
-      </c>
-      <c r="BP15" s="0" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="BQ15" s="0" t="n">
-        <v>27.0</v>
-      </c>
       <c r="BR15" s="0" t="n">
-        <v>50.94</v>
+        <v>45.31</v>
       </c>
       <c r="BS15" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="BT15" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="BU15" s="0" t="n">
-        <v>66.67</v>
+        <v>100.0</v>
       </c>
       <c r="BV15" s="0" t="n">
-        <v>52.0</v>
+        <v>24.0</v>
       </c>
       <c r="BW15" s="0" t="n">
-        <v>39.0</v>
+        <v>8.0</v>
       </c>
       <c r="BX15" s="0" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="BY15" s="0" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="BZ15" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="CA15" s="0" t="n">
-        <v>129.0</v>
+        <v>232.0</v>
       </c>
       <c r="CB15" s="0" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="CC15" s="0" t="n">
+        <v>75.86</v>
+      </c>
+      <c r="CD15" s="0" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="CE15" s="0" t="n">
         <v>91.0</v>
       </c>
-      <c r="CC15" s="0" t="n">
-        <v>70.54</v>
-      </c>
-      <c r="CD15" s="0" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="CE15" s="0" t="n">
-        <v>52.0</v>
-      </c>
       <c r="CF15" s="0" t="n">
+        <v>96.81</v>
+      </c>
+      <c r="CG15" s="0" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="CH15" s="0" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="CI15" s="0" t="n">
+        <v>88.51</v>
+      </c>
+      <c r="CJ15" s="0" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="CK15" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CL15" s="0" t="n">
+        <v>65.79</v>
+      </c>
+      <c r="CM15" s="0" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="CN15" s="0" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="CO15" s="0" t="n">
+        <v>78.38</v>
+      </c>
+      <c r="CP15" s="0" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="CQ15" s="0" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="CR15" s="0" t="n">
+        <v>92.25</v>
+      </c>
+      <c r="CS15" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CT15" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CU15" s="0" t="n">
         <v>100.0</v>
       </c>
-      <c r="CG15" s="0" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="CH15" s="0" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="CI15" s="0" t="n">
-        <v>90.35</v>
-      </c>
-      <c r="CJ15" s="0" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="CK15" s="0" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="CL15" s="0" t="n">
-        <v>61.02</v>
-      </c>
-      <c r="CM15" s="0" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="CN15" s="0" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="CO15" s="0" t="n">
-        <v>63.16</v>
-      </c>
-      <c r="CP15" s="0" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="CQ15" s="0" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="CR15" s="0" t="n">
-        <v>71.62</v>
-      </c>
-      <c r="CS15" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CT15" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CU15" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="CV15" s="0" t="n">
-        <v>17.0</v>
+        <v>35.0</v>
       </c>
       <c r="CW15" s="0" t="n">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="CX15" s="0" t="n">
-        <v>88.24</v>
+        <v>94.29</v>
       </c>
       <c r="CY15" s="0" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="CZ15" s="0" t="n">
-        <v>14.59</v>
+        <v>18.07</v>
       </c>
       <c r="DA15" s="0" t="n">
-        <v>3.63</v>
+        <v>5.24</v>
       </c>
       <c r="DB15" s="0" t="n">
-        <v>16.95</v>
+        <v>11.6</v>
       </c>
       <c r="DC15" s="0" t="n">
-        <v>15.94</v>
+        <v>15.05</v>
       </c>
       <c r="DD15" s="0" t="n">
-        <v>20.18</v>
+        <v>20.7</v>
       </c>
       <c r="DE15" s="0" t="n">
-        <v>10.09</v>
+        <v>7.5</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Šiauliai - Dainava 2:2</t>
+          <t>Dainava - Džiugas Telšiai 0:2</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -5469,122 +5469,122 @@
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>5-3-2 (100.0%)</t>
+          <t>5-3-2 (86.15%)</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.42</v>
+        <v>1.22</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>33.33</v>
+        <v>25.0</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>310.0</v>
+        <v>476.0</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>217.0</v>
+        <v>397.0</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>70.0</v>
+        <v>83.4</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>42.16</v>
+        <v>57.3</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>133.0</v>
+        <v>131.0</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>49.0</v>
+        <v>38.0</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>58.0</v>
+        <v>76.0</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>81.0</v>
+        <v>91.0</v>
       </c>
       <c r="U16" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="V16" s="0" t="n">
         <v>42.0</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>23.0</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>16.0</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>226.0</v>
+        <v>266.0</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>106.0</v>
+        <v>136.0</v>
       </c>
       <c r="Z16" s="0" t="n">
-        <v>46.9</v>
+        <v>51.13</v>
       </c>
       <c r="AA16" s="0" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB16" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL16" s="0" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="AM16" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AN16" s="0" t="n">
         <v>3.0</v>
       </c>
-      <c r="AC16" s="0" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="AD16" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE16" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF16" s="0" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="AG16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL16" s="0" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="AM16" s="0" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AN16" s="0" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AO16" s="0" t="n">
-        <v>0.0</v>
+        <v>37.5</v>
       </c>
       <c r="AP16" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AQ16" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR16" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS16" s="0" t="n">
         <v>0.0</v>
@@ -5596,201 +5596,201 @@
         <v>0</v>
       </c>
       <c r="AV16" s="0" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="AW16" s="0" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="AX16" s="0" t="n">
-        <v>25.0</v>
+        <v>42.86</v>
       </c>
       <c r="AY16" s="0" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="AZ16" s="0" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="BA16" s="0" t="n">
-        <v>20.0</v>
+        <v>33.0</v>
       </c>
       <c r="BB16" s="0" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="BC16" s="0" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="BD16" s="0" t="n">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="BE16" s="0" t="n">
-        <v>48.0</v>
+        <v>89.0</v>
       </c>
       <c r="BF16" s="0" t="n">
-        <v>24.0</v>
+        <v>35.0</v>
       </c>
       <c r="BG16" s="0" t="n">
-        <v>50.0</v>
+        <v>39.33</v>
       </c>
       <c r="BH16" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BI16" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="BJ16" s="0" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="BK16" s="0" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="BL16" s="0" t="n">
-        <v>33.33</v>
+        <v>72.73</v>
       </c>
       <c r="BM16" s="0" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BN16" s="0" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BO16" s="0" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="BP16" s="0" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BQ16" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BR16" s="0" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="BS16" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BT16" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU16" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BV16" s="0" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BW16" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BX16" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BY16" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BZ16" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA16" s="0" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="CB16" s="0" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="CC16" s="0" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="CD16" s="0" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="CE16" s="0" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CF16" s="0" t="n">
+        <v>94.05</v>
+      </c>
+      <c r="CG16" s="0" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="CH16" s="0" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="CI16" s="0" t="n">
+        <v>89.77</v>
+      </c>
+      <c r="CJ16" s="0" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CK16" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CL16" s="0" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="CM16" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CN16" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CO16" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CP16" s="0" t="n">
         <v>83.0</v>
       </c>
-      <c r="BN16" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="BO16" s="0" t="n">
-        <v>60.24</v>
-      </c>
-      <c r="BP16" s="0" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="BQ16" s="0" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="BR16" s="0" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="BS16" s="0" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="BT16" s="0" t="n">
+      <c r="CQ16" s="0" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="CR16" s="0" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="CS16" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="BU16" s="0" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="BV16" s="0" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="BW16" s="0" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="BX16" s="0" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BY16" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BZ16" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA16" s="0" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="CB16" s="0" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="CC16" s="0" t="n">
-        <v>59.83</v>
-      </c>
-      <c r="CD16" s="0" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="CE16" s="0" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="CF16" s="0" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="CG16" s="0" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="CH16" s="0" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="CI16" s="0" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="CJ16" s="0" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="CK16" s="0" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="CL16" s="0" t="n">
-        <v>60.38</v>
-      </c>
-      <c r="CM16" s="0" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="CN16" s="0" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="CO16" s="0" t="n">
-        <v>51.43</v>
-      </c>
-      <c r="CP16" s="0" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="CQ16" s="0" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="CR16" s="0" t="n">
-        <v>53.23</v>
-      </c>
-      <c r="CS16" s="0" t="n">
-        <v>1.0</v>
-      </c>
       <c r="CT16" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="CU16" s="0" t="n">
         <v>100.0</v>
       </c>
       <c r="CV16" s="0" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="CW16" s="0" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="CX16" s="0" t="n">
-        <v>83.33</v>
+        <v>89.29</v>
       </c>
       <c r="CY16" s="0" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="CZ16" s="0" t="n">
-        <v>14.8</v>
+        <v>14.87</v>
       </c>
       <c r="DA16" s="0" t="n">
-        <v>2.65</v>
+        <v>4.07</v>
       </c>
       <c r="DB16" s="0" t="n">
-        <v>17.1</v>
+        <v>12.61</v>
       </c>
       <c r="DC16" s="0" t="n">
-        <v>20.15</v>
+        <v>17.57</v>
       </c>
       <c r="DD16" s="0" t="n">
-        <v>20.74</v>
+        <v>19.97</v>
       </c>
       <c r="DE16" s="0" t="n">
-        <v>16.15</v>
+        <v>8.59</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Šiauliai - Dainava 2:2</t>
+          <t>Dainava - Džiugas Telšiai 0:2</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -5803,127 +5803,127 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Šiauliai</t>
+          <t>Džiugas Telšiai</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>4-4-2 (100.0%)</t>
+          <t>4-2-3-1 (100.0%)</t>
         </is>
       </c>
       <c r="G17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.34</v>
+        <v>1.37</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>33.33</v>
+        <v>72.73</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>474.0</v>
+        <v>348.0</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>383.0</v>
+        <v>288.0</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>80.8</v>
+        <v>82.76</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>57.84</v>
+        <v>42.7</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>132.0</v>
+        <v>121.0</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>35.0</v>
+        <v>45.0</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>72.0</v>
+        <v>47.0</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>99.0</v>
+        <v>80.0</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>39.0</v>
+        <v>30.0</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>226.0</v>
+        <v>266.0</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <v>106.0</v>
+        <v>120.0</v>
       </c>
       <c r="Z17" s="0" t="n">
-        <v>46.9</v>
+        <v>45.11</v>
       </c>
       <c r="AA17" s="0" t="n">
         <v>4.0</v>
       </c>
       <c r="AB17" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL17" s="0" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="AM17" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AN17" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>50.0</v>
       </c>
-      <c r="AD17" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE17" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF17" s="0" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="AG17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="0" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="AJ17" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL17" s="0" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AM17" s="0" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AN17" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AO17" s="0" t="n">
-        <v>11.11</v>
-      </c>
       <c r="AP17" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AQ17" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AR17" s="0" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="AS17" s="0" t="n">
         <v>0.0</v>
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="AV17" s="0" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="AW17" s="0" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AX17" s="0" t="n">
-        <v>25.0</v>
+        <v>61.54</v>
       </c>
       <c r="AY17" s="0" t="n">
         <v>6.0</v>
@@ -5950,186 +5950,186 @@
         <v>9.0</v>
       </c>
       <c r="BA17" s="0" t="n">
-        <v>38.0</v>
+        <v>22.0</v>
       </c>
       <c r="BB17" s="0" t="n">
         <v>5.0</v>
       </c>
       <c r="BC17" s="0" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="BD17" s="0" t="n">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="BE17" s="0" t="n">
-        <v>83.0</v>
+        <v>87.0</v>
       </c>
       <c r="BF17" s="0" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="BG17" s="0" t="n">
-        <v>39.76</v>
+        <v>33.33</v>
       </c>
       <c r="BH17" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BI17" s="0" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ17" s="0" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="BK17" s="0" t="n">
         <v>4.0</v>
       </c>
       <c r="BL17" s="0" t="n">
-        <v>44.44</v>
+        <v>25.0</v>
       </c>
       <c r="BM17" s="0" t="n">
-        <v>48.0</v>
+        <v>89.0</v>
       </c>
       <c r="BN17" s="0" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BO17" s="0" t="n">
+        <v>60.67</v>
+      </c>
+      <c r="BP17" s="0" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BQ17" s="0" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BR17" s="0" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="BS17" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BT17" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU17" s="0" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="BV17" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BW17" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BX17" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BY17" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ17" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA17" s="0" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="CB17" s="0" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="CC17" s="0" t="n">
+        <v>70.54</v>
+      </c>
+      <c r="CD17" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CE17" s="0" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CF17" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CG17" s="0" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="CH17" s="0" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="CI17" s="0" t="n">
+        <v>90.35</v>
+      </c>
+      <c r="CJ17" s="0" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CK17" s="0" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CL17" s="0" t="n">
+        <v>61.02</v>
+      </c>
+      <c r="CM17" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CN17" s="0" t="n">
         <v>24.0</v>
       </c>
-      <c r="BO17" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="BP17" s="0" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="BQ17" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BR17" s="0" t="n">
-        <v>61.22</v>
-      </c>
-      <c r="BS17" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BT17" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BU17" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BV17" s="0" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="BW17" s="0" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="BX17" s="0" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="BY17" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BZ17" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA17" s="0" t="n">
-        <v>171.0</v>
-      </c>
-      <c r="CB17" s="0" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="CC17" s="0" t="n">
-        <v>72.51</v>
-      </c>
-      <c r="CD17" s="0" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="CE17" s="0" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="CF17" s="0" t="n">
-        <v>92.75</v>
-      </c>
-      <c r="CG17" s="0" t="n">
-        <v>195.0</v>
-      </c>
-      <c r="CH17" s="0" t="n">
-        <v>167.0</v>
-      </c>
-      <c r="CI17" s="0" t="n">
-        <v>85.64</v>
-      </c>
-      <c r="CJ17" s="0" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="CK17" s="0" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="CL17" s="0" t="n">
-        <v>56.52</v>
-      </c>
-      <c r="CM17" s="0" t="n">
+      <c r="CO17" s="0" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="CP17" s="0" t="n">
         <v>74.0</v>
       </c>
-      <c r="CN17" s="0" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="CO17" s="0" t="n">
-        <v>68.92</v>
-      </c>
-      <c r="CP17" s="0" t="n">
-        <v>92.0</v>
-      </c>
       <c r="CQ17" s="0" t="n">
-        <v>70.0</v>
+        <v>53.0</v>
       </c>
       <c r="CR17" s="0" t="n">
-        <v>76.09</v>
+        <v>71.62</v>
       </c>
       <c r="CS17" s="0" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="CT17" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="CU17" s="0" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="CV17" s="0" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="CW17" s="0" t="n">
         <v>15.0</v>
       </c>
       <c r="CX17" s="0" t="n">
-        <v>100.0</v>
+        <v>88.24</v>
       </c>
       <c r="CY17" s="0" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="CZ17" s="0" t="n">
-        <v>16.49</v>
+        <v>14.59</v>
       </c>
       <c r="DA17" s="0" t="n">
-        <v>3.98</v>
+        <v>3.63</v>
       </c>
       <c r="DB17" s="0" t="n">
-        <v>14.56</v>
+        <v>16.95</v>
       </c>
       <c r="DC17" s="0" t="n">
-        <v>14.46</v>
+        <v>15.94</v>
       </c>
       <c r="DD17" s="0" t="n">
-        <v>21.29</v>
+        <v>20.18</v>
       </c>
       <c r="DE17" s="0" t="n">
-        <v>7.75</v>
+        <v>10.09</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Kauno Žalgiris 1:3</t>
+          <t>Šiauliai - Dainava 2:2</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
@@ -6147,328 +6147,328 @@
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>4-1-3-2 (100.0%)</t>
+          <t>5-3-2 (100.0%)</t>
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.95</v>
+        <v>0.42</v>
       </c>
       <c r="I18" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL18" s="0" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="AM18" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP18" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR18" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AS18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="0" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AW18" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AX18" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AY18" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AZ18" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BA18" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC18" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BD18" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BE18" s="0" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BF18" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BG18" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BH18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI18" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BJ18" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BK18" s="0" t="n">
         <v>5.0</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="BL18" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BM18" s="0" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="BN18" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BO18" s="0" t="n">
+        <v>60.24</v>
+      </c>
+      <c r="BP18" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BQ18" s="0" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BR18" s="0" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="BS18" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BT18" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>324.0</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>262.0</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>80.86</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>37.71</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="R18" s="0" t="n">
+      <c r="BU18" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BV18" s="0" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BW18" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BX18" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BY18" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BZ18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA18" s="0" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="CB18" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CC18" s="0" t="n">
+        <v>59.83</v>
+      </c>
+      <c r="CD18" s="0" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="CE18" s="0" t="n">
         <v>42.0</v>
       </c>
-      <c r="S18" s="0" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="X18" s="0" t="n">
-        <v>181.0</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="Z18" s="0" t="n">
-        <v>44.75</v>
-      </c>
-      <c r="AA18" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AB18" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AC18" s="0" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="AD18" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF18" s="0" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="AG18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="0" t="n">
+      <c r="CF18" s="0" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="CG18" s="0" t="n">
         <v>100.0</v>
       </c>
-      <c r="AJ18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AM18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AO18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AQ18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS18" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AT18" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AU18" s="0" t="n">
+      <c r="CH18" s="0" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CI18" s="0" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="CJ18" s="0" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CK18" s="0" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CL18" s="0" t="n">
+        <v>60.38</v>
+      </c>
+      <c r="CM18" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CN18" s="0" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CO18" s="0" t="n">
+        <v>51.43</v>
+      </c>
+      <c r="CP18" s="0" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CQ18" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CR18" s="0" t="n">
+        <v>53.23</v>
+      </c>
+      <c r="CS18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT18" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU18" s="0" t="n">
         <v>100.0</v>
       </c>
-      <c r="AV18" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AW18" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AX18" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AY18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ18" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BA18" s="0" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="BB18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BC18" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BD18" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BE18" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="BF18" s="0" t="n">
+      <c r="CV18" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CW18" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CX18" s="0" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="CY18" s="0" t="n">
         <v>15.0</v>
       </c>
-      <c r="BG18" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="BH18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI18" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BJ18" s="0" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="BK18" s="0" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BL18" s="0" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="BM18" s="0" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="BN18" s="0" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="BO18" s="0" t="n">
-        <v>63.64</v>
-      </c>
-      <c r="BP18" s="0" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="BQ18" s="0" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BR18" s="0" t="n">
-        <v>29.41</v>
-      </c>
-      <c r="BS18" s="0" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="BT18" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BU18" s="0" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="BV18" s="0" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="BW18" s="0" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BX18" s="0" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="BY18" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BZ18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA18" s="0" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="CB18" s="0" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="CC18" s="0" t="n">
-        <v>64.04</v>
-      </c>
-      <c r="CD18" s="0" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="CE18" s="0" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="CF18" s="0" t="n">
-        <v>94.44</v>
-      </c>
-      <c r="CG18" s="0" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="CH18" s="0" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="CI18" s="0" t="n">
-        <v>88.81</v>
-      </c>
-      <c r="CJ18" s="0" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="CK18" s="0" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="CL18" s="0" t="n">
-        <v>54.55</v>
-      </c>
-      <c r="CM18" s="0" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="CN18" s="0" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="CO18" s="0" t="n">
-        <v>52.63</v>
-      </c>
-      <c r="CP18" s="0" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="CQ18" s="0" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="CR18" s="0" t="n">
-        <v>64.62</v>
-      </c>
-      <c r="CS18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CT18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CU18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV18" s="0" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="CW18" s="0" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="CX18" s="0" t="n">
-        <v>69.23</v>
-      </c>
-      <c r="CY18" s="0" t="n">
-        <v>8.0</v>
-      </c>
       <c r="CZ18" s="0" t="n">
-        <v>16.46</v>
+        <v>14.8</v>
       </c>
       <c r="DA18" s="0" t="n">
-        <v>3.72</v>
+        <v>2.65</v>
       </c>
       <c r="DB18" s="0" t="n">
-        <v>16.98</v>
+        <v>17.1</v>
       </c>
       <c r="DC18" s="0" t="n">
-        <v>22.02</v>
+        <v>20.15</v>
       </c>
       <c r="DD18" s="0" t="n">
-        <v>21.43</v>
+        <v>20.74</v>
       </c>
       <c r="DE18" s="0" t="n">
-        <v>15.6</v>
+        <v>16.15</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Dainava - Kauno Žalgiris 1:3</t>
+          <t>Šiauliai - Dainava 2:2</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -6477,331 +6477,1009 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Kauno Žalgiris</t>
+          <t>Šiauliai</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>4-2-3-1 (100.0%)</t>
+          <t>4-4-2 (100.0%)</t>
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>2.65</v>
+        <v>3.34</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>33.33</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>542.0</v>
+        <v>474.0</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>471.0</v>
+        <v>383.0</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>86.9</v>
+        <v>80.8</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>62.29</v>
+        <v>57.84</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>102.0</v>
+        <v>132.0</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>45.0</v>
+        <v>72.0</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>85.0</v>
+        <v>99.0</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>31.0</v>
+        <v>43.0</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>181.0</v>
+        <v>226.0</v>
       </c>
       <c r="Y19" s="0" t="n">
-        <v>96.0</v>
+        <v>106.0</v>
       </c>
       <c r="Z19" s="0" t="n">
-        <v>53.04</v>
+        <v>46.9</v>
       </c>
       <c r="AA19" s="0" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB19" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="AC19" s="0" t="n">
-        <v>28.57</v>
+        <v>50.0</v>
       </c>
       <c r="AD19" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE19" s="0" t="n">
         <v>11</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>26.19</v>
+        <v>26.83</v>
       </c>
       <c r="AG19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO19" s="0" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="AP19" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR19" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AS19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AH19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK19" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL19" s="0" t="n">
-        <v>47.37</v>
-      </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AV19" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AW19" s="0" t="n">
         <v>6.0</v>
       </c>
-      <c r="AN19" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AO19" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AP19" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AQ19" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AR19" s="0" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="AS19" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AT19" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AU19" s="0" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="AV19" s="0" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="AW19" s="0" t="n">
-        <v>7.0</v>
-      </c>
       <c r="AX19" s="0" t="n">
-        <v>38.89</v>
+        <v>25.0</v>
       </c>
       <c r="AY19" s="0" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AZ19" s="0" t="n">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="BA19" s="0" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="BB19" s="0" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="BC19" s="0" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="BD19" s="0" t="n">
-        <v>35.0</v>
+        <v>26.0</v>
       </c>
       <c r="BE19" s="0" t="n">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
       <c r="BF19" s="0" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="BG19" s="0" t="n">
-        <v>36.36</v>
+        <v>39.76</v>
       </c>
       <c r="BH19" s="0" t="n">
         <v>2.0</v>
       </c>
       <c r="BI19" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="BJ19" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BK19" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BL19" s="0" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="BM19" s="0" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BN19" s="0" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BO19" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BP19" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BQ19" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BR19" s="0" t="n">
+        <v>61.22</v>
+      </c>
+      <c r="BS19" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV19" s="0" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BW19" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BX19" s="0" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BY19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA19" s="0" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="CB19" s="0" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="CC19" s="0" t="n">
+        <v>72.51</v>
+      </c>
+      <c r="CD19" s="0" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CE19" s="0" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="CF19" s="0" t="n">
+        <v>92.75</v>
+      </c>
+      <c r="CG19" s="0" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="CH19" s="0" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="CI19" s="0" t="n">
+        <v>85.64</v>
+      </c>
+      <c r="CJ19" s="0" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CK19" s="0" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CL19" s="0" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="CM19" s="0" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CN19" s="0" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="CO19" s="0" t="n">
+        <v>68.92</v>
+      </c>
+      <c r="CP19" s="0" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="CQ19" s="0" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CR19" s="0" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="CS19" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CT19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV19" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CW19" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CX19" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CY19" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CZ19" s="0" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="DA19" s="0" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="DB19" s="0" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="DC19" s="0" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="DD19" s="0" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="DE19" s="0" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Dainava - Kauno Žalgiris 1:3</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Lithuania. A Lyga</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Dainava</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>4-1-3-2 (100.0%)</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>5.0</v>
       </c>
-      <c r="BK19" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="BL19" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>40.0</v>
       </c>
-      <c r="BM19" s="0" t="n">
+      <c r="L20" s="0" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>80.86</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>44.75</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS20" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT20" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU20" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AV20" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AW20" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX20" s="0" t="n">
         <v>50.0</v>
       </c>
-      <c r="BN19" s="0" t="n">
+      <c r="AY20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ20" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA20" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BB20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC20" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD20" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE20" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BF20" s="0" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BG20" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BH20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI20" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BJ20" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BK20" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BL20" s="0" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="BM20" s="0" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BN20" s="0" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BO20" s="0" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="BP20" s="0" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BQ20" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR20" s="0" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="BS20" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BT20" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BU20" s="0" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BV20" s="0" t="n">
         <v>35.0</v>
       </c>
-      <c r="BO19" s="0" t="n">
+      <c r="BW20" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BX20" s="0" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BY20" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA20" s="0" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="CB20" s="0" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CC20" s="0" t="n">
+        <v>64.04</v>
+      </c>
+      <c r="CD20" s="0" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CE20" s="0" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="CF20" s="0" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="CG20" s="0" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="CH20" s="0" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="CI20" s="0" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="CJ20" s="0" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CK20" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="CL20" s="0" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="CM20" s="0" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CN20" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CO20" s="0" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="CP20" s="0" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="CQ20" s="0" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="CR20" s="0" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="CS20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV20" s="0" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CW20" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CX20" s="0" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="CY20" s="0" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CZ20" s="0" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="DA20" s="0" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="DB20" s="0" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="DC20" s="0" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="DD20" s="0" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="DE20" s="0" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Dainava - Kauno Žalgiris 1:3</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Lithuania. A Lyga</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Kauno Žalgiris</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>4-2-3-1 (100.0%)</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>53.04</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL21" s="0" t="n">
+        <v>47.37</v>
+      </c>
+      <c r="AM21" s="0" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AN21" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO21" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AP21" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ21" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR21" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AS21" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT21" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU21" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AV21" s="0" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AW21" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AX21" s="0" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="AY21" s="0" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AZ21" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BA21" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BB21" s="0" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BC21" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD21" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BE21" s="0" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BF21" s="0" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BG21" s="0" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="BH21" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BI21" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ21" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BK21" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL21" s="0" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BM21" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BN21" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BO21" s="0" t="n">
         <v>70.0</v>
       </c>
-      <c r="BP19" s="0" t="n">
+      <c r="BP21" s="0" t="n">
         <v>34.0</v>
       </c>
-      <c r="BQ19" s="0" t="n">
+      <c r="BQ21" s="0" t="n">
         <v>23.0</v>
       </c>
-      <c r="BR19" s="0" t="n">
+      <c r="BR21" s="0" t="n">
         <v>67.65</v>
       </c>
-      <c r="BS19" s="0" t="n">
+      <c r="BS21" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="BT19" s="0" t="n">
+      <c r="BT21" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="BU19" s="0" t="n">
+      <c r="BU21" s="0" t="n">
         <v>100.0</v>
       </c>
-      <c r="BV19" s="0" t="n">
+      <c r="BV21" s="0" t="n">
         <v>32.0</v>
       </c>
-      <c r="BW19" s="0" t="n">
+      <c r="BW21" s="0" t="n">
         <v>3.0</v>
       </c>
-      <c r="BX19" s="0" t="n">
+      <c r="BX21" s="0" t="n">
         <v>10.0</v>
       </c>
-      <c r="BY19" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BZ19" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="CA19" s="0" t="n">
+      <c r="BY21" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA21" s="0" t="n">
         <v>165.0</v>
       </c>
-      <c r="CB19" s="0" t="n">
+      <c r="CB21" s="0" t="n">
         <v>125.0</v>
       </c>
-      <c r="CC19" s="0" t="n">
+      <c r="CC21" s="0" t="n">
         <v>75.76</v>
       </c>
-      <c r="CD19" s="0" t="n">
+      <c r="CD21" s="0" t="n">
         <v>89.0</v>
       </c>
-      <c r="CE19" s="0" t="n">
+      <c r="CE21" s="0" t="n">
         <v>83.0</v>
       </c>
-      <c r="CF19" s="0" t="n">
+      <c r="CF21" s="0" t="n">
         <v>93.26</v>
       </c>
-      <c r="CG19" s="0" t="n">
+      <c r="CG21" s="0" t="n">
         <v>238.0</v>
       </c>
-      <c r="CH19" s="0" t="n">
+      <c r="CH21" s="0" t="n">
         <v>220.0</v>
       </c>
-      <c r="CI19" s="0" t="n">
+      <c r="CI21" s="0" t="n">
         <v>92.44</v>
       </c>
-      <c r="CJ19" s="0" t="n">
+      <c r="CJ21" s="0" t="n">
         <v>60.0</v>
       </c>
-      <c r="CK19" s="0" t="n">
+      <c r="CK21" s="0" t="n">
         <v>36.0</v>
       </c>
-      <c r="CL19" s="0" t="n">
+      <c r="CL21" s="0" t="n">
         <v>60.0</v>
       </c>
-      <c r="CM19" s="0" t="n">
+      <c r="CM21" s="0" t="n">
         <v>54.0</v>
       </c>
-      <c r="CN19" s="0" t="n">
+      <c r="CN21" s="0" t="n">
         <v>38.0</v>
       </c>
-      <c r="CO19" s="0" t="n">
+      <c r="CO21" s="0" t="n">
         <v>70.37</v>
       </c>
-      <c r="CP19" s="0" t="n">
+      <c r="CP21" s="0" t="n">
         <v>84.0</v>
       </c>
-      <c r="CQ19" s="0" t="n">
+      <c r="CQ21" s="0" t="n">
         <v>69.0</v>
       </c>
-      <c r="CR19" s="0" t="n">
+      <c r="CR21" s="0" t="n">
         <v>82.14</v>
       </c>
-      <c r="CS19" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="CT19" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="CU19" s="0" t="n">
+      <c r="CS21" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT21" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU21" s="0" t="n">
         <v>100.0</v>
       </c>
-      <c r="CV19" s="0" t="n">
+      <c r="CV21" s="0" t="n">
         <v>23.0</v>
       </c>
-      <c r="CW19" s="0" t="n">
+      <c r="CW21" s="0" t="n">
         <v>19.0</v>
       </c>
-      <c r="CX19" s="0" t="n">
+      <c r="CX21" s="0" t="n">
         <v>82.61</v>
       </c>
-      <c r="CY19" s="0" t="n">
+      <c r="CY21" s="0" t="n">
         <v>2.0</v>
       </c>
-      <c r="CZ19" s="0" t="n">
+      <c r="CZ21" s="0" t="n">
         <v>16.67</v>
       </c>
-      <c r="DA19" s="0" t="n">
+      <c r="DA21" s="0" t="n">
         <v>5.26</v>
       </c>
-      <c r="DB19" s="0" t="n">
+      <c r="DB21" s="0" t="n">
         <v>11.07</v>
       </c>
-      <c r="DC19" s="0" t="n">
+      <c r="DC21" s="0" t="n">
         <v>17.24</v>
       </c>
-      <c r="DD19" s="0" t="n">
+      <c r="DD21" s="0" t="n">
         <v>21.51</v>
       </c>
-      <c r="DE19" s="0" t="n">
+      <c r="DE21" s="0" t="n">
         <v>10.26</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="59">
+  <mergeCells count="63">
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="P1:S1"/>
@@ -6861,6 +7539,10 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
